--- a/교육/202010_신입사원 교육과정.xlsx
+++ b/교육/202010_신입사원 교육과정.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.203\share\3. 개인자료\김은비\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dmsql1471\교육\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C6C3B7-7508-44A3-9766-86BB70157621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{438D533F-3DE2-4F6D-A6DF-3AE1C022E1BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,326 +553,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Vue.js </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>란</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>? (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프론트엔드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스터디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>배포까지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, node js </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> npm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개념</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (node js</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>간략히</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)
-ES5, ES6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기준</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비교차이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + JS import/export </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, aync, await </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개념</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, push </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>서버</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개념</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, SignalR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개념</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, websocket </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개념</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>웹표준은 생략)</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">HTTP </t>
     </r>
     <r>
@@ -1132,6 +812,345 @@
   </si>
   <si>
     <t>SSL, TLS 인증서 관련 상세 내용</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Vue.js </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>란</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>? (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프론트엔드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스터디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배포까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, node js </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> npm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개념</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (node js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>간략히</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) +책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Roboto"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> Vuex 추가 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+ES5, ES6 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기준</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비교차이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + JS import/export </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, aync, await </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개념</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, push </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>서버</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개념</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, SignalR </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개념</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, websocket </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개념</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>웹표준은 생략)</t>
+    </r>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -1142,7 +1161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1358,6 +1377,13 @@
       <color rgb="FF0B5394"/>
       <name val="Roboto"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF45818E"/>
+      <name val="Roboto"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1749,22 +1775,11 @@
     <xf numFmtId="0" fontId="34" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1776,6 +1791,17 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2002,7 +2028,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2175,178 +2201,178 @@
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="62"/>
-      <c r="G3" s="72" t="s">
+      <c r="G3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="71" t="s">
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="65" t="s">
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="74"/>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="74"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="74"/>
+      <c r="AJ3" s="74"/>
+      <c r="AK3" s="74"/>
+      <c r="AL3" s="74"/>
+      <c r="AM3" s="74"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="74"/>
+      <c r="AP3" s="74"/>
+      <c r="AQ3" s="74"/>
+      <c r="AR3" s="74"/>
+      <c r="AS3" s="74"/>
+      <c r="AT3" s="74"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-      <c r="BA3" s="66"/>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="66"/>
-      <c r="BD3" s="66"/>
-      <c r="BE3" s="66"/>
-      <c r="BF3" s="66"/>
-      <c r="BG3" s="66"/>
-      <c r="BH3" s="66"/>
-      <c r="BI3" s="66"/>
-      <c r="BJ3" s="66"/>
-      <c r="BK3" s="66"/>
-      <c r="BL3" s="66"/>
-      <c r="BM3" s="66"/>
-      <c r="BN3" s="66"/>
-      <c r="BO3" s="66"/>
-      <c r="BP3" s="66"/>
-      <c r="BQ3" s="66"/>
-      <c r="BR3" s="66"/>
+      <c r="AW3" s="74"/>
+      <c r="AX3" s="74"/>
+      <c r="AY3" s="74"/>
+      <c r="AZ3" s="74"/>
+      <c r="BA3" s="74"/>
+      <c r="BB3" s="74"/>
+      <c r="BC3" s="74"/>
+      <c r="BD3" s="74"/>
+      <c r="BE3" s="74"/>
+      <c r="BF3" s="74"/>
+      <c r="BG3" s="74"/>
+      <c r="BH3" s="74"/>
+      <c r="BI3" s="74"/>
+      <c r="BJ3" s="74"/>
+      <c r="BK3" s="74"/>
+      <c r="BL3" s="74"/>
+      <c r="BM3" s="74"/>
+      <c r="BN3" s="74"/>
+      <c r="BO3" s="74"/>
+      <c r="BP3" s="74"/>
+      <c r="BQ3" s="74"/>
+      <c r="BR3" s="74"/>
       <c r="BS3" s="27"/>
     </row>
     <row r="4" spans="1:71" ht="15.75" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="28"/>
       <c r="C4" s="48"/>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="70" t="s">
+      <c r="E4" s="75"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="69" t="s">
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="70" t="s">
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="69" t="s">
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="70" t="s">
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="69" t="s">
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="68"/>
-      <c r="AK4" s="70" t="s">
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="68"/>
-      <c r="AM4" s="68"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="69" t="s">
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="66"/>
+      <c r="AN4" s="66"/>
+      <c r="AO4" s="66"/>
+      <c r="AP4" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="68"/>
-      <c r="AR4" s="68"/>
-      <c r="AS4" s="68"/>
-      <c r="AT4" s="68"/>
-      <c r="AU4" s="70" t="s">
+      <c r="AQ4" s="66"/>
+      <c r="AR4" s="66"/>
+      <c r="AS4" s="66"/>
+      <c r="AT4" s="66"/>
+      <c r="AU4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="AV4" s="68"/>
-      <c r="AW4" s="68"/>
-      <c r="AX4" s="68"/>
-      <c r="AY4" s="68"/>
-      <c r="AZ4" s="69" t="s">
+      <c r="AV4" s="66"/>
+      <c r="AW4" s="66"/>
+      <c r="AX4" s="66"/>
+      <c r="AY4" s="66"/>
+      <c r="AZ4" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="BA4" s="68"/>
-      <c r="BB4" s="68"/>
-      <c r="BC4" s="68"/>
-      <c r="BD4" s="68"/>
-      <c r="BE4" s="70" t="s">
+      <c r="BA4" s="66"/>
+      <c r="BB4" s="66"/>
+      <c r="BC4" s="66"/>
+      <c r="BD4" s="66"/>
+      <c r="BE4" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="BF4" s="68"/>
-      <c r="BG4" s="68"/>
-      <c r="BH4" s="68"/>
-      <c r="BI4" s="68"/>
-      <c r="BJ4" s="69" t="s">
+      <c r="BF4" s="66"/>
+      <c r="BG4" s="66"/>
+      <c r="BH4" s="66"/>
+      <c r="BI4" s="66"/>
+      <c r="BJ4" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="BK4" s="68"/>
-      <c r="BL4" s="68"/>
-      <c r="BM4" s="68"/>
-      <c r="BN4" s="68"/>
-      <c r="BO4" s="70" t="s">
+      <c r="BK4" s="66"/>
+      <c r="BL4" s="66"/>
+      <c r="BM4" s="66"/>
+      <c r="BN4" s="66"/>
+      <c r="BO4" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="BP4" s="68"/>
-      <c r="BQ4" s="68"/>
-      <c r="BR4" s="68"/>
-      <c r="BS4" s="77"/>
+      <c r="BP4" s="66"/>
+      <c r="BQ4" s="66"/>
+      <c r="BR4" s="66"/>
+      <c r="BS4" s="72"/>
     </row>
     <row r="5" spans="1:71" ht="15.75" customHeight="1">
       <c r="A5" s="9"/>
@@ -2557,7 +2583,7 @@
     </row>
     <row r="6" spans="1:71" ht="43.5" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="68" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="49">
@@ -2570,7 +2596,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -2640,18 +2666,18 @@
     </row>
     <row r="7" spans="1:71" ht="43.5" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="74"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="49">
         <v>2</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="58">
         <v>100</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="23"/>
@@ -2721,7 +2747,7 @@
     </row>
     <row r="8" spans="1:71" ht="43.5" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="74"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="49" t="s">
         <v>28</v>
       </c>
@@ -2800,12 +2826,12 @@
     </row>
     <row r="9" spans="1:71" ht="43.5" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="74"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="49" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="58">
         <v>0</v>
@@ -2879,7 +2905,7 @@
     </row>
     <row r="10" spans="1:71" ht="43.5" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="74"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="49">
         <v>4</v>
       </c>
@@ -2958,7 +2984,7 @@
     </row>
     <row r="11" spans="1:71" ht="43.5" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="74"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="49">
         <v>5</v>
       </c>
@@ -3037,7 +3063,7 @@
     </row>
     <row r="12" spans="1:71" ht="43.5" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="70" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="49">
@@ -3118,12 +3144,12 @@
     </row>
     <row r="13" spans="1:71" ht="43.5" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="74"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="49">
         <v>7</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E13" s="58">
         <v>0</v>
@@ -3197,7 +3223,7 @@
     </row>
     <row r="14" spans="1:71" ht="43.5" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="76"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="50">
         <v>8</v>
       </c>
@@ -6183,8 +6209,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B14"/>
     <mergeCell ref="BJ4:BN4"/>
     <mergeCell ref="BO4:BS4"/>
     <mergeCell ref="AV3:BR3"/>
@@ -6202,6 +6226,8 @@
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>

--- a/교육/202010_신입사원 교육과정.xlsx
+++ b/교육/202010_신입사원 교육과정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.203\share\3. 개인자료\김은비\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE73E30-5B43-46C6-B544-F25437194084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485BDF8D-D2A5-494B-A794-F2EFF04115DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1170" windowWidth="28830" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -97,6 +97,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{336C3D7D-8F61-4D3F-82D5-66792C1497C0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://asec.ahnlab.com/156
+https://mangkyu.tistory.com/15
+https://seolhun.github.io/contents/network-http-http-vs-https%EC%9D%98-%EC%B0%A8%EC%9D%B4-%EA%B7%B8%EB%A6%AC%EA%B3%A0-packet%EA%B3%BC-tsl-ssl
+https://shlee0882.tistory.com/110
+https://feel5ny.github.io/2019/08/26/HTTP_004_01/
+http://tlog.tammolo.com/blog/4-cf6edc94-2ac1-4b59-b7bd-99b5fbb00287/
+ip
+IP
+https://m.blog.naver.com/PostView.nhn?blogId=nackji80&amp;logNo=220486253904&amp;proxyReferer=https:%2F%2Fwww.google.com%2F
+ajax
+https://velog.io/@johnque/AJAX%EB%9E%80
+https://hieroglyph.tistory.com/13
+https://coding-factory.tistory.com/143?category=785989
+http://www.ktword.co.kr/abbr_view.php?m_temp1=5939&amp;id=1382
+http://tcpschool.com/xml/xml_basic_element</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -480,79 +508,6 @@
   </si>
   <si>
     <r>
-      <t>tcp/ip 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>계층과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> http </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프로토콜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, AJAX</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>란</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">HTTP </t>
     </r>
     <r>
@@ -1150,6 +1105,86 @@
         <charset val="129"/>
       </rPr>
       <t>웹표준은 생략)</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>tcp/ip 4</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계층과</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> http </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프로토콜</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차이</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, AJAX</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>란</t>
     </r>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -1161,7 +1196,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1268,13 +1303,6 @@
       <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF0B5394"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1769,16 +1797,30 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1787,21 +1829,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2028,7 +2056,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2201,178 +2229,178 @@
       </c>
       <c r="E3" s="56"/>
       <c r="F3" s="62"/>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="76" t="s">
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
+      <c r="M3" s="66"/>
+      <c r="N3" s="66"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="66"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="74"/>
-      <c r="AE3" s="74"/>
-      <c r="AF3" s="74"/>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="74"/>
-      <c r="AJ3" s="74"/>
-      <c r="AK3" s="74"/>
-      <c r="AL3" s="74"/>
-      <c r="AM3" s="74"/>
-      <c r="AN3" s="74"/>
-      <c r="AO3" s="74"/>
-      <c r="AP3" s="74"/>
-      <c r="AQ3" s="74"/>
-      <c r="AR3" s="74"/>
-      <c r="AS3" s="74"/>
-      <c r="AT3" s="74"/>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="73" t="s">
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
+      <c r="AO3" s="66"/>
+      <c r="AP3" s="66"/>
+      <c r="AQ3" s="66"/>
+      <c r="AR3" s="66"/>
+      <c r="AS3" s="66"/>
+      <c r="AT3" s="66"/>
+      <c r="AU3" s="66"/>
+      <c r="AV3" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AW3" s="74"/>
-      <c r="AX3" s="74"/>
-      <c r="AY3" s="74"/>
-      <c r="AZ3" s="74"/>
-      <c r="BA3" s="74"/>
-      <c r="BB3" s="74"/>
-      <c r="BC3" s="74"/>
-      <c r="BD3" s="74"/>
-      <c r="BE3" s="74"/>
-      <c r="BF3" s="74"/>
-      <c r="BG3" s="74"/>
-      <c r="BH3" s="74"/>
-      <c r="BI3" s="74"/>
-      <c r="BJ3" s="74"/>
-      <c r="BK3" s="74"/>
-      <c r="BL3" s="74"/>
-      <c r="BM3" s="74"/>
-      <c r="BN3" s="74"/>
-      <c r="BO3" s="74"/>
-      <c r="BP3" s="74"/>
-      <c r="BQ3" s="74"/>
-      <c r="BR3" s="74"/>
+      <c r="AW3" s="66"/>
+      <c r="AX3" s="66"/>
+      <c r="AY3" s="66"/>
+      <c r="AZ3" s="66"/>
+      <c r="BA3" s="66"/>
+      <c r="BB3" s="66"/>
+      <c r="BC3" s="66"/>
+      <c r="BD3" s="66"/>
+      <c r="BE3" s="66"/>
+      <c r="BF3" s="66"/>
+      <c r="BG3" s="66"/>
+      <c r="BH3" s="66"/>
+      <c r="BI3" s="66"/>
+      <c r="BJ3" s="66"/>
+      <c r="BK3" s="66"/>
+      <c r="BL3" s="66"/>
+      <c r="BM3" s="66"/>
+      <c r="BN3" s="66"/>
+      <c r="BO3" s="66"/>
+      <c r="BP3" s="66"/>
+      <c r="BQ3" s="66"/>
+      <c r="BR3" s="66"/>
       <c r="BS3" s="27"/>
     </row>
     <row r="4" spans="1:71" ht="15.75" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="28"/>
       <c r="C4" s="48"/>
-      <c r="D4" s="75" t="s">
+      <c r="D4" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="65" t="s">
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="71" t="s">
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="65" t="s">
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="71" t="s">
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="65" t="s">
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="71" t="s">
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="65" t="s">
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="66"/>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="71" t="s">
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="68"/>
+      <c r="AP4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="66"/>
-      <c r="AR4" s="66"/>
-      <c r="AS4" s="66"/>
-      <c r="AT4" s="66"/>
-      <c r="AU4" s="65" t="s">
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AV4" s="66"/>
-      <c r="AW4" s="66"/>
-      <c r="AX4" s="66"/>
-      <c r="AY4" s="66"/>
-      <c r="AZ4" s="71" t="s">
+      <c r="AV4" s="68"/>
+      <c r="AW4" s="68"/>
+      <c r="AX4" s="68"/>
+      <c r="AY4" s="68"/>
+      <c r="AZ4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="BA4" s="66"/>
-      <c r="BB4" s="66"/>
-      <c r="BC4" s="66"/>
-      <c r="BD4" s="66"/>
-      <c r="BE4" s="65" t="s">
+      <c r="BA4" s="68"/>
+      <c r="BB4" s="68"/>
+      <c r="BC4" s="68"/>
+      <c r="BD4" s="68"/>
+      <c r="BE4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="BF4" s="66"/>
-      <c r="BG4" s="66"/>
-      <c r="BH4" s="66"/>
-      <c r="BI4" s="66"/>
-      <c r="BJ4" s="71" t="s">
+      <c r="BF4" s="68"/>
+      <c r="BG4" s="68"/>
+      <c r="BH4" s="68"/>
+      <c r="BI4" s="68"/>
+      <c r="BJ4" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="BK4" s="66"/>
-      <c r="BL4" s="66"/>
-      <c r="BM4" s="66"/>
-      <c r="BN4" s="66"/>
-      <c r="BO4" s="65" t="s">
+      <c r="BK4" s="68"/>
+      <c r="BL4" s="68"/>
+      <c r="BM4" s="68"/>
+      <c r="BN4" s="68"/>
+      <c r="BO4" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="BP4" s="66"/>
-      <c r="BQ4" s="66"/>
-      <c r="BR4" s="66"/>
-      <c r="BS4" s="72"/>
+      <c r="BP4" s="68"/>
+      <c r="BQ4" s="68"/>
+      <c r="BR4" s="68"/>
+      <c r="BS4" s="77"/>
     </row>
     <row r="5" spans="1:71" ht="15.75" customHeight="1">
       <c r="A5" s="9"/>
@@ -2583,7 +2611,7 @@
     </row>
     <row r="6" spans="1:71" ht="43.5" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="73" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="49">
@@ -2596,7 +2624,7 @@
         <v>100</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -2666,18 +2694,18 @@
     </row>
     <row r="7" spans="1:71" ht="43.5" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="68"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="49">
         <v>2</v>
       </c>
       <c r="D7" s="53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E7" s="58">
         <v>100</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="23"/>
@@ -2747,12 +2775,12 @@
     </row>
     <row r="8" spans="1:71" ht="43.5" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="68"/>
+      <c r="B8" s="74"/>
       <c r="C8" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>33</v>
+      <c r="D8" s="53" t="s">
+        <v>38</v>
       </c>
       <c r="E8" s="58">
         <v>0</v>
@@ -2826,12 +2854,12 @@
     </row>
     <row r="9" spans="1:71" ht="43.5" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="68"/>
+      <c r="B9" s="74"/>
       <c r="C9" s="49" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="58">
         <v>0</v>
@@ -2905,7 +2933,7 @@
     </row>
     <row r="10" spans="1:71" ht="43.5" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="68"/>
+      <c r="B10" s="74"/>
       <c r="C10" s="49">
         <v>4</v>
       </c>
@@ -2984,7 +3012,7 @@
     </row>
     <row r="11" spans="1:71" ht="43.5" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="68"/>
+      <c r="B11" s="74"/>
       <c r="C11" s="49">
         <v>5</v>
       </c>
@@ -3063,7 +3091,7 @@
     </row>
     <row r="12" spans="1:71" ht="43.5" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="75" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="49">
@@ -3144,12 +3172,12 @@
     </row>
     <row r="13" spans="1:71" ht="43.5" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="68"/>
+      <c r="B13" s="74"/>
       <c r="C13" s="49">
         <v>7</v>
       </c>
       <c r="D13" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="58">
         <v>0</v>
@@ -3223,7 +3251,7 @@
     </row>
     <row r="14" spans="1:71" ht="43.5" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="70"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="50">
         <v>8</v>
       </c>
@@ -6209,6 +6237,10 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="BJ4:BN4"/>
+    <mergeCell ref="BO4:BS4"/>
     <mergeCell ref="AV3:BR3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="V4:Z4"/>
@@ -6224,21 +6256,18 @@
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="BJ4:BN4"/>
-    <mergeCell ref="BO4:BS4"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{C3C5A023-5FD9-4C44-B29D-4FC1EB36F675}"/>
     <hyperlink ref="D7" r:id="rId3" xr:uid="{4DC102C9-DA18-4713-A6F1-9AE27BB277F6}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{B03607C5-CF24-4345-AFCE-CF9078E9B0ED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/교육/202010_신입사원 교육과정.xlsx
+++ b/교육/202010_신입사원 교육과정.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.203\share\3. 개인자료\김은비\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dmsql1471\교육\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485BDF8D-D2A5-494B-A794-F2EFF04115DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290A415D-0680-466A-B173-265A285EC229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1170" windowWidth="28830" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="1170" windowWidth="28830" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{336C3D7D-8F61-4D3F-82D5-66792C1497C0}">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{F639FA2B-E653-4641-9CA2-94B63098F2BC}">
       <text>
         <r>
           <rPr>
@@ -123,6 +123,16 @@
 http://www.ktword.co.kr/abbr_view.php?m_temp1=5939&amp;id=1382
 http://tcpschool.com/xml/xml_basic_element</t>
         </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -130,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>단계</t>
   </si>
@@ -256,14 +266,6 @@
     <t>제목없는 질문</t>
   </si>
   <si>
-    <t>3-1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-2</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">ADSOFT </t>
     </r>
@@ -706,66 +708,6 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용방법</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  - local repository, remote repository - fetch, pull, commit, push, merge </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>종류</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>SSL, TLS 인증서 관련 상세 내용</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -1110,7 +1052,66 @@
   </si>
   <si>
     <r>
-      <t>tcp/ip 4</t>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용방법</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  - local repository, remote repository - fetch, pull, commit, push, merge </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>종류</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   tcp/ip 4</t>
     </r>
     <r>
       <rPr>
@@ -1196,7 +1197,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1305,12 +1306,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF0B5394"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="30"/>
       <color rgb="FF0B5394"/>
@@ -1395,26 +1390,21 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF0B5394"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF0B5394"/>
-      <name val="Roboto"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF45818E"/>
       <name val="Roboto"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1481,8 +1471,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1668,12 +1676,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1728,18 +1788,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1766,10 +1814,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1797,29 +1841,8 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1829,7 +1852,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1837,6 +1925,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF8F8F8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2056,29 +2149,29 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" style="51" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="47" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="84.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="60" customWidth="1"/>
-    <col min="6" max="6" width="43.140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="54" customWidth="1"/>
+    <col min="6" max="6" width="43.140625" style="54" customWidth="1"/>
     <col min="7" max="71" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="48" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="45"/>
+        <v>28</v>
+      </c>
+      <c r="C1" s="41"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -2086,41 +2179,41 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
-      <c r="AP1" s="40"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="40"/>
-      <c r="AS1" s="40"/>
-      <c r="AT1" s="40"/>
-      <c r="AU1" s="40"/>
-      <c r="AV1" s="40"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36"/>
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="36"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="36"/>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="36"/>
+      <c r="AM1" s="36"/>
+      <c r="AN1" s="36"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="36"/>
+      <c r="AQ1" s="36"/>
+      <c r="AR1" s="36"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="36"/>
+      <c r="AU1" s="36"/>
+      <c r="AV1" s="36"/>
       <c r="AW1" s="5"/>
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
@@ -2148,10 +2241,10 @@
     <row r="2" spans="1:71" ht="15.75" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="46"/>
+      <c r="C2" s="42"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="61"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="55"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -2223,195 +2316,195 @@
       <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="47"/>
+      <c r="C3" s="43"/>
       <c r="D3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="72" t="s">
+      <c r="E3" s="50"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="71" t="s">
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="65" t="s">
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="67"/>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-      <c r="BA3" s="66"/>
-      <c r="BB3" s="66"/>
-      <c r="BC3" s="66"/>
-      <c r="BD3" s="66"/>
-      <c r="BE3" s="66"/>
-      <c r="BF3" s="66"/>
-      <c r="BG3" s="66"/>
-      <c r="BH3" s="66"/>
-      <c r="BI3" s="66"/>
-      <c r="BJ3" s="66"/>
-      <c r="BK3" s="66"/>
-      <c r="BL3" s="66"/>
-      <c r="BM3" s="66"/>
-      <c r="BN3" s="66"/>
-      <c r="BO3" s="66"/>
-      <c r="BP3" s="66"/>
-      <c r="BQ3" s="66"/>
-      <c r="BR3" s="66"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="67"/>
+      <c r="BC3" s="67"/>
+      <c r="BD3" s="67"/>
+      <c r="BE3" s="67"/>
+      <c r="BF3" s="67"/>
+      <c r="BG3" s="67"/>
+      <c r="BH3" s="67"/>
+      <c r="BI3" s="67"/>
+      <c r="BJ3" s="67"/>
+      <c r="BK3" s="67"/>
+      <c r="BL3" s="67"/>
+      <c r="BM3" s="67"/>
+      <c r="BN3" s="67"/>
+      <c r="BO3" s="67"/>
+      <c r="BP3" s="67"/>
+      <c r="BQ3" s="67"/>
+      <c r="BR3" s="67"/>
       <c r="BS3" s="27"/>
     </row>
     <row r="4" spans="1:71" ht="15.75" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="28"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="67" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="70" t="s">
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="69" t="s">
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="70" t="s">
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="69" t="s">
+      <c r="R4" s="63"/>
+      <c r="S4" s="63"/>
+      <c r="T4" s="63"/>
+      <c r="U4" s="63"/>
+      <c r="V4" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="70" t="s">
+      <c r="W4" s="63"/>
+      <c r="X4" s="63"/>
+      <c r="Y4" s="63"/>
+      <c r="Z4" s="63"/>
+      <c r="AA4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="69" t="s">
+      <c r="AB4" s="63"/>
+      <c r="AC4" s="63"/>
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63"/>
+      <c r="AF4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="68"/>
-      <c r="AK4" s="70" t="s">
+      <c r="AG4" s="63"/>
+      <c r="AH4" s="63"/>
+      <c r="AI4" s="63"/>
+      <c r="AJ4" s="63"/>
+      <c r="AK4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="68"/>
-      <c r="AM4" s="68"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="69" t="s">
+      <c r="AL4" s="63"/>
+      <c r="AM4" s="63"/>
+      <c r="AN4" s="63"/>
+      <c r="AO4" s="63"/>
+      <c r="AP4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="68"/>
-      <c r="AR4" s="68"/>
-      <c r="AS4" s="68"/>
-      <c r="AT4" s="68"/>
-      <c r="AU4" s="70" t="s">
+      <c r="AQ4" s="63"/>
+      <c r="AR4" s="63"/>
+      <c r="AS4" s="63"/>
+      <c r="AT4" s="63"/>
+      <c r="AU4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="AV4" s="68"/>
-      <c r="AW4" s="68"/>
-      <c r="AX4" s="68"/>
-      <c r="AY4" s="68"/>
-      <c r="AZ4" s="69" t="s">
+      <c r="AV4" s="63"/>
+      <c r="AW4" s="63"/>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
+      <c r="AZ4" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="BA4" s="68"/>
-      <c r="BB4" s="68"/>
-      <c r="BC4" s="68"/>
-      <c r="BD4" s="68"/>
-      <c r="BE4" s="70" t="s">
+      <c r="BA4" s="63"/>
+      <c r="BB4" s="63"/>
+      <c r="BC4" s="63"/>
+      <c r="BD4" s="63"/>
+      <c r="BE4" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="BF4" s="68"/>
-      <c r="BG4" s="68"/>
-      <c r="BH4" s="68"/>
-      <c r="BI4" s="68"/>
-      <c r="BJ4" s="69" t="s">
+      <c r="BF4" s="63"/>
+      <c r="BG4" s="63"/>
+      <c r="BH4" s="63"/>
+      <c r="BI4" s="63"/>
+      <c r="BJ4" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="BK4" s="68"/>
-      <c r="BL4" s="68"/>
-      <c r="BM4" s="68"/>
-      <c r="BN4" s="68"/>
-      <c r="BO4" s="70" t="s">
+      <c r="BK4" s="63"/>
+      <c r="BL4" s="63"/>
+      <c r="BM4" s="63"/>
+      <c r="BN4" s="63"/>
+      <c r="BO4" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="BP4" s="68"/>
-      <c r="BQ4" s="68"/>
-      <c r="BR4" s="68"/>
-      <c r="BS4" s="77"/>
+      <c r="BP4" s="63"/>
+      <c r="BQ4" s="63"/>
+      <c r="BR4" s="63"/>
+      <c r="BS4" s="65"/>
     </row>
     <row r="5" spans="1:71" ht="15.75" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="28"/>
-      <c r="C5" s="48"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="63" t="s">
-        <v>32</v>
+      <c r="F5" s="57" t="s">
+        <v>30</v>
       </c>
       <c r="G5" s="15">
         <v>5</v>
@@ -2611,20 +2704,20 @@
     </row>
     <row r="6" spans="1:71" ht="43.5" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="45">
         <v>1</v>
       </c>
-      <c r="D6" s="53" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="58">
+      <c r="D6" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="52">
         <v>100</v>
       </c>
-      <c r="F6" s="58" t="s">
-        <v>34</v>
+      <c r="F6" s="52" t="s">
+        <v>32</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -2694,18 +2787,18 @@
     </row>
     <row r="7" spans="1:71" ht="43.5" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="49">
+      <c r="B7" s="59"/>
+      <c r="C7" s="45">
         <v>2</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="52">
+        <v>100</v>
+      </c>
+      <c r="F7" s="52" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" s="58">
-        <v>100</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>36</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="23"/>
@@ -2773,177 +2866,173 @@
       <c r="BR7" s="20"/>
       <c r="BS7" s="30"/>
     </row>
-    <row r="8" spans="1:71" ht="43.5" customHeight="1">
+    <row r="8" spans="1:71" ht="21" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="58">
-        <v>0</v>
-      </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" s="20"/>
-      <c r="AK8" s="21"/>
-      <c r="AL8" s="21"/>
-      <c r="AM8" s="21"/>
-      <c r="AN8" s="21"/>
-      <c r="AO8" s="20"/>
-      <c r="AP8" s="20"/>
-      <c r="AQ8" s="20"/>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="20"/>
-      <c r="AT8" s="20"/>
-      <c r="AU8" s="20"/>
-      <c r="AV8" s="20"/>
-      <c r="AW8" s="20"/>
-      <c r="AX8" s="20"/>
-      <c r="AY8" s="20"/>
-      <c r="AZ8" s="20"/>
-      <c r="BA8" s="20"/>
-      <c r="BB8" s="20"/>
-      <c r="BC8" s="20"/>
-      <c r="BD8" s="20"/>
-      <c r="BE8" s="20"/>
-      <c r="BF8" s="20"/>
-      <c r="BG8" s="20"/>
-      <c r="BH8" s="20"/>
-      <c r="BI8" s="20"/>
-      <c r="BJ8" s="20"/>
-      <c r="BK8" s="20"/>
-      <c r="BL8" s="20"/>
-      <c r="BM8" s="20"/>
-      <c r="BN8" s="20"/>
-      <c r="BO8" s="20"/>
-      <c r="BP8" s="20"/>
-      <c r="BQ8" s="20"/>
-      <c r="BR8" s="20"/>
-      <c r="BS8" s="30"/>
-    </row>
-    <row r="9" spans="1:71" ht="43.5" customHeight="1">
+      <c r="B8" s="59"/>
+      <c r="C8" s="70">
+        <v>3</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="72">
+        <v>100</v>
+      </c>
+      <c r="F8" s="72"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="74"/>
+      <c r="AK8" s="74"/>
+      <c r="AL8" s="74"/>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="74"/>
+      <c r="AS8" s="74"/>
+      <c r="AT8" s="74"/>
+      <c r="AU8" s="74"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="74"/>
+      <c r="AX8" s="74"/>
+      <c r="AY8" s="74"/>
+      <c r="AZ8" s="74"/>
+      <c r="BA8" s="74"/>
+      <c r="BB8" s="74"/>
+      <c r="BC8" s="74"/>
+      <c r="BD8" s="74"/>
+      <c r="BE8" s="74"/>
+      <c r="BF8" s="74"/>
+      <c r="BG8" s="74"/>
+      <c r="BH8" s="74"/>
+      <c r="BI8" s="74"/>
+      <c r="BJ8" s="74"/>
+      <c r="BK8" s="74"/>
+      <c r="BL8" s="74"/>
+      <c r="BM8" s="74"/>
+      <c r="BN8" s="74"/>
+      <c r="BO8" s="74"/>
+      <c r="BP8" s="74"/>
+      <c r="BQ8" s="74"/>
+      <c r="BR8" s="74"/>
+      <c r="BS8" s="76"/>
+    </row>
+    <row r="9" spans="1:71" ht="21" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="64" t="s">
+      <c r="B9" s="59"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="58">
-        <v>0</v>
-      </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20"/>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21"/>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20"/>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20"/>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20"/>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="20"/>
-      <c r="BB9" s="20"/>
-      <c r="BC9" s="20"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="20"/>
-      <c r="BF9" s="20"/>
-      <c r="BG9" s="20"/>
-      <c r="BH9" s="20"/>
-      <c r="BI9" s="20"/>
-      <c r="BJ9" s="20"/>
-      <c r="BK9" s="20"/>
-      <c r="BL9" s="20"/>
-      <c r="BM9" s="20"/>
-      <c r="BN9" s="20"/>
-      <c r="BO9" s="20"/>
-      <c r="BP9" s="20"/>
-      <c r="BQ9" s="20"/>
-      <c r="BR9" s="20"/>
-      <c r="BS9" s="30"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="75"/>
+      <c r="M9" s="75"/>
+      <c r="N9" s="75"/>
+      <c r="O9" s="75"/>
+      <c r="P9" s="75"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="79"/>
+      <c r="T9" s="79"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="75"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="75"/>
+      <c r="Y9" s="75"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="75"/>
+      <c r="AB9" s="75"/>
+      <c r="AC9" s="75"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="75"/>
+      <c r="AI9" s="75"/>
+      <c r="AJ9" s="75"/>
+      <c r="AK9" s="75"/>
+      <c r="AL9" s="75"/>
+      <c r="AM9" s="75"/>
+      <c r="AN9" s="75"/>
+      <c r="AO9" s="75"/>
+      <c r="AP9" s="75"/>
+      <c r="AQ9" s="75"/>
+      <c r="AR9" s="75"/>
+      <c r="AS9" s="75"/>
+      <c r="AT9" s="75"/>
+      <c r="AU9" s="75"/>
+      <c r="AV9" s="75"/>
+      <c r="AW9" s="75"/>
+      <c r="AX9" s="75"/>
+      <c r="AY9" s="75"/>
+      <c r="AZ9" s="75"/>
+      <c r="BA9" s="75"/>
+      <c r="BB9" s="75"/>
+      <c r="BC9" s="75"/>
+      <c r="BD9" s="75"/>
+      <c r="BE9" s="75"/>
+      <c r="BF9" s="75"/>
+      <c r="BG9" s="75"/>
+      <c r="BH9" s="75"/>
+      <c r="BI9" s="75"/>
+      <c r="BJ9" s="75"/>
+      <c r="BK9" s="75"/>
+      <c r="BL9" s="75"/>
+      <c r="BM9" s="75"/>
+      <c r="BN9" s="75"/>
+      <c r="BO9" s="75"/>
+      <c r="BP9" s="75"/>
+      <c r="BQ9" s="75"/>
+      <c r="BR9" s="75"/>
+      <c r="BS9" s="77"/>
     </row>
     <row r="10" spans="1:71" ht="43.5" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="49">
+      <c r="B10" s="59"/>
+      <c r="C10" s="45">
         <v>4</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="58">
+      <c r="E10" s="52">
         <v>0</v>
       </c>
-      <c r="F10" s="58"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="22"/>
       <c r="H10" s="24"/>
       <c r="I10" s="20"/>
@@ -3012,17 +3101,17 @@
     </row>
     <row r="11" spans="1:71" ht="43.5" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="49">
+      <c r="B11" s="59"/>
+      <c r="C11" s="45">
         <v>5</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="58">
+      <c r="E11" s="52">
         <v>0</v>
       </c>
-      <c r="F11" s="58"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="22"/>
       <c r="H11" s="24"/>
       <c r="I11" s="20"/>
@@ -3091,19 +3180,19 @@
     </row>
     <row r="12" spans="1:71" ht="43.5" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="45">
         <v>6</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="58">
+      <c r="E12" s="52">
         <v>0</v>
       </c>
-      <c r="F12" s="58"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="22"/>
       <c r="H12" s="24"/>
       <c r="I12" s="20"/>
@@ -3128,17 +3217,17 @@
       <c r="AB12" s="20"/>
       <c r="AC12" s="20"/>
       <c r="AD12" s="20"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="42"/>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="42"/>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="42"/>
-      <c r="AN12" s="42"/>
-      <c r="AO12" s="42"/>
+      <c r="AE12" s="37"/>
+      <c r="AF12" s="38"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="38"/>
+      <c r="AJ12" s="38"/>
+      <c r="AK12" s="38"/>
+      <c r="AL12" s="38"/>
+      <c r="AM12" s="38"/>
+      <c r="AN12" s="38"/>
+      <c r="AO12" s="38"/>
       <c r="AP12" s="20"/>
       <c r="AQ12" s="20"/>
       <c r="AR12" s="20"/>
@@ -3172,17 +3261,17 @@
     </row>
     <row r="13" spans="1:71" ht="43.5" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="49">
+      <c r="B13" s="59"/>
+      <c r="C13" s="45">
         <v>7</v>
       </c>
-      <c r="D13" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="58">
+      <c r="D13" s="84" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="52">
         <v>0</v>
       </c>
-      <c r="F13" s="58"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="22"/>
       <c r="H13" s="24"/>
       <c r="I13" s="20"/>
@@ -3218,26 +3307,26 @@
       <c r="AM13" s="21"/>
       <c r="AN13" s="21"/>
       <c r="AO13" s="20"/>
-      <c r="AP13" s="42"/>
-      <c r="AQ13" s="42"/>
-      <c r="AR13" s="42"/>
-      <c r="AS13" s="42"/>
-      <c r="AT13" s="42"/>
-      <c r="AU13" s="42"/>
-      <c r="AV13" s="42"/>
-      <c r="AW13" s="42"/>
-      <c r="AX13" s="42"/>
-      <c r="AY13" s="42"/>
-      <c r="AZ13" s="42"/>
-      <c r="BA13" s="42"/>
-      <c r="BB13" s="42"/>
-      <c r="BC13" s="42"/>
-      <c r="BD13" s="42"/>
-      <c r="BE13" s="42"/>
-      <c r="BF13" s="42"/>
-      <c r="BG13" s="42"/>
-      <c r="BH13" s="42"/>
-      <c r="BI13" s="42"/>
+      <c r="AP13" s="38"/>
+      <c r="AQ13" s="38"/>
+      <c r="AR13" s="38"/>
+      <c r="AS13" s="38"/>
+      <c r="AT13" s="38"/>
+      <c r="AU13" s="38"/>
+      <c r="AV13" s="38"/>
+      <c r="AW13" s="38"/>
+      <c r="AX13" s="38"/>
+      <c r="AY13" s="38"/>
+      <c r="AZ13" s="38"/>
+      <c r="BA13" s="38"/>
+      <c r="BB13" s="38"/>
+      <c r="BC13" s="38"/>
+      <c r="BD13" s="38"/>
+      <c r="BE13" s="38"/>
+      <c r="BF13" s="38"/>
+      <c r="BG13" s="38"/>
+      <c r="BH13" s="38"/>
+      <c r="BI13" s="38"/>
       <c r="BJ13" s="20"/>
       <c r="BK13" s="20"/>
       <c r="BL13" s="20"/>
@@ -3251,17 +3340,17 @@
     </row>
     <row r="14" spans="1:71" ht="43.5" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="50">
+      <c r="B14" s="61"/>
+      <c r="C14" s="46">
         <v>8</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="59">
+      <c r="E14" s="53">
         <v>0</v>
       </c>
-      <c r="F14" s="59"/>
+      <c r="F14" s="53"/>
       <c r="G14" s="31"/>
       <c r="H14" s="32"/>
       <c r="I14" s="33"/>
@@ -3317,16 +3406,16 @@
       <c r="BG14" s="33"/>
       <c r="BH14" s="33"/>
       <c r="BI14" s="33"/>
-      <c r="BJ14" s="43"/>
-      <c r="BK14" s="43"/>
-      <c r="BL14" s="43"/>
-      <c r="BM14" s="43"/>
-      <c r="BN14" s="43"/>
-      <c r="BO14" s="43"/>
-      <c r="BP14" s="43"/>
-      <c r="BQ14" s="43"/>
-      <c r="BR14" s="43"/>
-      <c r="BS14" s="44"/>
+      <c r="BJ14" s="39"/>
+      <c r="BK14" s="39"/>
+      <c r="BL14" s="39"/>
+      <c r="BM14" s="39"/>
+      <c r="BN14" s="39"/>
+      <c r="BO14" s="39"/>
+      <c r="BP14" s="39"/>
+      <c r="BQ14" s="39"/>
+      <c r="BR14" s="39"/>
+      <c r="BS14" s="40"/>
     </row>
     <row r="15" spans="1:71" ht="12.75">
       <c r="A15" s="11"/>
@@ -6236,7 +6325,78 @@
       <c r="A983" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="87">
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BQ8:BQ9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BS8:BS9"/>
+    <mergeCell ref="BJ8:BJ9"/>
+    <mergeCell ref="BK8:BK9"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BM8:BM9"/>
+    <mergeCell ref="BN8:BN9"/>
+    <mergeCell ref="BE8:BE9"/>
+    <mergeCell ref="BF8:BF9"/>
+    <mergeCell ref="BG8:BG9"/>
+    <mergeCell ref="BH8:BH9"/>
+    <mergeCell ref="BI8:BI9"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="BC8:BC9"/>
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="BJ4:BN4"/>
@@ -6253,16 +6413,13 @@
     <mergeCell ref="AZ4:BD4"/>
     <mergeCell ref="AA3:AU3"/>
     <mergeCell ref="G3:Z3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:U4"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{C3C5A023-5FD9-4C44-B29D-4FC1EB36F675}"/>
     <hyperlink ref="D7" r:id="rId3" xr:uid="{4DC102C9-DA18-4713-A6F1-9AE27BB277F6}"/>
-    <hyperlink ref="D8" r:id="rId4" xr:uid="{B03607C5-CF24-4345-AFCE-CF9078E9B0ED}"/>
+    <hyperlink ref="D8:D9" r:id="rId4" display="tcp/ip 4계층과 http 프로토콜 차이, AJAX란" xr:uid="{C796D420-1F56-4328-AC97-C7187CB1590A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/교육/202010_신입사원 교육과정.xlsx
+++ b/교육/202010_신입사원 교육과정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dmsql1471\교육\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290A415D-0680-466A-B173-265A285EC229}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5159E23F-D4AD-4EF1-85C2-DC89882C7A36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="1170" windowWidth="28830" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28770" yWindow="885" windowWidth="28830" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -205,9 +205,6 @@
     <t>기초교육</t>
   </si>
   <si>
-    <t>MVC패턴, SPA, PWA(progressive web app)비교/차이</t>
-  </si>
-  <si>
     <t>DB테이블 설계 (정규화 4단계와 반정규화), 사용자 계정(로그인)기능 중 세션, 토큰 방식 차이(JWT) 만료 연장 방법 (슬라이딩 세션 등 그외)</t>
   </si>
   <si>
@@ -1189,6 +1186,60 @@
     </r>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>MVC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>패턴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, SPA, PWA(progressive web app)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비교</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차이</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1197,7 +1248,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1402,6 +1453,19 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0B5394"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0B5394"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1844,6 +1908,22 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1864,6 +1944,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1900,24 +1982,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2149,7 +2213,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2166,7 +2230,7 @@
     <row r="1" spans="1:71" ht="48" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="2"/>
@@ -2322,178 +2386,178 @@
       </c>
       <c r="E3" s="50"/>
       <c r="F3" s="56"/>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="68" t="s">
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="67"/>
-      <c r="AO3" s="67"/>
-      <c r="AP3" s="67"/>
-      <c r="AQ3" s="67"/>
-      <c r="AR3" s="67"/>
-      <c r="AS3" s="67"/>
-      <c r="AT3" s="67"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="66" t="s">
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
-      <c r="BA3" s="67"/>
-      <c r="BB3" s="67"/>
-      <c r="BC3" s="67"/>
-      <c r="BD3" s="67"/>
-      <c r="BE3" s="67"/>
-      <c r="BF3" s="67"/>
-      <c r="BG3" s="67"/>
-      <c r="BH3" s="67"/>
-      <c r="BI3" s="67"/>
-      <c r="BJ3" s="67"/>
-      <c r="BK3" s="67"/>
-      <c r="BL3" s="67"/>
-      <c r="BM3" s="67"/>
-      <c r="BN3" s="67"/>
-      <c r="BO3" s="67"/>
-      <c r="BP3" s="67"/>
-      <c r="BQ3" s="67"/>
-      <c r="BR3" s="67"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="73"/>
+      <c r="BH3" s="73"/>
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="73"/>
+      <c r="BK3" s="73"/>
+      <c r="BL3" s="73"/>
+      <c r="BM3" s="73"/>
+      <c r="BN3" s="73"/>
+      <c r="BO3" s="73"/>
+      <c r="BP3" s="73"/>
+      <c r="BQ3" s="73"/>
+      <c r="BR3" s="73"/>
       <c r="BS3" s="27"/>
     </row>
     <row r="4" spans="1:71" ht="15.75" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="28"/>
       <c r="C4" s="44"/>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="64" t="s">
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="62" t="s">
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="64" t="s">
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="62" t="s">
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="63"/>
-      <c r="AA4" s="64" t="s">
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="63"/>
-      <c r="AC4" s="63"/>
-      <c r="AD4" s="63"/>
-      <c r="AE4" s="63"/>
-      <c r="AF4" s="62" t="s">
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="63"/>
-      <c r="AH4" s="63"/>
-      <c r="AI4" s="63"/>
-      <c r="AJ4" s="63"/>
-      <c r="AK4" s="64" t="s">
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="63"/>
-      <c r="AM4" s="63"/>
-      <c r="AN4" s="63"/>
-      <c r="AO4" s="63"/>
-      <c r="AP4" s="62" t="s">
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="63"/>
-      <c r="AR4" s="63"/>
-      <c r="AS4" s="63"/>
-      <c r="AT4" s="63"/>
-      <c r="AU4" s="64" t="s">
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AV4" s="63"/>
-      <c r="AW4" s="63"/>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-      <c r="AZ4" s="62" t="s">
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="BA4" s="63"/>
-      <c r="BB4" s="63"/>
-      <c r="BC4" s="63"/>
-      <c r="BD4" s="63"/>
-      <c r="BE4" s="64" t="s">
+      <c r="BA4" s="69"/>
+      <c r="BB4" s="69"/>
+      <c r="BC4" s="69"/>
+      <c r="BD4" s="69"/>
+      <c r="BE4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="BF4" s="63"/>
-      <c r="BG4" s="63"/>
-      <c r="BH4" s="63"/>
-      <c r="BI4" s="63"/>
-      <c r="BJ4" s="62" t="s">
+      <c r="BF4" s="69"/>
+      <c r="BG4" s="69"/>
+      <c r="BH4" s="69"/>
+      <c r="BI4" s="69"/>
+      <c r="BJ4" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="BK4" s="63"/>
-      <c r="BL4" s="63"/>
-      <c r="BM4" s="63"/>
-      <c r="BN4" s="63"/>
-      <c r="BO4" s="64" t="s">
+      <c r="BK4" s="69"/>
+      <c r="BL4" s="69"/>
+      <c r="BM4" s="69"/>
+      <c r="BN4" s="69"/>
+      <c r="BO4" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="BP4" s="63"/>
-      <c r="BQ4" s="63"/>
-      <c r="BR4" s="63"/>
-      <c r="BS4" s="65"/>
+      <c r="BP4" s="69"/>
+      <c r="BQ4" s="69"/>
+      <c r="BR4" s="69"/>
+      <c r="BS4" s="71"/>
     </row>
     <row r="5" spans="1:71" ht="15.75" customHeight="1">
       <c r="A5" s="9"/>
@@ -2504,7 +2568,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G5" s="15">
         <v>5</v>
@@ -2704,20 +2768,20 @@
     </row>
     <row r="6" spans="1:71" ht="43.5" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="45">
         <v>1</v>
       </c>
-      <c r="D6" s="80" t="s">
-        <v>29</v>
+      <c r="D6" s="58" t="s">
+        <v>28</v>
       </c>
       <c r="E6" s="52">
         <v>100</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -2787,18 +2851,18 @@
     </row>
     <row r="7" spans="1:71" ht="43.5" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="59"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="45">
         <v>2</v>
       </c>
-      <c r="D7" s="80" t="s">
-        <v>31</v>
+      <c r="D7" s="58" t="s">
+        <v>30</v>
       </c>
       <c r="E7" s="52">
         <v>100</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="23"/>
@@ -2868,166 +2932,166 @@
     </row>
     <row r="8" spans="1:71" ht="21" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="70">
+      <c r="B8" s="65"/>
+      <c r="C8" s="78">
         <v>3</v>
       </c>
-      <c r="D8" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="72">
+      <c r="D8" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="80">
         <v>100</v>
       </c>
-      <c r="F8" s="72"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="74"/>
-      <c r="K8" s="74"/>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
-      <c r="O8" s="74"/>
-      <c r="P8" s="74"/>
-      <c r="Q8" s="78"/>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="74"/>
-      <c r="W8" s="74"/>
-      <c r="X8" s="74"/>
-      <c r="Y8" s="74"/>
-      <c r="Z8" s="74"/>
-      <c r="AA8" s="74"/>
-      <c r="AB8" s="74"/>
-      <c r="AC8" s="74"/>
-      <c r="AD8" s="74"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="74"/>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="74"/>
-      <c r="AI8" s="74"/>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="74"/>
-      <c r="AL8" s="74"/>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="74"/>
-      <c r="AO8" s="74"/>
-      <c r="AP8" s="74"/>
-      <c r="AQ8" s="74"/>
-      <c r="AR8" s="74"/>
-      <c r="AS8" s="74"/>
-      <c r="AT8" s="74"/>
-      <c r="AU8" s="74"/>
-      <c r="AV8" s="74"/>
-      <c r="AW8" s="74"/>
-      <c r="AX8" s="74"/>
-      <c r="AY8" s="74"/>
-      <c r="AZ8" s="74"/>
-      <c r="BA8" s="74"/>
-      <c r="BB8" s="74"/>
-      <c r="BC8" s="74"/>
-      <c r="BD8" s="74"/>
-      <c r="BE8" s="74"/>
-      <c r="BF8" s="74"/>
-      <c r="BG8" s="74"/>
-      <c r="BH8" s="74"/>
-      <c r="BI8" s="74"/>
-      <c r="BJ8" s="74"/>
-      <c r="BK8" s="74"/>
-      <c r="BL8" s="74"/>
-      <c r="BM8" s="74"/>
-      <c r="BN8" s="74"/>
-      <c r="BO8" s="74"/>
-      <c r="BP8" s="74"/>
-      <c r="BQ8" s="74"/>
-      <c r="BR8" s="74"/>
-      <c r="BS8" s="76"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="82"/>
+      <c r="AM8" s="82"/>
+      <c r="AN8" s="82"/>
+      <c r="AO8" s="82"/>
+      <c r="AP8" s="82"/>
+      <c r="AQ8" s="82"/>
+      <c r="AR8" s="82"/>
+      <c r="AS8" s="82"/>
+      <c r="AT8" s="82"/>
+      <c r="AU8" s="82"/>
+      <c r="AV8" s="82"/>
+      <c r="AW8" s="82"/>
+      <c r="AX8" s="82"/>
+      <c r="AY8" s="82"/>
+      <c r="AZ8" s="82"/>
+      <c r="BA8" s="82"/>
+      <c r="BB8" s="82"/>
+      <c r="BC8" s="82"/>
+      <c r="BD8" s="82"/>
+      <c r="BE8" s="82"/>
+      <c r="BF8" s="82"/>
+      <c r="BG8" s="82"/>
+      <c r="BH8" s="82"/>
+      <c r="BI8" s="82"/>
+      <c r="BJ8" s="82"/>
+      <c r="BK8" s="82"/>
+      <c r="BL8" s="82"/>
+      <c r="BM8" s="82"/>
+      <c r="BN8" s="82"/>
+      <c r="BO8" s="82"/>
+      <c r="BP8" s="82"/>
+      <c r="BQ8" s="82"/>
+      <c r="BR8" s="82"/>
+      <c r="BS8" s="84"/>
     </row>
     <row r="9" spans="1:71" ht="21" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="80" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="79"/>
-      <c r="R9" s="79"/>
-      <c r="S9" s="79"/>
-      <c r="T9" s="79"/>
-      <c r="U9" s="79"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="75"/>
-      <c r="AK9" s="75"/>
-      <c r="AL9" s="75"/>
-      <c r="AM9" s="75"/>
-      <c r="AN9" s="75"/>
-      <c r="AO9" s="75"/>
-      <c r="AP9" s="75"/>
-      <c r="AQ9" s="75"/>
-      <c r="AR9" s="75"/>
-      <c r="AS9" s="75"/>
-      <c r="AT9" s="75"/>
-      <c r="AU9" s="75"/>
-      <c r="AV9" s="75"/>
-      <c r="AW9" s="75"/>
-      <c r="AX9" s="75"/>
-      <c r="AY9" s="75"/>
-      <c r="AZ9" s="75"/>
-      <c r="BA9" s="75"/>
-      <c r="BB9" s="75"/>
-      <c r="BC9" s="75"/>
-      <c r="BD9" s="75"/>
-      <c r="BE9" s="75"/>
-      <c r="BF9" s="75"/>
-      <c r="BG9" s="75"/>
-      <c r="BH9" s="75"/>
-      <c r="BI9" s="75"/>
-      <c r="BJ9" s="75"/>
-      <c r="BK9" s="75"/>
-      <c r="BL9" s="75"/>
-      <c r="BM9" s="75"/>
-      <c r="BN9" s="75"/>
-      <c r="BO9" s="75"/>
-      <c r="BP9" s="75"/>
-      <c r="BQ9" s="75"/>
-      <c r="BR9" s="75"/>
-      <c r="BS9" s="77"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="83"/>
+      <c r="AN9" s="83"/>
+      <c r="AO9" s="83"/>
+      <c r="AP9" s="83"/>
+      <c r="AQ9" s="83"/>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="83"/>
+      <c r="AV9" s="83"/>
+      <c r="AW9" s="83"/>
+      <c r="AX9" s="83"/>
+      <c r="AY9" s="83"/>
+      <c r="AZ9" s="83"/>
+      <c r="BA9" s="83"/>
+      <c r="BB9" s="83"/>
+      <c r="BC9" s="83"/>
+      <c r="BD9" s="83"/>
+      <c r="BE9" s="83"/>
+      <c r="BF9" s="83"/>
+      <c r="BG9" s="83"/>
+      <c r="BH9" s="83"/>
+      <c r="BI9" s="83"/>
+      <c r="BJ9" s="83"/>
+      <c r="BK9" s="83"/>
+      <c r="BL9" s="83"/>
+      <c r="BM9" s="83"/>
+      <c r="BN9" s="83"/>
+      <c r="BO9" s="83"/>
+      <c r="BP9" s="83"/>
+      <c r="BQ9" s="83"/>
+      <c r="BR9" s="83"/>
+      <c r="BS9" s="85"/>
     </row>
     <row r="10" spans="1:71" ht="43.5" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="59"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="45">
         <v>4</v>
       </c>
-      <c r="D10" s="82" t="s">
-        <v>21</v>
+      <c r="D10" s="60" t="s">
+        <v>36</v>
       </c>
       <c r="E10" s="52">
         <v>0</v>
@@ -3101,12 +3165,12 @@
     </row>
     <row r="11" spans="1:71" ht="43.5" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="59"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="45">
         <v>5</v>
       </c>
-      <c r="D11" s="82" t="s">
-        <v>22</v>
+      <c r="D11" s="60" t="s">
+        <v>21</v>
       </c>
       <c r="E11" s="52">
         <v>0</v>
@@ -3180,14 +3244,14 @@
     </row>
     <row r="12" spans="1:71" ht="43.5" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="60" t="s">
-        <v>23</v>
+      <c r="B12" s="66" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="45">
         <v>6</v>
       </c>
-      <c r="D12" s="83" t="s">
-        <v>24</v>
+      <c r="D12" s="61" t="s">
+        <v>23</v>
       </c>
       <c r="E12" s="52">
         <v>0</v>
@@ -3261,12 +3325,12 @@
     </row>
     <row r="13" spans="1:71" ht="43.5" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="59"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="45">
         <v>7</v>
       </c>
-      <c r="D13" s="84" t="s">
-        <v>34</v>
+      <c r="D13" s="62" t="s">
+        <v>33</v>
       </c>
       <c r="E13" s="52">
         <v>0</v>
@@ -3340,12 +3404,12 @@
     </row>
     <row r="14" spans="1:71" ht="43.5" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="61"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="46">
         <v>8</v>
       </c>
-      <c r="D14" s="85" t="s">
-        <v>25</v>
+      <c r="D14" s="63" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="53">
         <v>0</v>
@@ -6420,11 +6484,12 @@
     <hyperlink ref="D6" r:id="rId2" xr:uid="{C3C5A023-5FD9-4C44-B29D-4FC1EB36F675}"/>
     <hyperlink ref="D7" r:id="rId3" xr:uid="{4DC102C9-DA18-4713-A6F1-9AE27BB277F6}"/>
     <hyperlink ref="D8:D9" r:id="rId4" display="tcp/ip 4계층과 http 프로토콜 차이, AJAX란" xr:uid="{C796D420-1F56-4328-AC97-C7187CB1590A}"/>
+    <hyperlink ref="D8" r:id="rId5" xr:uid="{E9C8EF66-3069-4468-9995-19CD38EEB4BB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6447,10 +6512,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/교육/202010_신입사원 교육과정.xlsx
+++ b/교육/202010_신입사원 교육과정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dmsql1471\교육\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5159E23F-D4AD-4EF1-85C2-DC89882C7A36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AEBD39-C9AD-4F68-810B-E0D4297FAB81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28770" yWindow="885" windowWidth="28830" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>https://asec.ahnlab.com/156
+          <t xml:space="preserve">https://asec.ahnlab.com/156
 https://mangkyu.tistory.com/15
 https://seolhun.github.io/contents/network-http-http-vs-https%EC%9D%98-%EC%B0%A8%EC%9D%B4-%EA%B7%B8%EB%A6%AC%EA%B3%A0-packet%EA%B3%BC-tsl-ssl
 https://shlee0882.tistory.com/110
@@ -121,7 +121,40 @@
 https://hieroglyph.tistory.com/13
 https://coding-factory.tistory.com/143?category=785989
 http://www.ktword.co.kr/abbr_view.php?m_temp1=5939&amp;id=1382
-http://tcpschool.com/xml/xml_basic_element</t>
+http://tcpschool.com/xml/xml_basic_element
+https://git-scm.com/book/ko/v2/Git-%EC%84%9C%EB%B2%84-%EC%84%9C%EB%B2%84%EC%97%90-Git-%EC%84%A4%EC%B9%98%ED%95%98%EA%B8%B0
+https://parksb.github.io/article/28.html
+https://git-scm.com/book/ko/v2/Git-%EB%B8%8C%EB%9E%9C%EC%B9%98-%EB%A6%AC%EB%AA%A8%ED%8A%B8-%EB%B8%8C%EB%9E%9C%EC%B9%98
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">동영상
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>https://opentutorials.org/course/2708/15210
+https://git-scm.com/book/ko/v2/%EC%8B%9C%EC%9E%91%ED%95%98%EA%B8%B0-Git-%EA%B8%B0%EC%B4%88
+https://velog.io/@ybear90/Git%EC%9D%84-%EC%82%AC%EC%9A%A9%ED%95%98%EA%B8%B0-%EC%9C%84%ED%95%9C-%EA%B8%B0%EC%B4%88-%EC%A0%95%EB%A6%AC-1
+https://coding-groot.tistory.com/111
+https://velog.io/@yejikang/Git%EC%9D%B4%EB%9E%80
+https://flowerykeyboard.tistory.com/9
+https://medium.com/asciiart/git-%EC%9B%90%EB%A6%AC-%EC%A0%95%EB%A6%AC-%EB%B0%8F-%EA%B4%80%EB%A0%A8-%EB%A7%81%ED%81%AC%EB%93%A4-2a7c8a00cdcb
+https://medium.com/happyprogrammer-in-jeju/git-%EB%82%B4%EB%B6%80-%EA%B5%AC%EC%A1%B0%EB%A5%BC-%EC%95%8C%EC%95%84%EB%B3%B4%EC%9E%90-1-%EA%B8%B0%EB%B3%B8-%EC%98%A4%EB%B8%8C%EC%A0%9D%ED%8A%B8-81b34f85fe53</t>
         </r>
         <r>
           <rPr>
@@ -140,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>단계</t>
   </si>
@@ -211,49 +244,6 @@
     <t>실무교육</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">REST API 란? (백엔드) - </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>asp.net</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> core 3.1 web api + </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MyBatis.NET</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 브로젝트로 구현해보기</t>
-    </r>
-  </si>
-  <si>
     <t>DevExpress 데이터 테이블 - 스터디 + 샘플 화면 구현</t>
   </si>
   <si>
@@ -1198,7 +1188,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>패턴</t>
+      <t>패턴과 자바에서 실제 사용되는 예 (어떤파일들이 각각에 해당되는지 등)</t>
     </r>
     <r>
       <rPr>
@@ -1238,6 +1228,135 @@
       </rPr>
       <t>차이</t>
     </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">REST API </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>란</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>? (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>백엔드</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) - </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>asp.net</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> core 3.1 web api + </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MyBatis.NET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로젝트로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현해보기</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP, UDP 의 패킷 순서 관련 내용</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -1248,7 +1367,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="39">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1466,6 +1585,35 @@
       <color rgb="FF0B5394"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF45818E"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF45818E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="15">
@@ -1924,32 +2072,29 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1964,22 +2109,25 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2213,7 +2361,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -2230,7 +2378,7 @@
     <row r="1" spans="1:71" ht="48" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="2"/>
@@ -2386,178 +2534,178 @@
       </c>
       <c r="E3" s="50"/>
       <c r="F3" s="56"/>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="76" t="s">
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="73"/>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="72" t="s">
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="83"/>
+      <c r="AS3" s="83"/>
+      <c r="AT3" s="83"/>
+      <c r="AU3" s="83"/>
+      <c r="AV3" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="73"/>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="73"/>
-      <c r="BG3" s="73"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="73"/>
-      <c r="BJ3" s="73"/>
-      <c r="BK3" s="73"/>
-      <c r="BL3" s="73"/>
-      <c r="BM3" s="73"/>
-      <c r="BN3" s="73"/>
-      <c r="BO3" s="73"/>
-      <c r="BP3" s="73"/>
-      <c r="BQ3" s="73"/>
-      <c r="BR3" s="73"/>
+      <c r="AW3" s="83"/>
+      <c r="AX3" s="83"/>
+      <c r="AY3" s="83"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="83"/>
+      <c r="BB3" s="83"/>
+      <c r="BC3" s="83"/>
+      <c r="BD3" s="83"/>
+      <c r="BE3" s="83"/>
+      <c r="BF3" s="83"/>
+      <c r="BG3" s="83"/>
+      <c r="BH3" s="83"/>
+      <c r="BI3" s="83"/>
+      <c r="BJ3" s="83"/>
+      <c r="BK3" s="83"/>
+      <c r="BL3" s="83"/>
+      <c r="BM3" s="83"/>
+      <c r="BN3" s="83"/>
+      <c r="BO3" s="83"/>
+      <c r="BP3" s="83"/>
+      <c r="BQ3" s="83"/>
+      <c r="BR3" s="83"/>
       <c r="BS3" s="27"/>
     </row>
     <row r="4" spans="1:71" ht="15.75" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="28"/>
       <c r="C4" s="44"/>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="85"/>
       <c r="G4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="68" t="s">
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
       <c r="Q4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="68" t="s">
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
       <c r="AA4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="68" t="s">
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="71"/>
       <c r="AK4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="68" t="s">
+      <c r="AL4" s="71"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
+      <c r="AQ4" s="71"/>
+      <c r="AR4" s="71"/>
+      <c r="AS4" s="71"/>
+      <c r="AT4" s="71"/>
       <c r="AU4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="68" t="s">
+      <c r="AV4" s="71"/>
+      <c r="AW4" s="71"/>
+      <c r="AX4" s="71"/>
+      <c r="AY4" s="71"/>
+      <c r="AZ4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="BA4" s="69"/>
-      <c r="BB4" s="69"/>
-      <c r="BC4" s="69"/>
-      <c r="BD4" s="69"/>
+      <c r="BA4" s="71"/>
+      <c r="BB4" s="71"/>
+      <c r="BC4" s="71"/>
+      <c r="BD4" s="71"/>
       <c r="BE4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="BF4" s="69"/>
-      <c r="BG4" s="69"/>
-      <c r="BH4" s="69"/>
-      <c r="BI4" s="69"/>
-      <c r="BJ4" s="68" t="s">
+      <c r="BF4" s="71"/>
+      <c r="BG4" s="71"/>
+      <c r="BH4" s="71"/>
+      <c r="BI4" s="71"/>
+      <c r="BJ4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="BK4" s="69"/>
-      <c r="BL4" s="69"/>
-      <c r="BM4" s="69"/>
-      <c r="BN4" s="69"/>
+      <c r="BK4" s="71"/>
+      <c r="BL4" s="71"/>
+      <c r="BM4" s="71"/>
+      <c r="BN4" s="71"/>
       <c r="BO4" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="BP4" s="69"/>
-      <c r="BQ4" s="69"/>
-      <c r="BR4" s="69"/>
-      <c r="BS4" s="71"/>
+      <c r="BP4" s="71"/>
+      <c r="BQ4" s="71"/>
+      <c r="BR4" s="71"/>
+      <c r="BS4" s="81"/>
     </row>
     <row r="5" spans="1:71" ht="15.75" customHeight="1">
       <c r="A5" s="9"/>
@@ -2568,7 +2716,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="15">
         <v>5</v>
@@ -2768,20 +2916,20 @@
     </row>
     <row r="6" spans="1:71" ht="43.5" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="77" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="45">
         <v>1</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="52">
         <v>100</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -2851,18 +2999,18 @@
     </row>
     <row r="7" spans="1:71" ht="43.5" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="65"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="45">
         <v>2</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="52">
         <v>100</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="23"/>
@@ -2932,166 +3080,168 @@
     </row>
     <row r="8" spans="1:71" ht="21" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="78">
+      <c r="B8" s="78"/>
+      <c r="C8" s="73">
         <v>3</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="80">
+        <v>34</v>
+      </c>
+      <c r="E8" s="75">
         <v>100</v>
       </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="82"/>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="82"/>
-      <c r="AF8" s="82"/>
-      <c r="AG8" s="82"/>
-      <c r="AH8" s="82"/>
-      <c r="AI8" s="82"/>
-      <c r="AJ8" s="82"/>
-      <c r="AK8" s="82"/>
-      <c r="AL8" s="82"/>
-      <c r="AM8" s="82"/>
-      <c r="AN8" s="82"/>
-      <c r="AO8" s="82"/>
-      <c r="AP8" s="82"/>
-      <c r="AQ8" s="82"/>
-      <c r="AR8" s="82"/>
-      <c r="AS8" s="82"/>
-      <c r="AT8" s="82"/>
-      <c r="AU8" s="82"/>
-      <c r="AV8" s="82"/>
-      <c r="AW8" s="82"/>
-      <c r="AX8" s="82"/>
-      <c r="AY8" s="82"/>
-      <c r="AZ8" s="82"/>
-      <c r="BA8" s="82"/>
-      <c r="BB8" s="82"/>
-      <c r="BC8" s="82"/>
-      <c r="BD8" s="82"/>
-      <c r="BE8" s="82"/>
-      <c r="BF8" s="82"/>
-      <c r="BG8" s="82"/>
-      <c r="BH8" s="82"/>
-      <c r="BI8" s="82"/>
-      <c r="BJ8" s="82"/>
-      <c r="BK8" s="82"/>
-      <c r="BL8" s="82"/>
-      <c r="BM8" s="82"/>
-      <c r="BN8" s="82"/>
-      <c r="BO8" s="82"/>
-      <c r="BP8" s="82"/>
-      <c r="BQ8" s="82"/>
-      <c r="BR8" s="82"/>
-      <c r="BS8" s="84"/>
+      <c r="F8" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="66"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="66"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="66"/>
+      <c r="AO8" s="66"/>
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="66"/>
+      <c r="AS8" s="66"/>
+      <c r="AT8" s="66"/>
+      <c r="AU8" s="66"/>
+      <c r="AV8" s="66"/>
+      <c r="AW8" s="66"/>
+      <c r="AX8" s="66"/>
+      <c r="AY8" s="66"/>
+      <c r="AZ8" s="66"/>
+      <c r="BA8" s="66"/>
+      <c r="BB8" s="66"/>
+      <c r="BC8" s="66"/>
+      <c r="BD8" s="66"/>
+      <c r="BE8" s="66"/>
+      <c r="BF8" s="66"/>
+      <c r="BG8" s="66"/>
+      <c r="BH8" s="66"/>
+      <c r="BI8" s="66"/>
+      <c r="BJ8" s="66"/>
+      <c r="BK8" s="66"/>
+      <c r="BL8" s="66"/>
+      <c r="BM8" s="66"/>
+      <c r="BN8" s="66"/>
+      <c r="BO8" s="66"/>
+      <c r="BP8" s="66"/>
+      <c r="BQ8" s="66"/>
+      <c r="BR8" s="66"/>
+      <c r="BS8" s="68"/>
     </row>
     <row r="9" spans="1:71" ht="21" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="58" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="83"/>
-      <c r="AI9" s="83"/>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="83"/>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="83"/>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="83"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="83"/>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="83"/>
-      <c r="AT9" s="83"/>
-      <c r="AU9" s="83"/>
-      <c r="AV9" s="83"/>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="83"/>
-      <c r="AY9" s="83"/>
-      <c r="AZ9" s="83"/>
-      <c r="BA9" s="83"/>
-      <c r="BB9" s="83"/>
-      <c r="BC9" s="83"/>
-      <c r="BD9" s="83"/>
-      <c r="BE9" s="83"/>
-      <c r="BF9" s="83"/>
-      <c r="BG9" s="83"/>
-      <c r="BH9" s="83"/>
-      <c r="BI9" s="83"/>
-      <c r="BJ9" s="83"/>
-      <c r="BK9" s="83"/>
-      <c r="BL9" s="83"/>
-      <c r="BM9" s="83"/>
-      <c r="BN9" s="83"/>
-      <c r="BO9" s="83"/>
-      <c r="BP9" s="83"/>
-      <c r="BQ9" s="83"/>
-      <c r="BR9" s="83"/>
-      <c r="BS9" s="85"/>
+        <v>33</v>
+      </c>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="67"/>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="67"/>
+      <c r="AK9" s="67"/>
+      <c r="AL9" s="67"/>
+      <c r="AM9" s="67"/>
+      <c r="AN9" s="67"/>
+      <c r="AO9" s="67"/>
+      <c r="AP9" s="67"/>
+      <c r="AQ9" s="67"/>
+      <c r="AR9" s="67"/>
+      <c r="AS9" s="67"/>
+      <c r="AT9" s="67"/>
+      <c r="AU9" s="67"/>
+      <c r="AV9" s="67"/>
+      <c r="AW9" s="67"/>
+      <c r="AX9" s="67"/>
+      <c r="AY9" s="67"/>
+      <c r="AZ9" s="67"/>
+      <c r="BA9" s="67"/>
+      <c r="BB9" s="67"/>
+      <c r="BC9" s="67"/>
+      <c r="BD9" s="67"/>
+      <c r="BE9" s="67"/>
+      <c r="BF9" s="67"/>
+      <c r="BG9" s="67"/>
+      <c r="BH9" s="67"/>
+      <c r="BI9" s="67"/>
+      <c r="BJ9" s="67"/>
+      <c r="BK9" s="67"/>
+      <c r="BL9" s="67"/>
+      <c r="BM9" s="67"/>
+      <c r="BN9" s="67"/>
+      <c r="BO9" s="67"/>
+      <c r="BP9" s="67"/>
+      <c r="BQ9" s="67"/>
+      <c r="BR9" s="67"/>
+      <c r="BS9" s="69"/>
     </row>
     <row r="10" spans="1:71" ht="43.5" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="65"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="45">
         <v>4</v>
       </c>
       <c r="D10" s="60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="52">
         <v>0</v>
@@ -3165,7 +3315,7 @@
     </row>
     <row r="11" spans="1:71" ht="43.5" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="65"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="45">
         <v>5</v>
       </c>
@@ -3244,14 +3394,14 @@
     </row>
     <row r="12" spans="1:71" ht="43.5" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="79" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="45">
         <v>6</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E12" s="52">
         <v>0</v>
@@ -3325,12 +3475,12 @@
     </row>
     <row r="13" spans="1:71" ht="43.5" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="65"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="45">
         <v>7</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="52">
         <v>0</v>
@@ -3404,12 +3554,12 @@
     </row>
     <row r="14" spans="1:71" ht="43.5" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="67"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="46">
         <v>8</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="53">
         <v>0</v>
@@ -6390,61 +6540,22 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BQ8:BQ9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BS8:BS9"/>
-    <mergeCell ref="BJ8:BJ9"/>
-    <mergeCell ref="BK8:BK9"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BM8:BM9"/>
-    <mergeCell ref="BN8:BN9"/>
-    <mergeCell ref="BE8:BE9"/>
-    <mergeCell ref="BF8:BF9"/>
-    <mergeCell ref="BG8:BG9"/>
-    <mergeCell ref="BH8:BH9"/>
-    <mergeCell ref="BI8:BI9"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="BC8:BC9"/>
-    <mergeCell ref="BD8:BD9"/>
-    <mergeCell ref="AU8:AU9"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="BJ4:BN4"/>
+    <mergeCell ref="BO4:BS4"/>
+    <mergeCell ref="AV3:BR3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="AF4:AJ4"/>
+    <mergeCell ref="AU4:AY4"/>
+    <mergeCell ref="AK4:AO4"/>
+    <mergeCell ref="BE4:BI4"/>
+    <mergeCell ref="AP4:AT4"/>
+    <mergeCell ref="AZ4:BD4"/>
+    <mergeCell ref="AA3:AU3"/>
+    <mergeCell ref="G3:Z3"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="Q4:U4"/>
@@ -6461,26 +6572,65 @@
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="BJ4:BN4"/>
-    <mergeCell ref="BO4:BS4"/>
-    <mergeCell ref="AV3:BR3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="AA4:AE4"/>
-    <mergeCell ref="AF4:AJ4"/>
-    <mergeCell ref="AU4:AY4"/>
-    <mergeCell ref="AK4:AO4"/>
-    <mergeCell ref="BE4:BI4"/>
-    <mergeCell ref="AP4:AT4"/>
-    <mergeCell ref="AZ4:BD4"/>
-    <mergeCell ref="AA3:AU3"/>
-    <mergeCell ref="G3:Z3"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="BC8:BC9"/>
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="BE8:BE9"/>
+    <mergeCell ref="BF8:BF9"/>
+    <mergeCell ref="BG8:BG9"/>
+    <mergeCell ref="BH8:BH9"/>
+    <mergeCell ref="BI8:BI9"/>
+    <mergeCell ref="BJ8:BJ9"/>
+    <mergeCell ref="BK8:BK9"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BM8:BM9"/>
+    <mergeCell ref="BN8:BN9"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BQ8:BQ9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BS8:BS9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D12" r:id="rId1" display="REST API 란? (백엔드) - asp.net core 3.1 web api + MyBatis.NET 브로젝트로 구현해보기" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{C3C5A023-5FD9-4C44-B29D-4FC1EB36F675}"/>
     <hyperlink ref="D7" r:id="rId3" xr:uid="{4DC102C9-DA18-4713-A6F1-9AE27BB277F6}"/>
     <hyperlink ref="D8:D9" r:id="rId4" display="tcp/ip 4계층과 http 프로토콜 차이, AJAX란" xr:uid="{C796D420-1F56-4328-AC97-C7187CB1590A}"/>
@@ -6512,10 +6662,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/교육/202010_신입사원 교육과정.xlsx
+++ b/교육/202010_신입사원 교육과정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dmsql1471\교육\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AEBD39-C9AD-4F68-810B-E0D4297FAB81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F21849E-EEE2-4B2F-9B80-E5EE16ECDCEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,6 +168,173 @@
         </r>
       </text>
     </comment>
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{7C21AE09-5D7F-46DA-AFE6-0CD22D61DC35}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://luckygg.tistory.com/182
+https://dlucky.tistory.com/135
+https://pjh3749.tistory.com/27
+SPA
+https://velog.io/@pkbird/Single-Page-Application
+https://valuefactory.tistory.com/700
+https://typeof-bong.tistory.com/18
+http://blog.naver.com/PostView.nhn?blogId=aha-aha&amp;logNo=221471483565&amp;parentCategoryNo=&amp;categoryNo=&amp;viewDate=&amp;isShowPopularPosts=false&amp;from=postView
+PWA
+https://uxgjs.tistory.com/224
+https://www.slideshare.net/GihyoJoshuaJang/the-future-of-web-progressive-web-app
+https://adrian0220.tistory.com/165
+https://valuefactory.tistory.com/700
+https://asfirstalways.tistory.com/244
+https://blog.naver.com/mincoding/221791294455
+https://webactually.com/2017/09/%EC%9B%B9-%ED%94%84%EB%A1%9C%EC%A0%9D%ED%8A%B8%EB%8A%94-pwa%EC%9D%B4%EC%96%B4%EC%95%BC-%ED%95%9C%EB%8B%A41/
+https://developer.mozilla.org/ko/docs/Web/Progressive_web_apps/App_structure
+https://b.limminho.com/archives/1384
+https://medium.com/@shlee1353/%EC%84%9C%EB%B9%84%EC%8A%A4%EC%9B%8C%EC%BB%A4-service-worker-%ED%81%AC%EB%A1%AC-%EB%B0%B1%EA%B7%B8%EB%9D%BC%EC%9A%B4%EB%93%9C-%EB%8F%99%EA%B8%B0%ED%99%94-%EB%AD%90%EC%A7%80-ebd479a91e63
+SPA &amp; PWA </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">차이
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://www.simicart.com/blog/pwa-vs-spa/
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자바에서</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> MVC </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>패천</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>적용</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>시</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">예제
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">https://apeltop.blogspot.com/2019/05/mvc-model-view-controller.html
+https://swjeong.tistory.com/16
+https://woolbro.tistory.com/42
+https://bin-repository.tistory.com/86
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -238,9 +405,6 @@
     <t>기초교육</t>
   </si>
   <si>
-    <t>DB테이블 설계 (정규화 4단계와 반정규화), 사용자 계정(로그인)기능 중 세션, 토큰 방식 차이(JWT) 만료 연장 방법 (슬라이딩 세션 등 그외)</t>
-  </si>
-  <si>
     <t>실무교육</t>
   </si>
   <si>
@@ -1178,7 +1342,363 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">REST API </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>란</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>? (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>백엔드</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) - </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>asp.net</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> core 3.1 web api + </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MyBatis.NET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로젝트로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현해보기</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP, UDP 의 패킷 순서 관련 내용</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>MVC</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>패턴과</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자바에서</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실제</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용되는</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어떤파일들이</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>각각에</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>해당되는지</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>), SPA, PWA(progressive web app)</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비교</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차이</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DB</t>
     </r>
     <r>
       <rPr>
@@ -1188,7 +1708,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>패턴과 자바에서 실제 사용되는 예 (어떤파일들이 각각에 해당되는지 등)</t>
+      <t>테이블</t>
     </r>
     <r>
       <rPr>
@@ -1197,7 +1717,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>, SPA, PWA(progressive web app)</t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1207,7 +1727,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>비교</t>
+      <t>설계</t>
     </r>
     <r>
       <rPr>
@@ -1216,7 +1736,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>/</t>
+      <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
@@ -1226,118 +1746,69 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>차이</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">REST API </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
+      <t>정규화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>란</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>? (</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
+      <t>단계와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>백엔드</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) - </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>asp.net</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> core 3.1 web api + </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MyBatis.NET</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+      <t>반정규화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>로젝트로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+      <t>사용자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1345,18 +1816,289 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>구현해보기</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCP, UDP 의 패킷 순서 관련 내용</t>
+      <t>계정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토큰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(JWT) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방법</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>슬라이딩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세션</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그외</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0B5394"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
@@ -2072,29 +2814,32 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2109,25 +2854,22 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2378,7 +3120,7 @@
     <row r="1" spans="1:71" ht="48" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="2"/>
@@ -2534,178 +3276,178 @@
       </c>
       <c r="E3" s="50"/>
       <c r="F3" s="56"/>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="86" t="s">
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="83"/>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="83"/>
-      <c r="AI3" s="83"/>
-      <c r="AJ3" s="83"/>
-      <c r="AK3" s="83"/>
-      <c r="AL3" s="83"/>
-      <c r="AM3" s="83"/>
-      <c r="AN3" s="83"/>
-      <c r="AO3" s="83"/>
-      <c r="AP3" s="83"/>
-      <c r="AQ3" s="83"/>
-      <c r="AR3" s="83"/>
-      <c r="AS3" s="83"/>
-      <c r="AT3" s="83"/>
-      <c r="AU3" s="83"/>
-      <c r="AV3" s="82" t="s">
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AW3" s="83"/>
-      <c r="AX3" s="83"/>
-      <c r="AY3" s="83"/>
-      <c r="AZ3" s="83"/>
-      <c r="BA3" s="83"/>
-      <c r="BB3" s="83"/>
-      <c r="BC3" s="83"/>
-      <c r="BD3" s="83"/>
-      <c r="BE3" s="83"/>
-      <c r="BF3" s="83"/>
-      <c r="BG3" s="83"/>
-      <c r="BH3" s="83"/>
-      <c r="BI3" s="83"/>
-      <c r="BJ3" s="83"/>
-      <c r="BK3" s="83"/>
-      <c r="BL3" s="83"/>
-      <c r="BM3" s="83"/>
-      <c r="BN3" s="83"/>
-      <c r="BO3" s="83"/>
-      <c r="BP3" s="83"/>
-      <c r="BQ3" s="83"/>
-      <c r="BR3" s="83"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="73"/>
+      <c r="BH3" s="73"/>
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="73"/>
+      <c r="BK3" s="73"/>
+      <c r="BL3" s="73"/>
+      <c r="BM3" s="73"/>
+      <c r="BN3" s="73"/>
+      <c r="BO3" s="73"/>
+      <c r="BP3" s="73"/>
+      <c r="BQ3" s="73"/>
+      <c r="BR3" s="73"/>
       <c r="BS3" s="27"/>
     </row>
     <row r="4" spans="1:71" ht="15.75" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="28"/>
       <c r="C4" s="44"/>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="72" t="s">
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
       <c r="Q4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="72" t="s">
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
       <c r="AA4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="72" t="s">
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
       <c r="AK4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="72" t="s">
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="71"/>
-      <c r="AR4" s="71"/>
-      <c r="AS4" s="71"/>
-      <c r="AT4" s="71"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
       <c r="AU4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AV4" s="71"/>
-      <c r="AW4" s="71"/>
-      <c r="AX4" s="71"/>
-      <c r="AY4" s="71"/>
-      <c r="AZ4" s="72" t="s">
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="BA4" s="71"/>
-      <c r="BB4" s="71"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="71"/>
+      <c r="BA4" s="69"/>
+      <c r="BB4" s="69"/>
+      <c r="BC4" s="69"/>
+      <c r="BD4" s="69"/>
       <c r="BE4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="BF4" s="71"/>
-      <c r="BG4" s="71"/>
-      <c r="BH4" s="71"/>
-      <c r="BI4" s="71"/>
-      <c r="BJ4" s="72" t="s">
+      <c r="BF4" s="69"/>
+      <c r="BG4" s="69"/>
+      <c r="BH4" s="69"/>
+      <c r="BI4" s="69"/>
+      <c r="BJ4" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="BK4" s="71"/>
-      <c r="BL4" s="71"/>
-      <c r="BM4" s="71"/>
-      <c r="BN4" s="71"/>
+      <c r="BK4" s="69"/>
+      <c r="BL4" s="69"/>
+      <c r="BM4" s="69"/>
+      <c r="BN4" s="69"/>
       <c r="BO4" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="BP4" s="71"/>
-      <c r="BQ4" s="71"/>
-      <c r="BR4" s="71"/>
-      <c r="BS4" s="81"/>
+      <c r="BP4" s="69"/>
+      <c r="BQ4" s="69"/>
+      <c r="BR4" s="69"/>
+      <c r="BS4" s="71"/>
     </row>
     <row r="5" spans="1:71" ht="15.75" customHeight="1">
       <c r="A5" s="9"/>
@@ -2716,7 +3458,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="15">
         <v>5</v>
@@ -2916,20 +3658,20 @@
     </row>
     <row r="6" spans="1:71" ht="43.5" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="64" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="45">
         <v>1</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="52">
         <v>100</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -2999,18 +3741,18 @@
     </row>
     <row r="7" spans="1:71" ht="43.5" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="78"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="45">
         <v>2</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="52">
         <v>100</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="23"/>
@@ -3080,171 +3822,171 @@
     </row>
     <row r="8" spans="1:71" ht="21" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="73">
+      <c r="B8" s="65"/>
+      <c r="C8" s="78">
         <v>3</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="75">
+        <v>33</v>
+      </c>
+      <c r="E8" s="80">
         <v>100</v>
       </c>
-      <c r="F8" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="66"/>
-      <c r="AM8" s="66"/>
-      <c r="AN8" s="66"/>
-      <c r="AO8" s="66"/>
-      <c r="AP8" s="66"/>
-      <c r="AQ8" s="66"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="66"/>
-      <c r="AV8" s="66"/>
-      <c r="AW8" s="66"/>
-      <c r="AX8" s="66"/>
-      <c r="AY8" s="66"/>
-      <c r="AZ8" s="66"/>
-      <c r="BA8" s="66"/>
-      <c r="BB8" s="66"/>
-      <c r="BC8" s="66"/>
-      <c r="BD8" s="66"/>
-      <c r="BE8" s="66"/>
-      <c r="BF8" s="66"/>
-      <c r="BG8" s="66"/>
-      <c r="BH8" s="66"/>
-      <c r="BI8" s="66"/>
-      <c r="BJ8" s="66"/>
-      <c r="BK8" s="66"/>
-      <c r="BL8" s="66"/>
-      <c r="BM8" s="66"/>
-      <c r="BN8" s="66"/>
-      <c r="BO8" s="66"/>
-      <c r="BP8" s="66"/>
-      <c r="BQ8" s="66"/>
-      <c r="BR8" s="66"/>
-      <c r="BS8" s="68"/>
+      <c r="F8" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="82"/>
+      <c r="AM8" s="82"/>
+      <c r="AN8" s="82"/>
+      <c r="AO8" s="82"/>
+      <c r="AP8" s="82"/>
+      <c r="AQ8" s="82"/>
+      <c r="AR8" s="82"/>
+      <c r="AS8" s="82"/>
+      <c r="AT8" s="82"/>
+      <c r="AU8" s="82"/>
+      <c r="AV8" s="82"/>
+      <c r="AW8" s="82"/>
+      <c r="AX8" s="82"/>
+      <c r="AY8" s="82"/>
+      <c r="AZ8" s="82"/>
+      <c r="BA8" s="82"/>
+      <c r="BB8" s="82"/>
+      <c r="BC8" s="82"/>
+      <c r="BD8" s="82"/>
+      <c r="BE8" s="82"/>
+      <c r="BF8" s="82"/>
+      <c r="BG8" s="82"/>
+      <c r="BH8" s="82"/>
+      <c r="BI8" s="82"/>
+      <c r="BJ8" s="82"/>
+      <c r="BK8" s="82"/>
+      <c r="BL8" s="82"/>
+      <c r="BM8" s="82"/>
+      <c r="BN8" s="82"/>
+      <c r="BO8" s="82"/>
+      <c r="BP8" s="82"/>
+      <c r="BQ8" s="82"/>
+      <c r="BR8" s="82"/>
+      <c r="BS8" s="84"/>
     </row>
     <row r="9" spans="1:71" ht="21" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="74"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="67"/>
-      <c r="AF9" s="67"/>
-      <c r="AG9" s="67"/>
-      <c r="AH9" s="67"/>
-      <c r="AI9" s="67"/>
-      <c r="AJ9" s="67"/>
-      <c r="AK9" s="67"/>
-      <c r="AL9" s="67"/>
-      <c r="AM9" s="67"/>
-      <c r="AN9" s="67"/>
-      <c r="AO9" s="67"/>
-      <c r="AP9" s="67"/>
-      <c r="AQ9" s="67"/>
-      <c r="AR9" s="67"/>
-      <c r="AS9" s="67"/>
-      <c r="AT9" s="67"/>
-      <c r="AU9" s="67"/>
-      <c r="AV9" s="67"/>
-      <c r="AW9" s="67"/>
-      <c r="AX9" s="67"/>
-      <c r="AY9" s="67"/>
-      <c r="AZ9" s="67"/>
-      <c r="BA9" s="67"/>
-      <c r="BB9" s="67"/>
-      <c r="BC9" s="67"/>
-      <c r="BD9" s="67"/>
-      <c r="BE9" s="67"/>
-      <c r="BF9" s="67"/>
-      <c r="BG9" s="67"/>
-      <c r="BH9" s="67"/>
-      <c r="BI9" s="67"/>
-      <c r="BJ9" s="67"/>
-      <c r="BK9" s="67"/>
-      <c r="BL9" s="67"/>
-      <c r="BM9" s="67"/>
-      <c r="BN9" s="67"/>
-      <c r="BO9" s="67"/>
-      <c r="BP9" s="67"/>
-      <c r="BQ9" s="67"/>
-      <c r="BR9" s="67"/>
-      <c r="BS9" s="69"/>
+        <v>32</v>
+      </c>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="83"/>
+      <c r="AN9" s="83"/>
+      <c r="AO9" s="83"/>
+      <c r="AP9" s="83"/>
+      <c r="AQ9" s="83"/>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="83"/>
+      <c r="AV9" s="83"/>
+      <c r="AW9" s="83"/>
+      <c r="AX9" s="83"/>
+      <c r="AY9" s="83"/>
+      <c r="AZ9" s="83"/>
+      <c r="BA9" s="83"/>
+      <c r="BB9" s="83"/>
+      <c r="BC9" s="83"/>
+      <c r="BD9" s="83"/>
+      <c r="BE9" s="83"/>
+      <c r="BF9" s="83"/>
+      <c r="BG9" s="83"/>
+      <c r="BH9" s="83"/>
+      <c r="BI9" s="83"/>
+      <c r="BJ9" s="83"/>
+      <c r="BK9" s="83"/>
+      <c r="BL9" s="83"/>
+      <c r="BM9" s="83"/>
+      <c r="BN9" s="83"/>
+      <c r="BO9" s="83"/>
+      <c r="BP9" s="83"/>
+      <c r="BQ9" s="83"/>
+      <c r="BR9" s="83"/>
+      <c r="BS9" s="85"/>
     </row>
     <row r="10" spans="1:71" ht="43.5" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="78"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="45">
         <v>4</v>
       </c>
-      <c r="D10" s="60" t="s">
-        <v>35</v>
+      <c r="D10" s="58" t="s">
+        <v>36</v>
       </c>
       <c r="E10" s="52">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F10" s="52"/>
       <c r="G10" s="22"/>
@@ -3315,12 +4057,12 @@
     </row>
     <row r="11" spans="1:71" ht="43.5" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="78"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="45">
         <v>5</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E11" s="52">
         <v>0</v>
@@ -3394,14 +4136,14 @@
     </row>
     <row r="12" spans="1:71" ht="43.5" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="79" t="s">
-        <v>22</v>
+      <c r="B12" s="66" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="45">
         <v>6</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E12" s="52">
         <v>0</v>
@@ -3475,12 +4217,12 @@
     </row>
     <row r="13" spans="1:71" ht="43.5" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="78"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="45">
         <v>7</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="52">
         <v>0</v>
@@ -3554,12 +4296,12 @@
     </row>
     <row r="14" spans="1:71" ht="43.5" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="80"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="46">
         <v>8</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="53">
         <v>0</v>
@@ -6540,6 +7282,77 @@
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BQ8:BQ9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BS8:BS9"/>
+    <mergeCell ref="BJ8:BJ9"/>
+    <mergeCell ref="BK8:BK9"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BM8:BM9"/>
+    <mergeCell ref="BN8:BN9"/>
+    <mergeCell ref="BE8:BE9"/>
+    <mergeCell ref="BF8:BF9"/>
+    <mergeCell ref="BG8:BG9"/>
+    <mergeCell ref="BH8:BH9"/>
+    <mergeCell ref="BI8:BI9"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="BC8:BC9"/>
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="BJ4:BN4"/>
@@ -6556,77 +7369,6 @@
     <mergeCell ref="AZ4:BD4"/>
     <mergeCell ref="AA3:AU3"/>
     <mergeCell ref="G3:Z3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="AU8:AU9"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="BC8:BC9"/>
-    <mergeCell ref="BD8:BD9"/>
-    <mergeCell ref="BE8:BE9"/>
-    <mergeCell ref="BF8:BF9"/>
-    <mergeCell ref="BG8:BG9"/>
-    <mergeCell ref="BH8:BH9"/>
-    <mergeCell ref="BI8:BI9"/>
-    <mergeCell ref="BJ8:BJ9"/>
-    <mergeCell ref="BK8:BK9"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BM8:BM9"/>
-    <mergeCell ref="BN8:BN9"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BQ8:BQ9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BS8:BS9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
@@ -6635,11 +7377,12 @@
     <hyperlink ref="D7" r:id="rId3" xr:uid="{4DC102C9-DA18-4713-A6F1-9AE27BB277F6}"/>
     <hyperlink ref="D8:D9" r:id="rId4" display="tcp/ip 4계층과 http 프로토콜 차이, AJAX란" xr:uid="{C796D420-1F56-4328-AC97-C7187CB1590A}"/>
     <hyperlink ref="D8" r:id="rId5" xr:uid="{E9C8EF66-3069-4468-9995-19CD38EEB4BB}"/>
+    <hyperlink ref="D10" r:id="rId6" xr:uid="{15A4D1D0-2F2B-4C8F-B307-F1AD4AE73C44}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -6662,10 +7405,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/교육/202010_신입사원 교육과정.xlsx
+++ b/교육/202010_신입사원 교육과정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dmsql1471\교육\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F21849E-EEE2-4B2F-9B80-E5EE16ECDCEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42959EC-73B4-497E-8374-E56CFC008CAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="885" windowWidth="28830" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -2814,32 +2814,29 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2854,22 +2851,25 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3103,7 +3103,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3276,178 +3276,178 @@
       </c>
       <c r="E3" s="50"/>
       <c r="F3" s="56"/>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="76" t="s">
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="83"/>
+      <c r="R3" s="83"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="83"/>
+      <c r="U3" s="83"/>
+      <c r="V3" s="83"/>
+      <c r="W3" s="83"/>
+      <c r="X3" s="83"/>
+      <c r="Y3" s="83"/>
+      <c r="Z3" s="83"/>
+      <c r="AA3" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="73"/>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="72" t="s">
+      <c r="AB3" s="83"/>
+      <c r="AC3" s="83"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
+      <c r="AI3" s="83"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="83"/>
+      <c r="AM3" s="83"/>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="83"/>
+      <c r="AP3" s="83"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="83"/>
+      <c r="AS3" s="83"/>
+      <c r="AT3" s="83"/>
+      <c r="AU3" s="83"/>
+      <c r="AV3" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="73"/>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="73"/>
-      <c r="BG3" s="73"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="73"/>
-      <c r="BJ3" s="73"/>
-      <c r="BK3" s="73"/>
-      <c r="BL3" s="73"/>
-      <c r="BM3" s="73"/>
-      <c r="BN3" s="73"/>
-      <c r="BO3" s="73"/>
-      <c r="BP3" s="73"/>
-      <c r="BQ3" s="73"/>
-      <c r="BR3" s="73"/>
+      <c r="AW3" s="83"/>
+      <c r="AX3" s="83"/>
+      <c r="AY3" s="83"/>
+      <c r="AZ3" s="83"/>
+      <c r="BA3" s="83"/>
+      <c r="BB3" s="83"/>
+      <c r="BC3" s="83"/>
+      <c r="BD3" s="83"/>
+      <c r="BE3" s="83"/>
+      <c r="BF3" s="83"/>
+      <c r="BG3" s="83"/>
+      <c r="BH3" s="83"/>
+      <c r="BI3" s="83"/>
+      <c r="BJ3" s="83"/>
+      <c r="BK3" s="83"/>
+      <c r="BL3" s="83"/>
+      <c r="BM3" s="83"/>
+      <c r="BN3" s="83"/>
+      <c r="BO3" s="83"/>
+      <c r="BP3" s="83"/>
+      <c r="BQ3" s="83"/>
+      <c r="BR3" s="83"/>
       <c r="BS3" s="27"/>
     </row>
     <row r="4" spans="1:71" ht="15.75" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="28"/>
       <c r="C4" s="44"/>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="85"/>
       <c r="G4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="68" t="s">
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
       <c r="Q4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="68" t="s">
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
       <c r="AA4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="68" t="s">
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="71"/>
       <c r="AK4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="68" t="s">
+      <c r="AL4" s="71"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
+      <c r="AQ4" s="71"/>
+      <c r="AR4" s="71"/>
+      <c r="AS4" s="71"/>
+      <c r="AT4" s="71"/>
       <c r="AU4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="68" t="s">
+      <c r="AV4" s="71"/>
+      <c r="AW4" s="71"/>
+      <c r="AX4" s="71"/>
+      <c r="AY4" s="71"/>
+      <c r="AZ4" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="BA4" s="69"/>
-      <c r="BB4" s="69"/>
-      <c r="BC4" s="69"/>
-      <c r="BD4" s="69"/>
+      <c r="BA4" s="71"/>
+      <c r="BB4" s="71"/>
+      <c r="BC4" s="71"/>
+      <c r="BD4" s="71"/>
       <c r="BE4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="BF4" s="69"/>
-      <c r="BG4" s="69"/>
-      <c r="BH4" s="69"/>
-      <c r="BI4" s="69"/>
-      <c r="BJ4" s="68" t="s">
+      <c r="BF4" s="71"/>
+      <c r="BG4" s="71"/>
+      <c r="BH4" s="71"/>
+      <c r="BI4" s="71"/>
+      <c r="BJ4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="BK4" s="69"/>
-      <c r="BL4" s="69"/>
-      <c r="BM4" s="69"/>
-      <c r="BN4" s="69"/>
+      <c r="BK4" s="71"/>
+      <c r="BL4" s="71"/>
+      <c r="BM4" s="71"/>
+      <c r="BN4" s="71"/>
       <c r="BO4" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="BP4" s="69"/>
-      <c r="BQ4" s="69"/>
-      <c r="BR4" s="69"/>
-      <c r="BS4" s="71"/>
+      <c r="BP4" s="71"/>
+      <c r="BQ4" s="71"/>
+      <c r="BR4" s="71"/>
+      <c r="BS4" s="81"/>
     </row>
     <row r="5" spans="1:71" ht="15.75" customHeight="1">
       <c r="A5" s="9"/>
@@ -3658,7 +3658,7 @@
     </row>
     <row r="6" spans="1:71" ht="43.5" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="77" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="45">
@@ -3741,7 +3741,7 @@
     </row>
     <row r="7" spans="1:71" ht="43.5" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="65"/>
+      <c r="B7" s="78"/>
       <c r="C7" s="45">
         <v>2</v>
       </c>
@@ -3822,163 +3822,163 @@
     </row>
     <row r="8" spans="1:71" ht="21" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="78">
+      <c r="B8" s="78"/>
+      <c r="C8" s="73">
         <v>3</v>
       </c>
       <c r="D8" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="80">
+      <c r="E8" s="75">
         <v>100</v>
       </c>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="82"/>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="82"/>
-      <c r="AF8" s="82"/>
-      <c r="AG8" s="82"/>
-      <c r="AH8" s="82"/>
-      <c r="AI8" s="82"/>
-      <c r="AJ8" s="82"/>
-      <c r="AK8" s="82"/>
-      <c r="AL8" s="82"/>
-      <c r="AM8" s="82"/>
-      <c r="AN8" s="82"/>
-      <c r="AO8" s="82"/>
-      <c r="AP8" s="82"/>
-      <c r="AQ8" s="82"/>
-      <c r="AR8" s="82"/>
-      <c r="AS8" s="82"/>
-      <c r="AT8" s="82"/>
-      <c r="AU8" s="82"/>
-      <c r="AV8" s="82"/>
-      <c r="AW8" s="82"/>
-      <c r="AX8" s="82"/>
-      <c r="AY8" s="82"/>
-      <c r="AZ8" s="82"/>
-      <c r="BA8" s="82"/>
-      <c r="BB8" s="82"/>
-      <c r="BC8" s="82"/>
-      <c r="BD8" s="82"/>
-      <c r="BE8" s="82"/>
-      <c r="BF8" s="82"/>
-      <c r="BG8" s="82"/>
-      <c r="BH8" s="82"/>
-      <c r="BI8" s="82"/>
-      <c r="BJ8" s="82"/>
-      <c r="BK8" s="82"/>
-      <c r="BL8" s="82"/>
-      <c r="BM8" s="82"/>
-      <c r="BN8" s="82"/>
-      <c r="BO8" s="82"/>
-      <c r="BP8" s="82"/>
-      <c r="BQ8" s="82"/>
-      <c r="BR8" s="82"/>
-      <c r="BS8" s="84"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
+      <c r="M8" s="66"/>
+      <c r="N8" s="66"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="66"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="66"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="66"/>
+      <c r="AO8" s="66"/>
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="66"/>
+      <c r="AS8" s="66"/>
+      <c r="AT8" s="66"/>
+      <c r="AU8" s="66"/>
+      <c r="AV8" s="66"/>
+      <c r="AW8" s="66"/>
+      <c r="AX8" s="66"/>
+      <c r="AY8" s="66"/>
+      <c r="AZ8" s="66"/>
+      <c r="BA8" s="66"/>
+      <c r="BB8" s="66"/>
+      <c r="BC8" s="66"/>
+      <c r="BD8" s="66"/>
+      <c r="BE8" s="66"/>
+      <c r="BF8" s="66"/>
+      <c r="BG8" s="66"/>
+      <c r="BH8" s="66"/>
+      <c r="BI8" s="66"/>
+      <c r="BJ8" s="66"/>
+      <c r="BK8" s="66"/>
+      <c r="BL8" s="66"/>
+      <c r="BM8" s="66"/>
+      <c r="BN8" s="66"/>
+      <c r="BO8" s="66"/>
+      <c r="BP8" s="66"/>
+      <c r="BQ8" s="66"/>
+      <c r="BR8" s="66"/>
+      <c r="BS8" s="68"/>
     </row>
     <row r="9" spans="1:71" ht="21" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="79"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="83"/>
-      <c r="AI9" s="83"/>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="83"/>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="83"/>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="83"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="83"/>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="83"/>
-      <c r="AT9" s="83"/>
-      <c r="AU9" s="83"/>
-      <c r="AV9" s="83"/>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="83"/>
-      <c r="AY9" s="83"/>
-      <c r="AZ9" s="83"/>
-      <c r="BA9" s="83"/>
-      <c r="BB9" s="83"/>
-      <c r="BC9" s="83"/>
-      <c r="BD9" s="83"/>
-      <c r="BE9" s="83"/>
-      <c r="BF9" s="83"/>
-      <c r="BG9" s="83"/>
-      <c r="BH9" s="83"/>
-      <c r="BI9" s="83"/>
-      <c r="BJ9" s="83"/>
-      <c r="BK9" s="83"/>
-      <c r="BL9" s="83"/>
-      <c r="BM9" s="83"/>
-      <c r="BN9" s="83"/>
-      <c r="BO9" s="83"/>
-      <c r="BP9" s="83"/>
-      <c r="BQ9" s="83"/>
-      <c r="BR9" s="83"/>
-      <c r="BS9" s="85"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
+      <c r="AG9" s="67"/>
+      <c r="AH9" s="67"/>
+      <c r="AI9" s="67"/>
+      <c r="AJ9" s="67"/>
+      <c r="AK9" s="67"/>
+      <c r="AL9" s="67"/>
+      <c r="AM9" s="67"/>
+      <c r="AN9" s="67"/>
+      <c r="AO9" s="67"/>
+      <c r="AP9" s="67"/>
+      <c r="AQ9" s="67"/>
+      <c r="AR9" s="67"/>
+      <c r="AS9" s="67"/>
+      <c r="AT9" s="67"/>
+      <c r="AU9" s="67"/>
+      <c r="AV9" s="67"/>
+      <c r="AW9" s="67"/>
+      <c r="AX9" s="67"/>
+      <c r="AY9" s="67"/>
+      <c r="AZ9" s="67"/>
+      <c r="BA9" s="67"/>
+      <c r="BB9" s="67"/>
+      <c r="BC9" s="67"/>
+      <c r="BD9" s="67"/>
+      <c r="BE9" s="67"/>
+      <c r="BF9" s="67"/>
+      <c r="BG9" s="67"/>
+      <c r="BH9" s="67"/>
+      <c r="BI9" s="67"/>
+      <c r="BJ9" s="67"/>
+      <c r="BK9" s="67"/>
+      <c r="BL9" s="67"/>
+      <c r="BM9" s="67"/>
+      <c r="BN9" s="67"/>
+      <c r="BO9" s="67"/>
+      <c r="BP9" s="67"/>
+      <c r="BQ9" s="67"/>
+      <c r="BR9" s="67"/>
+      <c r="BS9" s="69"/>
     </row>
     <row r="10" spans="1:71" ht="43.5" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="65"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="45">
         <v>4</v>
       </c>
@@ -4057,7 +4057,7 @@
     </row>
     <row r="11" spans="1:71" ht="43.5" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="65"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="45">
         <v>5</v>
       </c>
@@ -4136,7 +4136,7 @@
     </row>
     <row r="12" spans="1:71" ht="43.5" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="79" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="45">
@@ -4217,7 +4217,7 @@
     </row>
     <row r="13" spans="1:71" ht="43.5" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="65"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="45">
         <v>7</v>
       </c>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="14" spans="1:71" ht="43.5" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="67"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="46">
         <v>8</v>
       </c>
@@ -7282,61 +7282,22 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BQ8:BQ9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BS8:BS9"/>
-    <mergeCell ref="BJ8:BJ9"/>
-    <mergeCell ref="BK8:BK9"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BM8:BM9"/>
-    <mergeCell ref="BN8:BN9"/>
-    <mergeCell ref="BE8:BE9"/>
-    <mergeCell ref="BF8:BF9"/>
-    <mergeCell ref="BG8:BG9"/>
-    <mergeCell ref="BH8:BH9"/>
-    <mergeCell ref="BI8:BI9"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="BC8:BC9"/>
-    <mergeCell ref="BD8:BD9"/>
-    <mergeCell ref="AU8:AU9"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="BJ4:BN4"/>
+    <mergeCell ref="BO4:BS4"/>
+    <mergeCell ref="AV3:BR3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="AF4:AJ4"/>
+    <mergeCell ref="AU4:AY4"/>
+    <mergeCell ref="AK4:AO4"/>
+    <mergeCell ref="BE4:BI4"/>
+    <mergeCell ref="AP4:AT4"/>
+    <mergeCell ref="AZ4:BD4"/>
+    <mergeCell ref="AA3:AU3"/>
+    <mergeCell ref="G3:Z3"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="Q4:U4"/>
@@ -7353,22 +7314,61 @@
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="BJ4:BN4"/>
-    <mergeCell ref="BO4:BS4"/>
-    <mergeCell ref="AV3:BR3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="AA4:AE4"/>
-    <mergeCell ref="AF4:AJ4"/>
-    <mergeCell ref="AU4:AY4"/>
-    <mergeCell ref="AK4:AO4"/>
-    <mergeCell ref="BE4:BI4"/>
-    <mergeCell ref="AP4:AT4"/>
-    <mergeCell ref="AZ4:BD4"/>
-    <mergeCell ref="AA3:AU3"/>
-    <mergeCell ref="G3:Z3"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="BC8:BC9"/>
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="BE8:BE9"/>
+    <mergeCell ref="BF8:BF9"/>
+    <mergeCell ref="BG8:BG9"/>
+    <mergeCell ref="BH8:BH9"/>
+    <mergeCell ref="BI8:BI9"/>
+    <mergeCell ref="BJ8:BJ9"/>
+    <mergeCell ref="BK8:BK9"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BM8:BM9"/>
+    <mergeCell ref="BN8:BN9"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BQ8:BQ9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BS8:BS9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>

--- a/교육/202010_신입사원 교육과정.xlsx
+++ b/교육/202010_신입사원 교육과정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dmsql1471\교육\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42959EC-73B4-497E-8374-E56CFC008CAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9D43AA-446B-4504-B2E4-E895D1FEE2AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="885" windowWidth="28830" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30" yWindow="885" windowWidth="28725" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -408,9 +408,6 @@
     <t>실무교육</t>
   </si>
   <si>
-    <t>DevExpress 데이터 테이블 - 스터디 + 샘플 화면 구현</t>
-  </si>
-  <si>
     <t>타임스탬프</t>
   </si>
   <si>
@@ -2098,6 +2095,117 @@
         <family val="2"/>
       </rPr>
       <t>)</t>
+    </r>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DevExpress </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스터디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>샘플</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
     </r>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
@@ -2814,29 +2922,32 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2851,25 +2962,22 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3120,7 +3228,7 @@
     <row r="1" spans="1:71" ht="48" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="41"/>
       <c r="D1" s="2"/>
@@ -3276,178 +3384,178 @@
       </c>
       <c r="E3" s="50"/>
       <c r="F3" s="56"/>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="83"/>
-      <c r="M3" s="83"/>
-      <c r="N3" s="83"/>
-      <c r="O3" s="83"/>
-      <c r="P3" s="83"/>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="83"/>
-      <c r="S3" s="83"/>
-      <c r="T3" s="83"/>
-      <c r="U3" s="83"/>
-      <c r="V3" s="83"/>
-      <c r="W3" s="83"/>
-      <c r="X3" s="83"/>
-      <c r="Y3" s="83"/>
-      <c r="Z3" s="83"/>
-      <c r="AA3" s="86" t="s">
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="83"/>
-      <c r="AC3" s="83"/>
-      <c r="AD3" s="83"/>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="83"/>
-      <c r="AI3" s="83"/>
-      <c r="AJ3" s="83"/>
-      <c r="AK3" s="83"/>
-      <c r="AL3" s="83"/>
-      <c r="AM3" s="83"/>
-      <c r="AN3" s="83"/>
-      <c r="AO3" s="83"/>
-      <c r="AP3" s="83"/>
-      <c r="AQ3" s="83"/>
-      <c r="AR3" s="83"/>
-      <c r="AS3" s="83"/>
-      <c r="AT3" s="83"/>
-      <c r="AU3" s="83"/>
-      <c r="AV3" s="82" t="s">
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="73"/>
+      <c r="AO3" s="73"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="AW3" s="83"/>
-      <c r="AX3" s="83"/>
-      <c r="AY3" s="83"/>
-      <c r="AZ3" s="83"/>
-      <c r="BA3" s="83"/>
-      <c r="BB3" s="83"/>
-      <c r="BC3" s="83"/>
-      <c r="BD3" s="83"/>
-      <c r="BE3" s="83"/>
-      <c r="BF3" s="83"/>
-      <c r="BG3" s="83"/>
-      <c r="BH3" s="83"/>
-      <c r="BI3" s="83"/>
-      <c r="BJ3" s="83"/>
-      <c r="BK3" s="83"/>
-      <c r="BL3" s="83"/>
-      <c r="BM3" s="83"/>
-      <c r="BN3" s="83"/>
-      <c r="BO3" s="83"/>
-      <c r="BP3" s="83"/>
-      <c r="BQ3" s="83"/>
-      <c r="BR3" s="83"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="73"/>
+      <c r="BG3" s="73"/>
+      <c r="BH3" s="73"/>
+      <c r="BI3" s="73"/>
+      <c r="BJ3" s="73"/>
+      <c r="BK3" s="73"/>
+      <c r="BL3" s="73"/>
+      <c r="BM3" s="73"/>
+      <c r="BN3" s="73"/>
+      <c r="BO3" s="73"/>
+      <c r="BP3" s="73"/>
+      <c r="BQ3" s="73"/>
+      <c r="BR3" s="73"/>
       <c r="BS3" s="27"/>
     </row>
     <row r="4" spans="1:71" ht="15.75" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="28"/>
       <c r="C4" s="44"/>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="85"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="75"/>
       <c r="G4" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="72" t="s">
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
       <c r="Q4" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="72" t="s">
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
       <c r="AA4" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="72" t="s">
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
       <c r="AK4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="72" t="s">
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="71"/>
-      <c r="AR4" s="71"/>
-      <c r="AS4" s="71"/>
-      <c r="AT4" s="71"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
       <c r="AU4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="AV4" s="71"/>
-      <c r="AW4" s="71"/>
-      <c r="AX4" s="71"/>
-      <c r="AY4" s="71"/>
-      <c r="AZ4" s="72" t="s">
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="BA4" s="71"/>
-      <c r="BB4" s="71"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="71"/>
+      <c r="BA4" s="69"/>
+      <c r="BB4" s="69"/>
+      <c r="BC4" s="69"/>
+      <c r="BD4" s="69"/>
       <c r="BE4" s="70" t="s">
         <v>16</v>
       </c>
-      <c r="BF4" s="71"/>
-      <c r="BG4" s="71"/>
-      <c r="BH4" s="71"/>
-      <c r="BI4" s="71"/>
-      <c r="BJ4" s="72" t="s">
+      <c r="BF4" s="69"/>
+      <c r="BG4" s="69"/>
+      <c r="BH4" s="69"/>
+      <c r="BI4" s="69"/>
+      <c r="BJ4" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="BK4" s="71"/>
-      <c r="BL4" s="71"/>
-      <c r="BM4" s="71"/>
-      <c r="BN4" s="71"/>
+      <c r="BK4" s="69"/>
+      <c r="BL4" s="69"/>
+      <c r="BM4" s="69"/>
+      <c r="BN4" s="69"/>
       <c r="BO4" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="BP4" s="71"/>
-      <c r="BQ4" s="71"/>
-      <c r="BR4" s="71"/>
-      <c r="BS4" s="81"/>
+      <c r="BP4" s="69"/>
+      <c r="BQ4" s="69"/>
+      <c r="BR4" s="69"/>
+      <c r="BS4" s="71"/>
     </row>
     <row r="5" spans="1:71" ht="15.75" customHeight="1">
       <c r="A5" s="9"/>
@@ -3458,7 +3566,7 @@
         <v>19</v>
       </c>
       <c r="F5" s="57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="15">
         <v>5</v>
@@ -3658,20 +3766,20 @@
     </row>
     <row r="6" spans="1:71" ht="43.5" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="64" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="45">
         <v>1</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E6" s="52">
         <v>100</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -3741,18 +3849,18 @@
     </row>
     <row r="7" spans="1:71" ht="43.5" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="78"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="45">
         <v>2</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="52">
         <v>100</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="23"/>
@@ -3822,168 +3930,168 @@
     </row>
     <row r="8" spans="1:71" ht="21" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="73">
+      <c r="B8" s="65"/>
+      <c r="C8" s="78">
         <v>3</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="75">
+        <v>32</v>
+      </c>
+      <c r="E8" s="80">
         <v>100</v>
       </c>
-      <c r="F8" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="66"/>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="66"/>
-      <c r="AM8" s="66"/>
-      <c r="AN8" s="66"/>
-      <c r="AO8" s="66"/>
-      <c r="AP8" s="66"/>
-      <c r="AQ8" s="66"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="66"/>
-      <c r="AV8" s="66"/>
-      <c r="AW8" s="66"/>
-      <c r="AX8" s="66"/>
-      <c r="AY8" s="66"/>
-      <c r="AZ8" s="66"/>
-      <c r="BA8" s="66"/>
-      <c r="BB8" s="66"/>
-      <c r="BC8" s="66"/>
-      <c r="BD8" s="66"/>
-      <c r="BE8" s="66"/>
-      <c r="BF8" s="66"/>
-      <c r="BG8" s="66"/>
-      <c r="BH8" s="66"/>
-      <c r="BI8" s="66"/>
-      <c r="BJ8" s="66"/>
-      <c r="BK8" s="66"/>
-      <c r="BL8" s="66"/>
-      <c r="BM8" s="66"/>
-      <c r="BN8" s="66"/>
-      <c r="BO8" s="66"/>
-      <c r="BP8" s="66"/>
-      <c r="BQ8" s="66"/>
-      <c r="BR8" s="66"/>
-      <c r="BS8" s="68"/>
+      <c r="F8" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="82"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
+      <c r="X8" s="82"/>
+      <c r="Y8" s="82"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="82"/>
+      <c r="AB8" s="82"/>
+      <c r="AC8" s="82"/>
+      <c r="AD8" s="82"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="82"/>
+      <c r="AG8" s="82"/>
+      <c r="AH8" s="82"/>
+      <c r="AI8" s="82"/>
+      <c r="AJ8" s="82"/>
+      <c r="AK8" s="82"/>
+      <c r="AL8" s="82"/>
+      <c r="AM8" s="82"/>
+      <c r="AN8" s="82"/>
+      <c r="AO8" s="82"/>
+      <c r="AP8" s="82"/>
+      <c r="AQ8" s="82"/>
+      <c r="AR8" s="82"/>
+      <c r="AS8" s="82"/>
+      <c r="AT8" s="82"/>
+      <c r="AU8" s="82"/>
+      <c r="AV8" s="82"/>
+      <c r="AW8" s="82"/>
+      <c r="AX8" s="82"/>
+      <c r="AY8" s="82"/>
+      <c r="AZ8" s="82"/>
+      <c r="BA8" s="82"/>
+      <c r="BB8" s="82"/>
+      <c r="BC8" s="82"/>
+      <c r="BD8" s="82"/>
+      <c r="BE8" s="82"/>
+      <c r="BF8" s="82"/>
+      <c r="BG8" s="82"/>
+      <c r="BH8" s="82"/>
+      <c r="BI8" s="82"/>
+      <c r="BJ8" s="82"/>
+      <c r="BK8" s="82"/>
+      <c r="BL8" s="82"/>
+      <c r="BM8" s="82"/>
+      <c r="BN8" s="82"/>
+      <c r="BO8" s="82"/>
+      <c r="BP8" s="82"/>
+      <c r="BQ8" s="82"/>
+      <c r="BR8" s="82"/>
+      <c r="BS8" s="84"/>
     </row>
     <row r="9" spans="1:71" ht="21" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="74"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="65"/>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="65"/>
-      <c r="U9" s="65"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="67"/>
-      <c r="AE9" s="67"/>
-      <c r="AF9" s="67"/>
-      <c r="AG9" s="67"/>
-      <c r="AH9" s="67"/>
-      <c r="AI9" s="67"/>
-      <c r="AJ9" s="67"/>
-      <c r="AK9" s="67"/>
-      <c r="AL9" s="67"/>
-      <c r="AM9" s="67"/>
-      <c r="AN9" s="67"/>
-      <c r="AO9" s="67"/>
-      <c r="AP9" s="67"/>
-      <c r="AQ9" s="67"/>
-      <c r="AR9" s="67"/>
-      <c r="AS9" s="67"/>
-      <c r="AT9" s="67"/>
-      <c r="AU9" s="67"/>
-      <c r="AV9" s="67"/>
-      <c r="AW9" s="67"/>
-      <c r="AX9" s="67"/>
-      <c r="AY9" s="67"/>
-      <c r="AZ9" s="67"/>
-      <c r="BA9" s="67"/>
-      <c r="BB9" s="67"/>
-      <c r="BC9" s="67"/>
-      <c r="BD9" s="67"/>
-      <c r="BE9" s="67"/>
-      <c r="BF9" s="67"/>
-      <c r="BG9" s="67"/>
-      <c r="BH9" s="67"/>
-      <c r="BI9" s="67"/>
-      <c r="BJ9" s="67"/>
-      <c r="BK9" s="67"/>
-      <c r="BL9" s="67"/>
-      <c r="BM9" s="67"/>
-      <c r="BN9" s="67"/>
-      <c r="BO9" s="67"/>
-      <c r="BP9" s="67"/>
-      <c r="BQ9" s="67"/>
-      <c r="BR9" s="67"/>
-      <c r="BS9" s="69"/>
+        <v>31</v>
+      </c>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="83"/>
+      <c r="AN9" s="83"/>
+      <c r="AO9" s="83"/>
+      <c r="AP9" s="83"/>
+      <c r="AQ9" s="83"/>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="83"/>
+      <c r="AV9" s="83"/>
+      <c r="AW9" s="83"/>
+      <c r="AX9" s="83"/>
+      <c r="AY9" s="83"/>
+      <c r="AZ9" s="83"/>
+      <c r="BA9" s="83"/>
+      <c r="BB9" s="83"/>
+      <c r="BC9" s="83"/>
+      <c r="BD9" s="83"/>
+      <c r="BE9" s="83"/>
+      <c r="BF9" s="83"/>
+      <c r="BG9" s="83"/>
+      <c r="BH9" s="83"/>
+      <c r="BI9" s="83"/>
+      <c r="BJ9" s="83"/>
+      <c r="BK9" s="83"/>
+      <c r="BL9" s="83"/>
+      <c r="BM9" s="83"/>
+      <c r="BN9" s="83"/>
+      <c r="BO9" s="83"/>
+      <c r="BP9" s="83"/>
+      <c r="BQ9" s="83"/>
+      <c r="BR9" s="83"/>
+      <c r="BS9" s="85"/>
     </row>
     <row r="10" spans="1:71" ht="43.5" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="78"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="45">
         <v>4</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="52">
         <v>100</v>
@@ -4057,12 +4165,12 @@
     </row>
     <row r="11" spans="1:71" ht="43.5" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="78"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="45">
         <v>5</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="52">
         <v>0</v>
@@ -4136,14 +4244,14 @@
     </row>
     <row r="12" spans="1:71" ht="43.5" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="66" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="45">
         <v>6</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="52">
         <v>0</v>
@@ -4217,12 +4325,12 @@
     </row>
     <row r="13" spans="1:71" ht="43.5" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="78"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="45">
         <v>7</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="52">
         <v>0</v>
@@ -4296,12 +4404,12 @@
     </row>
     <row r="14" spans="1:71" ht="43.5" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="80"/>
+      <c r="B14" s="67"/>
       <c r="C14" s="46">
         <v>8</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E14" s="53">
         <v>0</v>
@@ -7282,6 +7390,77 @@
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BQ8:BQ9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BS8:BS9"/>
+    <mergeCell ref="BJ8:BJ9"/>
+    <mergeCell ref="BK8:BK9"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BM8:BM9"/>
+    <mergeCell ref="BN8:BN9"/>
+    <mergeCell ref="BE8:BE9"/>
+    <mergeCell ref="BF8:BF9"/>
+    <mergeCell ref="BG8:BG9"/>
+    <mergeCell ref="BH8:BH9"/>
+    <mergeCell ref="BI8:BI9"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="BC8:BC9"/>
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="G4:K4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
     <mergeCell ref="B6:B11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="BJ4:BN4"/>
@@ -7298,77 +7477,6 @@
     <mergeCell ref="AZ4:BD4"/>
     <mergeCell ref="AA3:AU3"/>
     <mergeCell ref="G3:Z3"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="AU8:AU9"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="BC8:BC9"/>
-    <mergeCell ref="BD8:BD9"/>
-    <mergeCell ref="BE8:BE9"/>
-    <mergeCell ref="BF8:BF9"/>
-    <mergeCell ref="BG8:BG9"/>
-    <mergeCell ref="BH8:BH9"/>
-    <mergeCell ref="BI8:BI9"/>
-    <mergeCell ref="BJ8:BJ9"/>
-    <mergeCell ref="BK8:BK9"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BM8:BM9"/>
-    <mergeCell ref="BN8:BN9"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BQ8:BQ9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BS8:BS9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
@@ -7405,10 +7513,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/교육/202010_신입사원 교육과정.xlsx
+++ b/교육/202010_신입사원 교육과정.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dmsql1471\교육\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9D43AA-446B-4504-B2E4-E895D1FEE2AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9252BA0E-CF9D-4645-8899-570F617CC82F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30" yWindow="885" windowWidth="28725" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>단계</t>
   </si>
@@ -449,7 +449,7 @@
       </rPr>
       <t>교육과정</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -654,7 +654,7 @@
       </rPr>
       <t>보완</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -849,15 +849,15 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>PPT 가독성</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>SSL, TLS 인증서 관련 상세 내용</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1196,7 +1196,7 @@
       </rPr>
       <t>웹표준은 생략)</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1255,7 +1255,7 @@
       </rPr>
       <t>등</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1335,136 +1335,11 @@
       </rPr>
       <t>란</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">REST API </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>란</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>? (</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>백엔드</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) - </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>asp.net</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> core 3.1 web api + </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MyBatis.NET</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로젝트로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현해보기</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>TCP, UDP 의 패킷 순서 관련 내용</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1691,16 +1566,35 @@
       </rPr>
       <t>차이</t>
     </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>DB</t>
+      <t xml:space="preserve">DevExpress </t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FF0B5394"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1710,7 +1604,45 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FF0B5394"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스터디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>샘플</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1719,403 +1651,49 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설계</t>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>화면</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
+        <color rgb="FF45818E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정규화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>단계와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>반정규화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">), </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>계정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>토큰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(JWT) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>만료</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방법</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>슬라이딩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세션</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그외</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0B5394"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+        <color rgb="FF45818E"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">DevExpress </t>
-    </r>
-    <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>데이터</t>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클라이언트에서</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FF45818E"/>
+        <color rgb="FF434343"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2124,7 +1702,316 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FF45818E"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Controller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결되지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특별한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상황이란</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">REST API </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>란</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>? (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>백엔드</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) - asp.net core 3.1 web api + MyBatis.NET </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>프</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로젝트로</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현해보기</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> .NET</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리액트</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>템플릿</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DB</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -2133,46 +2020,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스터디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>샘플</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2180,18 +2030,62 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정규화</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단계와</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2199,15 +2093,362 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현</t>
-    </r>
-    <phoneticPr fontId="16" type="noConversion"/>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반정규화</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계정</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세션</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토큰</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방식</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차이</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(JWT) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만료</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연장</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방법</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>슬라이딩</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세션</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그외</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2217,7 +2458,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="33">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2274,18 +2515,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF0B5394"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF434343"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color rgb="FF45818E"/>
       <name val="Roboto"/>
     </font>
     <font>
@@ -2300,23 +2530,10 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -2425,48 +2642,34 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF0B5394"/>
+      <color rgb="FF434343"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF0B5394"/>
+      <color rgb="FF434343"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="9"/>
-      <color rgb="FF45818E"/>
-      <name val="맑은 고딕"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="9"/>
-      <color rgb="FF45818E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="돋움"/>
       <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2548,6 +2751,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFF8F8F8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2793,9 +3008,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2815,9 +3030,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2888,10 +3103,10 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2903,24 +3118,42 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2930,13 +3163,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2950,35 +3176,30 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3211,7 +3432,7 @@
       <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3384,178 +3605,178 @@
       </c>
       <c r="E3" s="50"/>
       <c r="F3" s="56"/>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="76" t="s">
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="76"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="73"/>
-      <c r="AO3" s="73"/>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="73"/>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="72" t="s">
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="76"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="76"/>
+      <c r="AG3" s="76"/>
+      <c r="AH3" s="76"/>
+      <c r="AI3" s="76"/>
+      <c r="AJ3" s="76"/>
+      <c r="AK3" s="76"/>
+      <c r="AL3" s="76"/>
+      <c r="AM3" s="76"/>
+      <c r="AN3" s="76"/>
+      <c r="AO3" s="76"/>
+      <c r="AP3" s="76"/>
+      <c r="AQ3" s="76"/>
+      <c r="AR3" s="76"/>
+      <c r="AS3" s="76"/>
+      <c r="AT3" s="76"/>
+      <c r="AU3" s="76"/>
+      <c r="AV3" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="73"/>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="73"/>
-      <c r="BG3" s="73"/>
-      <c r="BH3" s="73"/>
-      <c r="BI3" s="73"/>
-      <c r="BJ3" s="73"/>
-      <c r="BK3" s="73"/>
-      <c r="BL3" s="73"/>
-      <c r="BM3" s="73"/>
-      <c r="BN3" s="73"/>
-      <c r="BO3" s="73"/>
-      <c r="BP3" s="73"/>
-      <c r="BQ3" s="73"/>
-      <c r="BR3" s="73"/>
+      <c r="AW3" s="76"/>
+      <c r="AX3" s="76"/>
+      <c r="AY3" s="76"/>
+      <c r="AZ3" s="76"/>
+      <c r="BA3" s="76"/>
+      <c r="BB3" s="76"/>
+      <c r="BC3" s="76"/>
+      <c r="BD3" s="76"/>
+      <c r="BE3" s="76"/>
+      <c r="BF3" s="76"/>
+      <c r="BG3" s="76"/>
+      <c r="BH3" s="76"/>
+      <c r="BI3" s="76"/>
+      <c r="BJ3" s="76"/>
+      <c r="BK3" s="76"/>
+      <c r="BL3" s="76"/>
+      <c r="BM3" s="76"/>
+      <c r="BN3" s="76"/>
+      <c r="BO3" s="76"/>
+      <c r="BP3" s="76"/>
+      <c r="BQ3" s="76"/>
+      <c r="BR3" s="76"/>
       <c r="BS3" s="27"/>
     </row>
     <row r="4" spans="1:71" ht="15.75" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="28"/>
       <c r="C4" s="44"/>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="70" t="s">
+      <c r="E4" s="77"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="68" t="s">
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="69"/>
-      <c r="Q4" s="70" t="s">
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="69"/>
-      <c r="S4" s="69"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="69"/>
-      <c r="V4" s="68" t="s">
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="69"/>
-      <c r="X4" s="69"/>
-      <c r="Y4" s="69"/>
-      <c r="Z4" s="69"/>
-      <c r="AA4" s="70" t="s">
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="69"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="68" t="s">
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="70" t="s">
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="68" t="s">
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="68"/>
+      <c r="AP4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="70" t="s">
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="68" t="s">
+      <c r="AV4" s="68"/>
+      <c r="AW4" s="68"/>
+      <c r="AX4" s="68"/>
+      <c r="AY4" s="68"/>
+      <c r="AZ4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="BA4" s="69"/>
-      <c r="BB4" s="69"/>
-      <c r="BC4" s="69"/>
-      <c r="BD4" s="69"/>
-      <c r="BE4" s="70" t="s">
+      <c r="BA4" s="68"/>
+      <c r="BB4" s="68"/>
+      <c r="BC4" s="68"/>
+      <c r="BD4" s="68"/>
+      <c r="BE4" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="BF4" s="69"/>
-      <c r="BG4" s="69"/>
-      <c r="BH4" s="69"/>
-      <c r="BI4" s="69"/>
-      <c r="BJ4" s="68" t="s">
+      <c r="BF4" s="68"/>
+      <c r="BG4" s="68"/>
+      <c r="BH4" s="68"/>
+      <c r="BI4" s="68"/>
+      <c r="BJ4" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="BK4" s="69"/>
-      <c r="BL4" s="69"/>
-      <c r="BM4" s="69"/>
-      <c r="BN4" s="69"/>
-      <c r="BO4" s="70" t="s">
+      <c r="BK4" s="68"/>
+      <c r="BL4" s="68"/>
+      <c r="BM4" s="68"/>
+      <c r="BN4" s="68"/>
+      <c r="BO4" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="BP4" s="69"/>
-      <c r="BQ4" s="69"/>
-      <c r="BR4" s="69"/>
-      <c r="BS4" s="71"/>
+      <c r="BP4" s="68"/>
+      <c r="BQ4" s="68"/>
+      <c r="BR4" s="68"/>
+      <c r="BS4" s="74"/>
     </row>
     <row r="5" spans="1:71" ht="15.75" customHeight="1">
       <c r="A5" s="9"/>
@@ -3766,19 +3987,19 @@
     </row>
     <row r="6" spans="1:71" ht="43.5" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="81">
         <v>1</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="52">
+      <c r="E6" s="83">
         <v>100</v>
       </c>
-      <c r="F6" s="52" t="s">
+      <c r="F6" s="83" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="17"/>
@@ -3849,17 +4070,17 @@
     </row>
     <row r="7" spans="1:71" ht="43.5" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="45">
+      <c r="B7" s="71"/>
+      <c r="C7" s="81">
         <v>2</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="83">
         <v>100</v>
       </c>
-      <c r="F7" s="52" t="s">
+      <c r="F7" s="83" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="22"/>
@@ -3930,173 +4151,175 @@
     </row>
     <row r="8" spans="1:71" ht="21" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="78">
+      <c r="B8" s="71"/>
+      <c r="C8" s="84">
         <v>3</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="80">
+      <c r="E8" s="86">
         <v>100</v>
       </c>
-      <c r="F8" s="80" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
-      <c r="L8" s="82"/>
-      <c r="M8" s="82"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-      <c r="X8" s="82"/>
-      <c r="Y8" s="82"/>
-      <c r="Z8" s="82"/>
-      <c r="AA8" s="82"/>
-      <c r="AB8" s="82"/>
-      <c r="AC8" s="82"/>
-      <c r="AD8" s="82"/>
-      <c r="AE8" s="82"/>
-      <c r="AF8" s="82"/>
-      <c r="AG8" s="82"/>
-      <c r="AH8" s="82"/>
-      <c r="AI8" s="82"/>
-      <c r="AJ8" s="82"/>
-      <c r="AK8" s="82"/>
-      <c r="AL8" s="82"/>
-      <c r="AM8" s="82"/>
-      <c r="AN8" s="82"/>
-      <c r="AO8" s="82"/>
-      <c r="AP8" s="82"/>
-      <c r="AQ8" s="82"/>
-      <c r="AR8" s="82"/>
-      <c r="AS8" s="82"/>
-      <c r="AT8" s="82"/>
-      <c r="AU8" s="82"/>
-      <c r="AV8" s="82"/>
-      <c r="AW8" s="82"/>
-      <c r="AX8" s="82"/>
-      <c r="AY8" s="82"/>
-      <c r="AZ8" s="82"/>
-      <c r="BA8" s="82"/>
-      <c r="BB8" s="82"/>
-      <c r="BC8" s="82"/>
-      <c r="BD8" s="82"/>
-      <c r="BE8" s="82"/>
-      <c r="BF8" s="82"/>
-      <c r="BG8" s="82"/>
-      <c r="BH8" s="82"/>
-      <c r="BI8" s="82"/>
-      <c r="BJ8" s="82"/>
-      <c r="BK8" s="82"/>
-      <c r="BL8" s="82"/>
-      <c r="BM8" s="82"/>
-      <c r="BN8" s="82"/>
-      <c r="BO8" s="82"/>
-      <c r="BP8" s="82"/>
-      <c r="BQ8" s="82"/>
-      <c r="BR8" s="82"/>
-      <c r="BS8" s="84"/>
+      <c r="F8" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="63"/>
+      <c r="AM8" s="63"/>
+      <c r="AN8" s="63"/>
+      <c r="AO8" s="63"/>
+      <c r="AP8" s="63"/>
+      <c r="AQ8" s="63"/>
+      <c r="AR8" s="63"/>
+      <c r="AS8" s="63"/>
+      <c r="AT8" s="63"/>
+      <c r="AU8" s="63"/>
+      <c r="AV8" s="63"/>
+      <c r="AW8" s="63"/>
+      <c r="AX8" s="63"/>
+      <c r="AY8" s="63"/>
+      <c r="AZ8" s="63"/>
+      <c r="BA8" s="63"/>
+      <c r="BB8" s="63"/>
+      <c r="BC8" s="63"/>
+      <c r="BD8" s="63"/>
+      <c r="BE8" s="63"/>
+      <c r="BF8" s="63"/>
+      <c r="BG8" s="63"/>
+      <c r="BH8" s="63"/>
+      <c r="BI8" s="63"/>
+      <c r="BJ8" s="63"/>
+      <c r="BK8" s="63"/>
+      <c r="BL8" s="63"/>
+      <c r="BM8" s="63"/>
+      <c r="BN8" s="63"/>
+      <c r="BO8" s="63"/>
+      <c r="BP8" s="63"/>
+      <c r="BQ8" s="63"/>
+      <c r="BR8" s="63"/>
+      <c r="BS8" s="65"/>
     </row>
     <row r="9" spans="1:71" ht="21" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="58" t="s">
+      <c r="B9" s="71"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="82" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="83"/>
-      <c r="AI9" s="83"/>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="83"/>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="83"/>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="83"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="83"/>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="83"/>
-      <c r="AT9" s="83"/>
-      <c r="AU9" s="83"/>
-      <c r="AV9" s="83"/>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="83"/>
-      <c r="AY9" s="83"/>
-      <c r="AZ9" s="83"/>
-      <c r="BA9" s="83"/>
-      <c r="BB9" s="83"/>
-      <c r="BC9" s="83"/>
-      <c r="BD9" s="83"/>
-      <c r="BE9" s="83"/>
-      <c r="BF9" s="83"/>
-      <c r="BG9" s="83"/>
-      <c r="BH9" s="83"/>
-      <c r="BI9" s="83"/>
-      <c r="BJ9" s="83"/>
-      <c r="BK9" s="83"/>
-      <c r="BL9" s="83"/>
-      <c r="BM9" s="83"/>
-      <c r="BN9" s="83"/>
-      <c r="BO9" s="83"/>
-      <c r="BP9" s="83"/>
-      <c r="BQ9" s="83"/>
-      <c r="BR9" s="83"/>
-      <c r="BS9" s="85"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="64"/>
+      <c r="AF9" s="64"/>
+      <c r="AG9" s="64"/>
+      <c r="AH9" s="64"/>
+      <c r="AI9" s="64"/>
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="64"/>
+      <c r="AL9" s="64"/>
+      <c r="AM9" s="64"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="64"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="64"/>
+      <c r="AU9" s="64"/>
+      <c r="AV9" s="64"/>
+      <c r="AW9" s="64"/>
+      <c r="AX9" s="64"/>
+      <c r="AY9" s="64"/>
+      <c r="AZ9" s="64"/>
+      <c r="BA9" s="64"/>
+      <c r="BB9" s="64"/>
+      <c r="BC9" s="64"/>
+      <c r="BD9" s="64"/>
+      <c r="BE9" s="64"/>
+      <c r="BF9" s="64"/>
+      <c r="BG9" s="64"/>
+      <c r="BH9" s="64"/>
+      <c r="BI9" s="64"/>
+      <c r="BJ9" s="64"/>
+      <c r="BK9" s="64"/>
+      <c r="BL9" s="64"/>
+      <c r="BM9" s="64"/>
+      <c r="BN9" s="64"/>
+      <c r="BO9" s="64"/>
+      <c r="BP9" s="64"/>
+      <c r="BQ9" s="64"/>
+      <c r="BR9" s="64"/>
+      <c r="BS9" s="66"/>
     </row>
     <row r="10" spans="1:71" ht="43.5" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="45">
+      <c r="B10" s="71"/>
+      <c r="C10" s="81">
         <v>4</v>
       </c>
-      <c r="D10" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="52">
+      <c r="D10" s="82" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="83">
         <v>100</v>
       </c>
-      <c r="F10" s="52"/>
+      <c r="F10" s="89" t="s">
+        <v>36</v>
+      </c>
       <c r="G10" s="22"/>
       <c r="H10" s="24"/>
       <c r="I10" s="20"/>
@@ -4165,15 +4388,15 @@
     </row>
     <row r="11" spans="1:71" ht="43.5" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="65"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="45">
         <v>5</v>
       </c>
-      <c r="D11" s="60" t="s">
-        <v>36</v>
+      <c r="D11" s="58" t="s">
+        <v>38</v>
       </c>
       <c r="E11" s="52">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F11" s="52"/>
       <c r="G11" s="22"/>
@@ -4244,14 +4467,14 @@
     </row>
     <row r="12" spans="1:71" ht="43.5" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="72" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="45">
         <v>6</v>
       </c>
-      <c r="D12" s="61" t="s">
-        <v>33</v>
+      <c r="D12" s="58" t="s">
+        <v>37</v>
       </c>
       <c r="E12" s="52">
         <v>0</v>
@@ -4325,11 +4548,11 @@
     </row>
     <row r="13" spans="1:71" ht="43.5" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="65"/>
+      <c r="B13" s="71"/>
       <c r="C13" s="45">
         <v>7</v>
       </c>
-      <c r="D13" s="62" t="s">
+      <c r="D13" s="59" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="52">
@@ -4404,12 +4627,12 @@
     </row>
     <row r="14" spans="1:71" ht="43.5" customHeight="1">
       <c r="A14" s="10"/>
-      <c r="B14" s="67"/>
+      <c r="B14" s="73"/>
       <c r="C14" s="46">
         <v>8</v>
       </c>
-      <c r="D14" s="63" t="s">
-        <v>37</v>
+      <c r="D14" s="60" t="s">
+        <v>35</v>
       </c>
       <c r="E14" s="53">
         <v>0</v>
@@ -7390,61 +7613,22 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BQ8:BQ9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BS8:BS9"/>
-    <mergeCell ref="BJ8:BJ9"/>
-    <mergeCell ref="BK8:BK9"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BM8:BM9"/>
-    <mergeCell ref="BN8:BN9"/>
-    <mergeCell ref="BE8:BE9"/>
-    <mergeCell ref="BF8:BF9"/>
-    <mergeCell ref="BG8:BG9"/>
-    <mergeCell ref="BH8:BH9"/>
-    <mergeCell ref="BI8:BI9"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="BC8:BC9"/>
-    <mergeCell ref="BD8:BD9"/>
-    <mergeCell ref="AU8:AU9"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="BJ4:BN4"/>
+    <mergeCell ref="BO4:BS4"/>
+    <mergeCell ref="AV3:BR3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="AF4:AJ4"/>
+    <mergeCell ref="AU4:AY4"/>
+    <mergeCell ref="AK4:AO4"/>
+    <mergeCell ref="BE4:BI4"/>
+    <mergeCell ref="AP4:AT4"/>
+    <mergeCell ref="AZ4:BD4"/>
+    <mergeCell ref="AA3:AU3"/>
+    <mergeCell ref="G3:Z3"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="Q4:U4"/>
@@ -7461,36 +7645,76 @@
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="BJ4:BN4"/>
-    <mergeCell ref="BO4:BS4"/>
-    <mergeCell ref="AV3:BR3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="AA4:AE4"/>
-    <mergeCell ref="AF4:AJ4"/>
-    <mergeCell ref="AU4:AY4"/>
-    <mergeCell ref="AK4:AO4"/>
-    <mergeCell ref="BE4:BI4"/>
-    <mergeCell ref="AP4:AT4"/>
-    <mergeCell ref="AZ4:BD4"/>
-    <mergeCell ref="AA3:AU3"/>
-    <mergeCell ref="G3:Z3"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="BC8:BC9"/>
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="BE8:BE9"/>
+    <mergeCell ref="BF8:BF9"/>
+    <mergeCell ref="BG8:BG9"/>
+    <mergeCell ref="BH8:BH9"/>
+    <mergeCell ref="BI8:BI9"/>
+    <mergeCell ref="BJ8:BJ9"/>
+    <mergeCell ref="BK8:BK9"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BM8:BM9"/>
+    <mergeCell ref="BN8:BN9"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BQ8:BQ9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BS8:BS9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" display="REST API 란? (백엔드) - asp.net core 3.1 web api + MyBatis.NET 브로젝트로 구현해보기" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{C3C5A023-5FD9-4C44-B29D-4FC1EB36F675}"/>
     <hyperlink ref="D7" r:id="rId3" xr:uid="{4DC102C9-DA18-4713-A6F1-9AE27BB277F6}"/>
     <hyperlink ref="D8:D9" r:id="rId4" display="tcp/ip 4계층과 http 프로토콜 차이, AJAX란" xr:uid="{C796D420-1F56-4328-AC97-C7187CB1590A}"/>
     <hyperlink ref="D8" r:id="rId5" xr:uid="{E9C8EF66-3069-4468-9995-19CD38EEB4BB}"/>
     <hyperlink ref="D10" r:id="rId6" xr:uid="{15A4D1D0-2F2B-4C8F-B307-F1AD4AE73C44}"/>
+    <hyperlink ref="D11" r:id="rId7" xr:uid="{7BBB70F9-821D-4E64-965E-99E44F64CEAE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -7520,7 +7744,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/교육/202010_신입사원 교육과정.xlsx
+++ b/교육/202010_신입사원 교육과정.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dmsql1471\교육\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9252BA0E-CF9D-4645-8899-570F617CC82F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5F337C-BB1B-42CF-8D08-05B23E34299B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="885" windowWidth="28725" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="1380" windowWidth="28725" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
     <sheet name="설문지 응답 시트1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">시트1!$B$1:$BS$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">시트1!$B$1:$BS$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>단계</t>
   </si>
@@ -861,345 +861,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Vue.js </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>란</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>? (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프론트엔드</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>스터디</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>배포까지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, node js </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> npm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개념</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (node js</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>간략히</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>) +책</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Roboto"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> Vuex 추가 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-ES5, ES6 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기준</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비교차이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + JS import/export </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방식</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, aync, await </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개념</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, push </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>서버</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개념</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, SignalR </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개념</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, websocket </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개념</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>웹표준은 생략)</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">git </t>
     </r>
     <r>
@@ -1570,8 +1231,608 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">DevExpress </t>
-    </r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클라이언트에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Controller</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연결되지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>않는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>특별한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF434343"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상황이란</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DB</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이블</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설계</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정규화</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 4</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>단계와</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>반정규화</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">), </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>계정</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기능</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세션</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>토큰</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방식</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>차이</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(JWT) </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>만료</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연장</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방법</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>슬라이딩</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>세션</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>그외</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">vue.js CDN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF45818E"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">
+vue router
+vue cli, webpack -&gt; Build
+vue store (vuex)
+vue + axios</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -1580,7 +1841,9 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>데이터</t>
+      <t xml:space="preserve">기본문법
+고급문법
+</t>
     </r>
     <r>
       <rPr>
@@ -1589,7 +1852,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve">Asp.net core API </t>
     </r>
     <r>
       <rPr>
@@ -1599,7 +1862,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>테이블</t>
+      <t>템플릿</t>
     </r>
     <r>
       <rPr>
@@ -1608,7 +1871,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> - </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -1618,835 +1881,17 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>스터디</t>
+      <t>활용</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>샘플</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>화면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>클라이언트에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>바로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Controller</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연결되지</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>않는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>특별한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF434343"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF434343"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>상황이란</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">REST API </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>란</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>? (</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>백엔드</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">) - asp.net core 3.1 web api + MyBatis.NET </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>프</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로젝트로</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구현해보기</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> .NET</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있는</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>리액트</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>템플릿</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>DB</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테이블</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설계</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>정규화</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 4</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>단계와</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>반정규화</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">), </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용자</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>계정</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>로그인</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>기능</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세션</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>토큰</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방식</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>차이</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(JWT) </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>만료</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>연장</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>방법</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>슬라이딩</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>세션</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>등</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>그외</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color theme="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">
+Asp.net core 3.1 + Vue 템플릿 활용
+Asp.net core 3.1 + Vue + DevExporess</t>
     </r>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -2458,7 +1903,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2626,13 +2071,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF45818E"/>
-      <name val="Roboto"/>
-      <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
@@ -2661,11 +2099,23 @@
       <charset val="129"/>
     </font>
     <font>
-      <u/>
       <sz val="10"/>
-      <color theme="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="돋움"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF45818E"/>
+      <name val="Roboto"/>
+      <family val="3"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -2767,7 +2217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2867,36 +2317,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0" tint="-0.14996795556505021"/>
       </left>
       <right style="thin">
@@ -2920,36 +2340,6 @@
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3005,12 +2395,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3060,20 +2470,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -3085,9 +2484,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -3104,9 +2500,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3127,42 +2520,30 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3176,30 +2557,46 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3426,23 +2823,23 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BS983"/>
+  <dimension ref="A1:BS980"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O12" sqref="O12"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="M9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" style="47" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="84.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="54" customWidth="1"/>
-    <col min="6" max="6" width="43.140625" style="54" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="45" customWidth="1"/>
+    <col min="6" max="6" width="43.140625" style="45" customWidth="1"/>
     <col min="7" max="71" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3451,10 +2848,10 @@
       <c r="B1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="41"/>
+      <c r="C1" s="34"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -3462,41 +2859,41 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="4"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="36"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="31"/>
+      <c r="AQ1" s="31"/>
+      <c r="AR1" s="31"/>
+      <c r="AS1" s="31"/>
+      <c r="AT1" s="31"/>
+      <c r="AU1" s="31"/>
+      <c r="AV1" s="31"/>
       <c r="AW1" s="5"/>
       <c r="AX1" s="5"/>
       <c r="AY1" s="5"/>
@@ -3524,10 +2921,10 @@
     <row r="2" spans="1:71" ht="15.75" customHeight="1">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="42"/>
+      <c r="C2" s="35"/>
       <c r="D2" s="7"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="55"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="46"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -3599,194 +2996,194 @@
       <c r="B3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="50"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="80" t="s">
+      <c r="E3" s="42"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="76"/>
-      <c r="S3" s="76"/>
-      <c r="T3" s="76"/>
-      <c r="U3" s="76"/>
-      <c r="V3" s="76"/>
-      <c r="W3" s="76"/>
-      <c r="X3" s="76"/>
-      <c r="Y3" s="76"/>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="79" t="s">
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="76"/>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="76"/>
-      <c r="AG3" s="76"/>
-      <c r="AH3" s="76"/>
-      <c r="AI3" s="76"/>
-      <c r="AJ3" s="76"/>
-      <c r="AK3" s="76"/>
-      <c r="AL3" s="76"/>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="76"/>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="76"/>
-      <c r="AQ3" s="76"/>
-      <c r="AR3" s="76"/>
-      <c r="AS3" s="76"/>
-      <c r="AT3" s="76"/>
-      <c r="AU3" s="76"/>
-      <c r="AV3" s="75" t="s">
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="63"/>
+      <c r="AO3" s="63"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AW3" s="76"/>
-      <c r="AX3" s="76"/>
-      <c r="AY3" s="76"/>
-      <c r="AZ3" s="76"/>
-      <c r="BA3" s="76"/>
-      <c r="BB3" s="76"/>
-      <c r="BC3" s="76"/>
-      <c r="BD3" s="76"/>
-      <c r="BE3" s="76"/>
-      <c r="BF3" s="76"/>
-      <c r="BG3" s="76"/>
-      <c r="BH3" s="76"/>
-      <c r="BI3" s="76"/>
-      <c r="BJ3" s="76"/>
-      <c r="BK3" s="76"/>
-      <c r="BL3" s="76"/>
-      <c r="BM3" s="76"/>
-      <c r="BN3" s="76"/>
-      <c r="BO3" s="76"/>
-      <c r="BP3" s="76"/>
-      <c r="BQ3" s="76"/>
-      <c r="BR3" s="76"/>
+      <c r="AW3" s="63"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63"/>
+      <c r="BB3" s="63"/>
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
+      <c r="BF3" s="63"/>
+      <c r="BG3" s="63"/>
+      <c r="BH3" s="63"/>
+      <c r="BI3" s="63"/>
+      <c r="BJ3" s="63"/>
+      <c r="BK3" s="63"/>
+      <c r="BL3" s="63"/>
+      <c r="BM3" s="63"/>
+      <c r="BN3" s="63"/>
+      <c r="BO3" s="63"/>
+      <c r="BP3" s="63"/>
+      <c r="BQ3" s="63"/>
+      <c r="BR3" s="63"/>
       <c r="BS3" s="27"/>
     </row>
     <row r="4" spans="1:71" ht="15.75" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="28"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="77" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="67" t="s">
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="69" t="s">
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="67" t="s">
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="69" t="s">
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="67" t="s">
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="69" t="s">
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="68"/>
-      <c r="AK4" s="67" t="s">
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="68"/>
-      <c r="AM4" s="68"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="69" t="s">
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="68"/>
-      <c r="AR4" s="68"/>
-      <c r="AS4" s="68"/>
-      <c r="AT4" s="68"/>
-      <c r="AU4" s="67" t="s">
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="59"/>
+      <c r="AS4" s="59"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="AV4" s="68"/>
-      <c r="AW4" s="68"/>
-      <c r="AX4" s="68"/>
-      <c r="AY4" s="68"/>
-      <c r="AZ4" s="69" t="s">
+      <c r="AV4" s="59"/>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="59"/>
+      <c r="AZ4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="BA4" s="68"/>
-      <c r="BB4" s="68"/>
-      <c r="BC4" s="68"/>
-      <c r="BD4" s="68"/>
-      <c r="BE4" s="67" t="s">
+      <c r="BA4" s="59"/>
+      <c r="BB4" s="59"/>
+      <c r="BC4" s="59"/>
+      <c r="BD4" s="59"/>
+      <c r="BE4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="BF4" s="68"/>
-      <c r="BG4" s="68"/>
-      <c r="BH4" s="68"/>
-      <c r="BI4" s="68"/>
-      <c r="BJ4" s="69" t="s">
+      <c r="BF4" s="59"/>
+      <c r="BG4" s="59"/>
+      <c r="BH4" s="59"/>
+      <c r="BI4" s="59"/>
+      <c r="BJ4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="BK4" s="68"/>
-      <c r="BL4" s="68"/>
-      <c r="BM4" s="68"/>
-      <c r="BN4" s="68"/>
-      <c r="BO4" s="67" t="s">
+      <c r="BK4" s="59"/>
+      <c r="BL4" s="59"/>
+      <c r="BM4" s="59"/>
+      <c r="BN4" s="59"/>
+      <c r="BO4" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="BP4" s="68"/>
-      <c r="BQ4" s="68"/>
-      <c r="BR4" s="68"/>
-      <c r="BS4" s="74"/>
+      <c r="BP4" s="59"/>
+      <c r="BQ4" s="59"/>
+      <c r="BR4" s="59"/>
+      <c r="BS4" s="61"/>
     </row>
     <row r="5" spans="1:71" ht="15.75" customHeight="1">
       <c r="A5" s="9"/>
       <c r="B5" s="28"/>
-      <c r="C5" s="44"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="14"/>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="48" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="15">
@@ -3987,19 +3384,19 @@
     </row>
     <row r="6" spans="1:71" ht="43.5" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="51">
         <v>1</v>
       </c>
-      <c r="D6" s="82" t="s">
+      <c r="D6" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="83">
+      <c r="E6" s="53">
         <v>100</v>
       </c>
-      <c r="F6" s="83" t="s">
+      <c r="F6" s="53" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="17"/>
@@ -4070,17 +3467,17 @@
     </row>
     <row r="7" spans="1:71" ht="43.5" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="81">
+      <c r="B7" s="57"/>
+      <c r="C7" s="51">
         <v>2</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="83">
+      <c r="E7" s="53">
         <v>100</v>
       </c>
-      <c r="F7" s="83" t="s">
+      <c r="F7" s="53" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="22"/>
@@ -4151,174 +3548,174 @@
     </row>
     <row r="8" spans="1:71" ht="21" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="84">
+      <c r="B8" s="57"/>
+      <c r="C8" s="68">
         <v>3</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="D8" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="70">
+        <v>100</v>
+      </c>
+      <c r="F8" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="86">
-        <v>100</v>
-      </c>
-      <c r="F8" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="63"/>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="63"/>
-      <c r="AC8" s="63"/>
-      <c r="AD8" s="63"/>
-      <c r="AE8" s="63"/>
-      <c r="AF8" s="63"/>
-      <c r="AG8" s="63"/>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="63"/>
-      <c r="AJ8" s="63"/>
-      <c r="AK8" s="63"/>
-      <c r="AL8" s="63"/>
-      <c r="AM8" s="63"/>
-      <c r="AN8" s="63"/>
-      <c r="AO8" s="63"/>
-      <c r="AP8" s="63"/>
-      <c r="AQ8" s="63"/>
-      <c r="AR8" s="63"/>
-      <c r="AS8" s="63"/>
-      <c r="AT8" s="63"/>
-      <c r="AU8" s="63"/>
-      <c r="AV8" s="63"/>
-      <c r="AW8" s="63"/>
-      <c r="AX8" s="63"/>
-      <c r="AY8" s="63"/>
-      <c r="AZ8" s="63"/>
-      <c r="BA8" s="63"/>
-      <c r="BB8" s="63"/>
-      <c r="BC8" s="63"/>
-      <c r="BD8" s="63"/>
-      <c r="BE8" s="63"/>
-      <c r="BF8" s="63"/>
-      <c r="BG8" s="63"/>
-      <c r="BH8" s="63"/>
-      <c r="BI8" s="63"/>
-      <c r="BJ8" s="63"/>
-      <c r="BK8" s="63"/>
-      <c r="BL8" s="63"/>
-      <c r="BM8" s="63"/>
-      <c r="BN8" s="63"/>
-      <c r="BO8" s="63"/>
-      <c r="BP8" s="63"/>
-      <c r="BQ8" s="63"/>
-      <c r="BR8" s="63"/>
-      <c r="BS8" s="65"/>
+      <c r="G8" s="72"/>
+      <c r="H8" s="72"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="72"/>
+      <c r="N8" s="72"/>
+      <c r="O8" s="72"/>
+      <c r="P8" s="72"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="72"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="72"/>
+      <c r="AG8" s="72"/>
+      <c r="AH8" s="72"/>
+      <c r="AI8" s="72"/>
+      <c r="AJ8" s="72"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="72"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="72"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="72"/>
+      <c r="AQ8" s="72"/>
+      <c r="AR8" s="72"/>
+      <c r="AS8" s="72"/>
+      <c r="AT8" s="72"/>
+      <c r="AU8" s="72"/>
+      <c r="AV8" s="72"/>
+      <c r="AW8" s="72"/>
+      <c r="AX8" s="72"/>
+      <c r="AY8" s="72"/>
+      <c r="AZ8" s="72"/>
+      <c r="BA8" s="72"/>
+      <c r="BB8" s="72"/>
+      <c r="BC8" s="72"/>
+      <c r="BD8" s="72"/>
+      <c r="BE8" s="72"/>
+      <c r="BF8" s="72"/>
+      <c r="BG8" s="72"/>
+      <c r="BH8" s="72"/>
+      <c r="BI8" s="72"/>
+      <c r="BJ8" s="72"/>
+      <c r="BK8" s="72"/>
+      <c r="BL8" s="72"/>
+      <c r="BM8" s="72"/>
+      <c r="BN8" s="72"/>
+      <c r="BO8" s="72"/>
+      <c r="BP8" s="72"/>
+      <c r="BQ8" s="72"/>
+      <c r="BR8" s="72"/>
+      <c r="BS8" s="74"/>
     </row>
     <row r="9" spans="1:71" ht="21" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="82" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="64"/>
-      <c r="AF9" s="64"/>
-      <c r="AG9" s="64"/>
-      <c r="AH9" s="64"/>
-      <c r="AI9" s="64"/>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="64"/>
-      <c r="AL9" s="64"/>
-      <c r="AM9" s="64"/>
-      <c r="AN9" s="64"/>
-      <c r="AO9" s="64"/>
-      <c r="AP9" s="64"/>
-      <c r="AQ9" s="64"/>
-      <c r="AR9" s="64"/>
-      <c r="AS9" s="64"/>
-      <c r="AT9" s="64"/>
-      <c r="AU9" s="64"/>
-      <c r="AV9" s="64"/>
-      <c r="AW9" s="64"/>
-      <c r="AX9" s="64"/>
-      <c r="AY9" s="64"/>
-      <c r="AZ9" s="64"/>
-      <c r="BA9" s="64"/>
-      <c r="BB9" s="64"/>
-      <c r="BC9" s="64"/>
-      <c r="BD9" s="64"/>
-      <c r="BE9" s="64"/>
-      <c r="BF9" s="64"/>
-      <c r="BG9" s="64"/>
-      <c r="BH9" s="64"/>
-      <c r="BI9" s="64"/>
-      <c r="BJ9" s="64"/>
-      <c r="BK9" s="64"/>
-      <c r="BL9" s="64"/>
-      <c r="BM9" s="64"/>
-      <c r="BN9" s="64"/>
-      <c r="BO9" s="64"/>
-      <c r="BP9" s="64"/>
-      <c r="BQ9" s="64"/>
-      <c r="BR9" s="64"/>
-      <c r="BS9" s="66"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="73"/>
+      <c r="AH9" s="73"/>
+      <c r="AI9" s="73"/>
+      <c r="AJ9" s="73"/>
+      <c r="AK9" s="73"/>
+      <c r="AL9" s="73"/>
+      <c r="AM9" s="73"/>
+      <c r="AN9" s="73"/>
+      <c r="AO9" s="73"/>
+      <c r="AP9" s="73"/>
+      <c r="AQ9" s="73"/>
+      <c r="AR9" s="73"/>
+      <c r="AS9" s="73"/>
+      <c r="AT9" s="73"/>
+      <c r="AU9" s="73"/>
+      <c r="AV9" s="73"/>
+      <c r="AW9" s="73"/>
+      <c r="AX9" s="73"/>
+      <c r="AY9" s="73"/>
+      <c r="AZ9" s="73"/>
+      <c r="BA9" s="73"/>
+      <c r="BB9" s="73"/>
+      <c r="BC9" s="73"/>
+      <c r="BD9" s="73"/>
+      <c r="BE9" s="73"/>
+      <c r="BF9" s="73"/>
+      <c r="BG9" s="73"/>
+      <c r="BH9" s="73"/>
+      <c r="BI9" s="73"/>
+      <c r="BJ9" s="73"/>
+      <c r="BK9" s="73"/>
+      <c r="BL9" s="73"/>
+      <c r="BM9" s="73"/>
+      <c r="BN9" s="73"/>
+      <c r="BO9" s="73"/>
+      <c r="BP9" s="73"/>
+      <c r="BQ9" s="73"/>
+      <c r="BR9" s="73"/>
+      <c r="BS9" s="75"/>
     </row>
     <row r="10" spans="1:71" ht="43.5" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="81">
+      <c r="B10" s="57"/>
+      <c r="C10" s="51">
         <v>4</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="53">
+        <v>100</v>
+      </c>
+      <c r="F10" s="55" t="s">
         <v>34</v>
-      </c>
-      <c r="E10" s="83">
-        <v>100</v>
-      </c>
-      <c r="F10" s="89" t="s">
-        <v>36</v>
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="24"/>
@@ -4388,17 +3785,17 @@
     </row>
     <row r="11" spans="1:71" ht="43.5" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="45">
+      <c r="B11" s="57"/>
+      <c r="C11" s="38">
         <v>5</v>
       </c>
-      <c r="D11" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="52">
+      <c r="D11" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="44">
         <v>30</v>
       </c>
-      <c r="F11" s="52"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="22"/>
       <c r="H11" s="24"/>
       <c r="I11" s="20"/>
@@ -4465,21 +3862,21 @@
       <c r="BR11" s="20"/>
       <c r="BS11" s="30"/>
     </row>
-    <row r="12" spans="1:71" ht="43.5" customHeight="1">
+    <row r="12" spans="1:71" ht="100.5" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="72" t="s">
+      <c r="B12" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="45">
+      <c r="C12" s="38">
         <v>6</v>
       </c>
-      <c r="D12" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="52">
+      <c r="D12" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="44">
         <v>0</v>
       </c>
-      <c r="F12" s="52"/>
+      <c r="F12" s="50"/>
       <c r="G12" s="22"/>
       <c r="H12" s="24"/>
       <c r="I12" s="20"/>
@@ -4504,27 +3901,27 @@
       <c r="AB12" s="20"/>
       <c r="AC12" s="20"/>
       <c r="AD12" s="20"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="38"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="38"/>
-      <c r="AI12" s="38"/>
-      <c r="AJ12" s="38"/>
-      <c r="AK12" s="38"/>
-      <c r="AL12" s="38"/>
-      <c r="AM12" s="38"/>
-      <c r="AN12" s="38"/>
-      <c r="AO12" s="38"/>
-      <c r="AP12" s="20"/>
-      <c r="AQ12" s="20"/>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="20"/>
-      <c r="AT12" s="20"/>
-      <c r="AU12" s="20"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="20"/>
-      <c r="AX12" s="20"/>
-      <c r="AY12" s="20"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="33"/>
+      <c r="AG12" s="33"/>
+      <c r="AH12" s="33"/>
+      <c r="AI12" s="33"/>
+      <c r="AJ12" s="33"/>
+      <c r="AK12" s="33"/>
+      <c r="AL12" s="33"/>
+      <c r="AM12" s="33"/>
+      <c r="AN12" s="33"/>
+      <c r="AO12" s="33"/>
+      <c r="AP12" s="33"/>
+      <c r="AQ12" s="33"/>
+      <c r="AR12" s="33"/>
+      <c r="AS12" s="33"/>
+      <c r="AT12" s="33"/>
+      <c r="AU12" s="33"/>
+      <c r="AV12" s="33"/>
+      <c r="AW12" s="33"/>
+      <c r="AX12" s="33"/>
+      <c r="AY12" s="33"/>
       <c r="AZ12" s="20"/>
       <c r="BA12" s="20"/>
       <c r="BB12" s="20"/>
@@ -4546,19 +3943,19 @@
       <c r="BR12" s="20"/>
       <c r="BS12" s="30"/>
     </row>
-    <row r="13" spans="1:71" ht="43.5" customHeight="1">
+    <row r="13" spans="1:71" ht="100.5" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="45">
+      <c r="B13" s="80"/>
+      <c r="C13" s="38">
         <v>7</v>
       </c>
-      <c r="D13" s="59" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="52">
+      <c r="D13" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="44">
         <v>0</v>
       </c>
-      <c r="F13" s="52"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="22"/>
       <c r="H13" s="24"/>
       <c r="I13" s="20"/>
@@ -4594,168 +3991,103 @@
       <c r="AM13" s="21"/>
       <c r="AN13" s="21"/>
       <c r="AO13" s="20"/>
-      <c r="AP13" s="38"/>
-      <c r="AQ13" s="38"/>
-      <c r="AR13" s="38"/>
-      <c r="AS13" s="38"/>
-      <c r="AT13" s="38"/>
-      <c r="AU13" s="38"/>
-      <c r="AV13" s="38"/>
-      <c r="AW13" s="38"/>
-      <c r="AX13" s="38"/>
-      <c r="AY13" s="38"/>
-      <c r="AZ13" s="38"/>
-      <c r="BA13" s="38"/>
-      <c r="BB13" s="38"/>
-      <c r="BC13" s="38"/>
-      <c r="BD13" s="38"/>
-      <c r="BE13" s="38"/>
-      <c r="BF13" s="38"/>
-      <c r="BG13" s="38"/>
-      <c r="BH13" s="38"/>
-      <c r="BI13" s="38"/>
-      <c r="BJ13" s="20"/>
-      <c r="BK13" s="20"/>
-      <c r="BL13" s="20"/>
-      <c r="BM13" s="20"/>
-      <c r="BN13" s="20"/>
-      <c r="BO13" s="20"/>
-      <c r="BP13" s="20"/>
-      <c r="BQ13" s="20"/>
-      <c r="BR13" s="20"/>
-      <c r="BS13" s="30"/>
-    </row>
-    <row r="14" spans="1:71" ht="43.5" customHeight="1">
-      <c r="A14" s="10"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="46">
-        <v>8</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="53">
-        <v>0</v>
-      </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="33"/>
-      <c r="AE14" s="33"/>
-      <c r="AF14" s="33"/>
-      <c r="AG14" s="33"/>
-      <c r="AH14" s="33"/>
-      <c r="AI14" s="33"/>
-      <c r="AJ14" s="33"/>
-      <c r="AK14" s="35"/>
-      <c r="AL14" s="35"/>
-      <c r="AM14" s="35"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="33"/>
-      <c r="AP14" s="33"/>
-      <c r="AQ14" s="33"/>
-      <c r="AR14" s="33"/>
-      <c r="AS14" s="33"/>
-      <c r="AT14" s="33"/>
-      <c r="AU14" s="33"/>
-      <c r="AV14" s="33"/>
-      <c r="AW14" s="33"/>
-      <c r="AX14" s="33"/>
-      <c r="AY14" s="33"/>
-      <c r="AZ14" s="33"/>
-      <c r="BA14" s="33"/>
-      <c r="BB14" s="33"/>
-      <c r="BC14" s="33"/>
-      <c r="BD14" s="33"/>
-      <c r="BE14" s="33"/>
-      <c r="BF14" s="33"/>
-      <c r="BG14" s="33"/>
-      <c r="BH14" s="33"/>
-      <c r="BI14" s="33"/>
-      <c r="BJ14" s="39"/>
-      <c r="BK14" s="39"/>
-      <c r="BL14" s="39"/>
-      <c r="BM14" s="39"/>
-      <c r="BN14" s="39"/>
-      <c r="BO14" s="39"/>
-      <c r="BP14" s="39"/>
-      <c r="BQ14" s="39"/>
-      <c r="BR14" s="39"/>
-      <c r="BS14" s="40"/>
+      <c r="AP13" s="20"/>
+      <c r="AQ13" s="20"/>
+      <c r="AR13" s="20"/>
+      <c r="AS13" s="20"/>
+      <c r="AT13" s="20"/>
+      <c r="AU13" s="20"/>
+      <c r="AV13" s="20"/>
+      <c r="AW13" s="20"/>
+      <c r="AX13" s="20"/>
+      <c r="AY13" s="20"/>
+      <c r="AZ13" s="33"/>
+      <c r="BA13" s="33"/>
+      <c r="BB13" s="33"/>
+      <c r="BC13" s="33"/>
+      <c r="BD13" s="33"/>
+      <c r="BE13" s="33"/>
+      <c r="BF13" s="33"/>
+      <c r="BG13" s="33"/>
+      <c r="BH13" s="33"/>
+      <c r="BI13" s="33"/>
+      <c r="BJ13" s="33"/>
+      <c r="BK13" s="33"/>
+      <c r="BL13" s="33"/>
+      <c r="BM13" s="33"/>
+      <c r="BN13" s="33"/>
+      <c r="BO13" s="33"/>
+      <c r="BP13" s="33"/>
+      <c r="BQ13" s="33"/>
+      <c r="BR13" s="33"/>
+      <c r="BS13" s="33"/>
+    </row>
+    <row r="14" spans="1:71" ht="12.75">
+      <c r="A14" s="11"/>
+      <c r="D14" s="45"/>
     </row>
     <row r="15" spans="1:71" ht="12.75">
       <c r="A15" s="11"/>
+      <c r="D15" s="45"/>
     </row>
     <row r="16" spans="1:71" ht="12.75">
       <c r="A16" s="11"/>
-    </row>
-    <row r="17" spans="1:1" ht="12.75">
+      <c r="D16" s="45"/>
+    </row>
+    <row r="17" spans="1:4" ht="12.75">
       <c r="A17" s="11"/>
-    </row>
-    <row r="18" spans="1:1" ht="12.75">
+      <c r="D17" s="45"/>
+    </row>
+    <row r="18" spans="1:4" ht="12.75">
       <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:1" ht="12.75">
+      <c r="D18" s="45"/>
+    </row>
+    <row r="19" spans="1:4" ht="12.75">
       <c r="A19" s="11"/>
-    </row>
-    <row r="20" spans="1:1" ht="12.75">
+      <c r="D19" s="45"/>
+    </row>
+    <row r="20" spans="1:4" ht="12.75">
       <c r="A20" s="11"/>
-    </row>
-    <row r="21" spans="1:1" ht="12.75">
+      <c r="D20" s="81"/>
+    </row>
+    <row r="21" spans="1:4" ht="12.75">
       <c r="A21" s="11"/>
-    </row>
-    <row r="22" spans="1:1" ht="12.75">
+      <c r="D21" s="81"/>
+    </row>
+    <row r="22" spans="1:4" ht="12.75">
       <c r="A22" s="11"/>
-    </row>
-    <row r="23" spans="1:1" ht="12.75">
+      <c r="D22" s="78"/>
+    </row>
+    <row r="23" spans="1:4" ht="12.75">
       <c r="A23" s="11"/>
-    </row>
-    <row r="24" spans="1:1" ht="12.75">
+      <c r="D23" s="78"/>
+    </row>
+    <row r="24" spans="1:4" ht="12.75">
       <c r="A24" s="11"/>
-    </row>
-    <row r="25" spans="1:1" ht="12.75">
+      <c r="D24" s="78"/>
+    </row>
+    <row r="25" spans="1:4" ht="12.75">
       <c r="A25" s="11"/>
     </row>
-    <row r="26" spans="1:1" ht="12.75">
+    <row r="26" spans="1:4" ht="12.75">
       <c r="A26" s="11"/>
     </row>
-    <row r="27" spans="1:1" ht="12.75">
+    <row r="27" spans="1:4" ht="12.75">
       <c r="A27" s="11"/>
     </row>
-    <row r="28" spans="1:1" ht="12.75">
+    <row r="28" spans="1:4" ht="12.75">
       <c r="A28" s="11"/>
     </row>
-    <row r="29" spans="1:1" ht="12.75">
+    <row r="29" spans="1:4" ht="12.75">
       <c r="A29" s="11"/>
     </row>
-    <row r="30" spans="1:1" ht="12.75">
+    <row r="30" spans="1:4" ht="12.75">
       <c r="A30" s="11"/>
     </row>
-    <row r="31" spans="1:1" ht="12.75">
+    <row r="31" spans="1:4" ht="12.75">
       <c r="A31" s="11"/>
     </row>
-    <row r="32" spans="1:1" ht="12.75">
+    <row r="32" spans="1:4" ht="12.75">
       <c r="A32" s="11"/>
     </row>
     <row r="33" spans="1:1" ht="12.75">
@@ -7602,33 +6934,64 @@
     <row r="980" spans="1:1" ht="12.75">
       <c r="A980" s="11"/>
     </row>
-    <row r="981" spans="1:1" ht="12.75">
-      <c r="A981" s="11"/>
-    </row>
-    <row r="982" spans="1:1" ht="12.75">
-      <c r="A982" s="11"/>
-    </row>
-    <row r="983" spans="1:1" ht="12.75">
-      <c r="A983" s="11"/>
-    </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="BJ4:BN4"/>
-    <mergeCell ref="BO4:BS4"/>
-    <mergeCell ref="AV3:BR3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="AA4:AE4"/>
-    <mergeCell ref="AF4:AJ4"/>
-    <mergeCell ref="AU4:AY4"/>
-    <mergeCell ref="AK4:AO4"/>
-    <mergeCell ref="BE4:BI4"/>
-    <mergeCell ref="AP4:AT4"/>
-    <mergeCell ref="AZ4:BD4"/>
-    <mergeCell ref="AA3:AU3"/>
-    <mergeCell ref="G3:Z3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BQ8:BQ9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BS8:BS9"/>
+    <mergeCell ref="BJ8:BJ9"/>
+    <mergeCell ref="BK8:BK9"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BM8:BM9"/>
+    <mergeCell ref="BN8:BN9"/>
+    <mergeCell ref="BE8:BE9"/>
+    <mergeCell ref="BF8:BF9"/>
+    <mergeCell ref="BG8:BG9"/>
+    <mergeCell ref="BH8:BH9"/>
+    <mergeCell ref="BI8:BI9"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="BC8:BC9"/>
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="Q4:U4"/>
@@ -7645,76 +7008,35 @@
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="AU8:AU9"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="BC8:BC9"/>
-    <mergeCell ref="BD8:BD9"/>
-    <mergeCell ref="BE8:BE9"/>
-    <mergeCell ref="BF8:BF9"/>
-    <mergeCell ref="BG8:BG9"/>
-    <mergeCell ref="BH8:BH9"/>
-    <mergeCell ref="BI8:BI9"/>
-    <mergeCell ref="BJ8:BJ9"/>
-    <mergeCell ref="BK8:BK9"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BM8:BM9"/>
-    <mergeCell ref="BN8:BN9"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BQ8:BQ9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BS8:BS9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="BJ4:BN4"/>
+    <mergeCell ref="BO4:BS4"/>
+    <mergeCell ref="AV3:BR3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="AF4:AJ4"/>
+    <mergeCell ref="AU4:AY4"/>
+    <mergeCell ref="AK4:AO4"/>
+    <mergeCell ref="BE4:BI4"/>
+    <mergeCell ref="AP4:AT4"/>
+    <mergeCell ref="AZ4:BD4"/>
+    <mergeCell ref="AA3:AU3"/>
+    <mergeCell ref="G3:Z3"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{C3C5A023-5FD9-4C44-B29D-4FC1EB36F675}"/>
-    <hyperlink ref="D7" r:id="rId3" xr:uid="{4DC102C9-DA18-4713-A6F1-9AE27BB277F6}"/>
-    <hyperlink ref="D8:D9" r:id="rId4" display="tcp/ip 4계층과 http 프로토콜 차이, AJAX란" xr:uid="{C796D420-1F56-4328-AC97-C7187CB1590A}"/>
-    <hyperlink ref="D8" r:id="rId5" xr:uid="{E9C8EF66-3069-4468-9995-19CD38EEB4BB}"/>
-    <hyperlink ref="D10" r:id="rId6" xr:uid="{15A4D1D0-2F2B-4C8F-B307-F1AD4AE73C44}"/>
-    <hyperlink ref="D11" r:id="rId7" xr:uid="{7BBB70F9-821D-4E64-965E-99E44F64CEAE}"/>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{C3C5A023-5FD9-4C44-B29D-4FC1EB36F675}"/>
+    <hyperlink ref="D7" r:id="rId2" xr:uid="{4DC102C9-DA18-4713-A6F1-9AE27BB277F6}"/>
+    <hyperlink ref="D8:D9" r:id="rId3" display="tcp/ip 4계층과 http 프로토콜 차이, AJAX란" xr:uid="{C796D420-1F56-4328-AC97-C7187CB1590A}"/>
+    <hyperlink ref="D8" r:id="rId4" xr:uid="{E9C8EF66-3069-4468-9995-19CD38EEB4BB}"/>
+    <hyperlink ref="D10" r:id="rId5" xr:uid="{15A4D1D0-2F2B-4C8F-B307-F1AD4AE73C44}"/>
+    <hyperlink ref="D11" r:id="rId6" xr:uid="{7BBB70F9-821D-4E64-965E-99E44F64CEAE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/교육/202010_신입사원 교육과정.xlsx
+++ b/교육/202010_신입사원 교육과정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dmsql1471\교육\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B5F337C-BB1B-42CF-8D08-05B23E34299B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FB5D20-C7CB-4175-A6F1-6BEB920E8108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="1380" windowWidth="28725" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29175" yWindow="780" windowWidth="28725" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -2533,28 +2533,40 @@
     <xf numFmtId="0" fontId="30" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2569,34 +2581,22 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2826,10 +2826,10 @@
   <dimension ref="A1:BS980"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="M9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3002,178 +3002,178 @@
       </c>
       <c r="E3" s="42"/>
       <c r="F3" s="47"/>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="66" t="s">
+      <c r="H3" s="78"/>
+      <c r="I3" s="78"/>
+      <c r="J3" s="78"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="78"/>
+      <c r="N3" s="78"/>
+      <c r="O3" s="78"/>
+      <c r="P3" s="78"/>
+      <c r="Q3" s="78"/>
+      <c r="R3" s="78"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="78"/>
+      <c r="U3" s="78"/>
+      <c r="V3" s="78"/>
+      <c r="W3" s="78"/>
+      <c r="X3" s="78"/>
+      <c r="Y3" s="78"/>
+      <c r="Z3" s="78"/>
+      <c r="AA3" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="63"/>
-      <c r="AO3" s="63"/>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="62" t="s">
+      <c r="AB3" s="78"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="78"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="78"/>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="78"/>
+      <c r="AM3" s="78"/>
+      <c r="AN3" s="78"/>
+      <c r="AO3" s="78"/>
+      <c r="AP3" s="78"/>
+      <c r="AQ3" s="78"/>
+      <c r="AR3" s="78"/>
+      <c r="AS3" s="78"/>
+      <c r="AT3" s="78"/>
+      <c r="AU3" s="78"/>
+      <c r="AV3" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
-      <c r="BF3" s="63"/>
-      <c r="BG3" s="63"/>
-      <c r="BH3" s="63"/>
-      <c r="BI3" s="63"/>
-      <c r="BJ3" s="63"/>
-      <c r="BK3" s="63"/>
-      <c r="BL3" s="63"/>
-      <c r="BM3" s="63"/>
-      <c r="BN3" s="63"/>
-      <c r="BO3" s="63"/>
-      <c r="BP3" s="63"/>
-      <c r="BQ3" s="63"/>
-      <c r="BR3" s="63"/>
+      <c r="AW3" s="78"/>
+      <c r="AX3" s="78"/>
+      <c r="AY3" s="78"/>
+      <c r="AZ3" s="78"/>
+      <c r="BA3" s="78"/>
+      <c r="BB3" s="78"/>
+      <c r="BC3" s="78"/>
+      <c r="BD3" s="78"/>
+      <c r="BE3" s="78"/>
+      <c r="BF3" s="78"/>
+      <c r="BG3" s="78"/>
+      <c r="BH3" s="78"/>
+      <c r="BI3" s="78"/>
+      <c r="BJ3" s="78"/>
+      <c r="BK3" s="78"/>
+      <c r="BL3" s="78"/>
+      <c r="BM3" s="78"/>
+      <c r="BN3" s="78"/>
+      <c r="BO3" s="78"/>
+      <c r="BP3" s="78"/>
+      <c r="BQ3" s="78"/>
+      <c r="BR3" s="78"/>
       <c r="BS3" s="27"/>
     </row>
     <row r="4" spans="1:71" ht="15.75" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="28"/>
       <c r="C4" s="37"/>
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="64"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="60" t="s">
+      <c r="E4" s="79"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="58" t="s">
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="60" t="s">
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="58" t="s">
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="59"/>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="60" t="s">
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="59"/>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="58" t="s">
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="60" t="s">
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="58" t="s">
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68"/>
+      <c r="AO4" s="68"/>
+      <c r="AP4" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="59"/>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="60" t="s">
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="68"/>
+      <c r="AU4" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="AV4" s="59"/>
-      <c r="AW4" s="59"/>
-      <c r="AX4" s="59"/>
-      <c r="AY4" s="59"/>
-      <c r="AZ4" s="58" t="s">
+      <c r="AV4" s="68"/>
+      <c r="AW4" s="68"/>
+      <c r="AX4" s="68"/>
+      <c r="AY4" s="68"/>
+      <c r="AZ4" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="BA4" s="59"/>
-      <c r="BB4" s="59"/>
-      <c r="BC4" s="59"/>
-      <c r="BD4" s="59"/>
-      <c r="BE4" s="60" t="s">
+      <c r="BA4" s="68"/>
+      <c r="BB4" s="68"/>
+      <c r="BC4" s="68"/>
+      <c r="BD4" s="68"/>
+      <c r="BE4" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="BF4" s="59"/>
-      <c r="BG4" s="59"/>
-      <c r="BH4" s="59"/>
-      <c r="BI4" s="59"/>
-      <c r="BJ4" s="58" t="s">
+      <c r="BF4" s="68"/>
+      <c r="BG4" s="68"/>
+      <c r="BH4" s="68"/>
+      <c r="BI4" s="68"/>
+      <c r="BJ4" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="BK4" s="59"/>
-      <c r="BL4" s="59"/>
-      <c r="BM4" s="59"/>
-      <c r="BN4" s="59"/>
-      <c r="BO4" s="60" t="s">
+      <c r="BK4" s="68"/>
+      <c r="BL4" s="68"/>
+      <c r="BM4" s="68"/>
+      <c r="BN4" s="68"/>
+      <c r="BO4" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="BP4" s="59"/>
-      <c r="BQ4" s="59"/>
-      <c r="BR4" s="59"/>
-      <c r="BS4" s="61"/>
+      <c r="BP4" s="68"/>
+      <c r="BQ4" s="68"/>
+      <c r="BR4" s="68"/>
+      <c r="BS4" s="76"/>
     </row>
     <row r="5" spans="1:71" ht="15.75" customHeight="1">
       <c r="A5" s="9"/>
@@ -3384,7 +3384,7 @@
     </row>
     <row r="6" spans="1:71" ht="43.5" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="74" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="51">
@@ -3467,7 +3467,7 @@
     </row>
     <row r="7" spans="1:71" ht="43.5" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="57"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="51">
         <v>2</v>
       </c>
@@ -3548,163 +3548,163 @@
     </row>
     <row r="8" spans="1:71" ht="21" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="68">
+      <c r="B8" s="75"/>
+      <c r="C8" s="70">
         <v>3</v>
       </c>
       <c r="D8" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="72">
         <v>100</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="72"/>
-      <c r="AI8" s="72"/>
-      <c r="AJ8" s="72"/>
-      <c r="AK8" s="72"/>
-      <c r="AL8" s="72"/>
-      <c r="AM8" s="72"/>
-      <c r="AN8" s="72"/>
-      <c r="AO8" s="72"/>
-      <c r="AP8" s="72"/>
-      <c r="AQ8" s="72"/>
-      <c r="AR8" s="72"/>
-      <c r="AS8" s="72"/>
-      <c r="AT8" s="72"/>
-      <c r="AU8" s="72"/>
-      <c r="AV8" s="72"/>
-      <c r="AW8" s="72"/>
-      <c r="AX8" s="72"/>
-      <c r="AY8" s="72"/>
-      <c r="AZ8" s="72"/>
-      <c r="BA8" s="72"/>
-      <c r="BB8" s="72"/>
-      <c r="BC8" s="72"/>
-      <c r="BD8" s="72"/>
-      <c r="BE8" s="72"/>
-      <c r="BF8" s="72"/>
-      <c r="BG8" s="72"/>
-      <c r="BH8" s="72"/>
-      <c r="BI8" s="72"/>
-      <c r="BJ8" s="72"/>
-      <c r="BK8" s="72"/>
-      <c r="BL8" s="72"/>
-      <c r="BM8" s="72"/>
-      <c r="BN8" s="72"/>
-      <c r="BO8" s="72"/>
-      <c r="BP8" s="72"/>
-      <c r="BQ8" s="72"/>
-      <c r="BR8" s="72"/>
-      <c r="BS8" s="74"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="63"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="63"/>
+      <c r="AM8" s="63"/>
+      <c r="AN8" s="63"/>
+      <c r="AO8" s="63"/>
+      <c r="AP8" s="63"/>
+      <c r="AQ8" s="63"/>
+      <c r="AR8" s="63"/>
+      <c r="AS8" s="63"/>
+      <c r="AT8" s="63"/>
+      <c r="AU8" s="63"/>
+      <c r="AV8" s="63"/>
+      <c r="AW8" s="63"/>
+      <c r="AX8" s="63"/>
+      <c r="AY8" s="63"/>
+      <c r="AZ8" s="63"/>
+      <c r="BA8" s="63"/>
+      <c r="BB8" s="63"/>
+      <c r="BC8" s="63"/>
+      <c r="BD8" s="63"/>
+      <c r="BE8" s="63"/>
+      <c r="BF8" s="63"/>
+      <c r="BG8" s="63"/>
+      <c r="BH8" s="63"/>
+      <c r="BI8" s="63"/>
+      <c r="BJ8" s="63"/>
+      <c r="BK8" s="63"/>
+      <c r="BL8" s="63"/>
+      <c r="BM8" s="63"/>
+      <c r="BN8" s="63"/>
+      <c r="BO8" s="63"/>
+      <c r="BP8" s="63"/>
+      <c r="BQ8" s="63"/>
+      <c r="BR8" s="63"/>
+      <c r="BS8" s="65"/>
     </row>
     <row r="9" spans="1:71" ht="21" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="69"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="71"/>
       <c r="D9" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="73"/>
-      <c r="AI9" s="73"/>
-      <c r="AJ9" s="73"/>
-      <c r="AK9" s="73"/>
-      <c r="AL9" s="73"/>
-      <c r="AM9" s="73"/>
-      <c r="AN9" s="73"/>
-      <c r="AO9" s="73"/>
-      <c r="AP9" s="73"/>
-      <c r="AQ9" s="73"/>
-      <c r="AR9" s="73"/>
-      <c r="AS9" s="73"/>
-      <c r="AT9" s="73"/>
-      <c r="AU9" s="73"/>
-      <c r="AV9" s="73"/>
-      <c r="AW9" s="73"/>
-      <c r="AX9" s="73"/>
-      <c r="AY9" s="73"/>
-      <c r="AZ9" s="73"/>
-      <c r="BA9" s="73"/>
-      <c r="BB9" s="73"/>
-      <c r="BC9" s="73"/>
-      <c r="BD9" s="73"/>
-      <c r="BE9" s="73"/>
-      <c r="BF9" s="73"/>
-      <c r="BG9" s="73"/>
-      <c r="BH9" s="73"/>
-      <c r="BI9" s="73"/>
-      <c r="BJ9" s="73"/>
-      <c r="BK9" s="73"/>
-      <c r="BL9" s="73"/>
-      <c r="BM9" s="73"/>
-      <c r="BN9" s="73"/>
-      <c r="BO9" s="73"/>
-      <c r="BP9" s="73"/>
-      <c r="BQ9" s="73"/>
-      <c r="BR9" s="73"/>
-      <c r="BS9" s="75"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="62"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="64"/>
+      <c r="AB9" s="64"/>
+      <c r="AC9" s="64"/>
+      <c r="AD9" s="64"/>
+      <c r="AE9" s="64"/>
+      <c r="AF9" s="64"/>
+      <c r="AG9" s="64"/>
+      <c r="AH9" s="64"/>
+      <c r="AI9" s="64"/>
+      <c r="AJ9" s="64"/>
+      <c r="AK9" s="64"/>
+      <c r="AL9" s="64"/>
+      <c r="AM9" s="64"/>
+      <c r="AN9" s="64"/>
+      <c r="AO9" s="64"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="64"/>
+      <c r="AR9" s="64"/>
+      <c r="AS9" s="64"/>
+      <c r="AT9" s="64"/>
+      <c r="AU9" s="64"/>
+      <c r="AV9" s="64"/>
+      <c r="AW9" s="64"/>
+      <c r="AX9" s="64"/>
+      <c r="AY9" s="64"/>
+      <c r="AZ9" s="64"/>
+      <c r="BA9" s="64"/>
+      <c r="BB9" s="64"/>
+      <c r="BC9" s="64"/>
+      <c r="BD9" s="64"/>
+      <c r="BE9" s="64"/>
+      <c r="BF9" s="64"/>
+      <c r="BG9" s="64"/>
+      <c r="BH9" s="64"/>
+      <c r="BI9" s="64"/>
+      <c r="BJ9" s="64"/>
+      <c r="BK9" s="64"/>
+      <c r="BL9" s="64"/>
+      <c r="BM9" s="64"/>
+      <c r="BN9" s="64"/>
+      <c r="BO9" s="64"/>
+      <c r="BP9" s="64"/>
+      <c r="BQ9" s="64"/>
+      <c r="BR9" s="64"/>
+      <c r="BS9" s="66"/>
     </row>
     <row r="10" spans="1:71" ht="43.5" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="57"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="51">
         <v>4</v>
       </c>
@@ -3785,7 +3785,7 @@
     </row>
     <row r="11" spans="1:71" ht="43.5" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="57"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -3864,7 +3864,7 @@
     </row>
     <row r="12" spans="1:71" ht="100.5" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="38">
@@ -3945,11 +3945,11 @@
     </row>
     <row r="13" spans="1:71" ht="100.5" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="80"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="38">
         <v>7</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="58" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44">
@@ -4048,23 +4048,23 @@
     </row>
     <row r="20" spans="1:4" ht="12.75">
       <c r="A20" s="11"/>
-      <c r="D20" s="81"/>
+      <c r="D20" s="57"/>
     </row>
     <row r="21" spans="1:4" ht="12.75">
       <c r="A21" s="11"/>
-      <c r="D21" s="81"/>
+      <c r="D21" s="57"/>
     </row>
     <row r="22" spans="1:4" ht="12.75">
       <c r="A22" s="11"/>
-      <c r="D22" s="78"/>
+      <c r="D22" s="56"/>
     </row>
     <row r="23" spans="1:4" ht="12.75">
       <c r="A23" s="11"/>
-      <c r="D23" s="78"/>
+      <c r="D23" s="56"/>
     </row>
     <row r="24" spans="1:4" ht="12.75">
       <c r="A24" s="11"/>
-      <c r="D24" s="78"/>
+      <c r="D24" s="56"/>
     </row>
     <row r="25" spans="1:4" ht="12.75">
       <c r="A25" s="11"/>
@@ -6936,62 +6936,20 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BQ8:BQ9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BS8:BS9"/>
-    <mergeCell ref="BJ8:BJ9"/>
-    <mergeCell ref="BK8:BK9"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BM8:BM9"/>
-    <mergeCell ref="BN8:BN9"/>
-    <mergeCell ref="BE8:BE9"/>
-    <mergeCell ref="BF8:BF9"/>
-    <mergeCell ref="BG8:BG9"/>
-    <mergeCell ref="BH8:BH9"/>
-    <mergeCell ref="BI8:BI9"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="BC8:BC9"/>
-    <mergeCell ref="BD8:BD9"/>
-    <mergeCell ref="AU8:AU9"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="BJ4:BN4"/>
+    <mergeCell ref="BO4:BS4"/>
+    <mergeCell ref="AV3:BR3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="V4:Z4"/>
+    <mergeCell ref="AA4:AE4"/>
+    <mergeCell ref="AF4:AJ4"/>
+    <mergeCell ref="AU4:AY4"/>
+    <mergeCell ref="AK4:AO4"/>
+    <mergeCell ref="BE4:BI4"/>
+    <mergeCell ref="AP4:AT4"/>
+    <mergeCell ref="AZ4:BD4"/>
+    <mergeCell ref="AA3:AU3"/>
+    <mergeCell ref="G3:Z3"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="L4:P4"/>
     <mergeCell ref="Q4:U4"/>
@@ -7008,21 +6966,63 @@
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="BS8:BS9"/>
+    <mergeCell ref="BJ8:BJ9"/>
+    <mergeCell ref="BK8:BK9"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BM8:BM9"/>
+    <mergeCell ref="BN8:BN9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BQ8:BQ9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BE8:BE9"/>
+    <mergeCell ref="BF8:BF9"/>
+    <mergeCell ref="BG8:BG9"/>
+    <mergeCell ref="BH8:BH9"/>
+    <mergeCell ref="BI8:BI9"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="BC8:BC9"/>
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
     <mergeCell ref="B6:B11"/>
-    <mergeCell ref="BJ4:BN4"/>
-    <mergeCell ref="BO4:BS4"/>
-    <mergeCell ref="AV3:BR3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="V4:Z4"/>
-    <mergeCell ref="AA4:AE4"/>
-    <mergeCell ref="AF4:AJ4"/>
-    <mergeCell ref="AU4:AY4"/>
-    <mergeCell ref="AK4:AO4"/>
-    <mergeCell ref="BE4:BI4"/>
-    <mergeCell ref="AP4:AT4"/>
-    <mergeCell ref="AZ4:BD4"/>
-    <mergeCell ref="AA3:AU3"/>
-    <mergeCell ref="G3:Z3"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>

--- a/교육/202010_신입사원 교육과정.xlsx
+++ b/교육/202010_신입사원 교육과정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dmsql1471\교육\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.203\share\3. 개인자료\김은비\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71FB5D20-C7CB-4175-A6F1-6BEB920E8108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9923B2-0573-4C1C-8378-5A21FB966B66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29175" yWindow="780" windowWidth="28725" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -340,7 +340,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>단계</t>
   </si>
@@ -1833,10 +1833,15 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
+    <t>정규화 단계에 대한 상세 설명 부족</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1847,8 +1852,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1856,8 +1862,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1866,8 +1873,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -1875,8 +1883,9 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
-        <color rgb="FF45818E"/>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1885,13 +1894,154 @@
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Asp.net core 3.1 + Vue </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>템플릿</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">활용
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Asp.net core 3.1 + Vue + DevExporess</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>roter, store(vuex), axios</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="9"/>
-        <color rgb="FF45818E"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구현</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1" tint="0.249977111117893"/>
         <rFont val="Roboto"/>
       </rPr>
       <t xml:space="preserve">
-Asp.net core 3.1 + Vue 템플릿 활용
-Asp.net core 3.1 + Vue + DevExporess</t>
+*발표 제외*</t>
     </r>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -2047,19 +2197,6 @@
     <font>
       <sz val="9"/>
       <color rgb="FF45818E"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF45818E"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF45818E"/>
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2113,10 +2250,21 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF45818E"/>
+      <color theme="1" tint="0.249977111117893"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="17">
@@ -2420,7 +2568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2517,9 +2665,6 @@
     <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2530,43 +2675,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="16" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2581,22 +2712,42 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2826,10 +2977,10 @@
   <dimension ref="A1:BS980"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="5" topLeftCell="M6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="5" topLeftCell="AK6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AC6" sqref="AC6"/>
+      <selection pane="bottomRight" activeCell="BM12" sqref="BM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3002,178 +3153,178 @@
       </c>
       <c r="E3" s="42"/>
       <c r="F3" s="47"/>
-      <c r="G3" s="82" t="s">
+      <c r="G3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="81" t="s">
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="78"/>
-      <c r="AE3" s="78"/>
-      <c r="AF3" s="78"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="78"/>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="78"/>
-      <c r="AM3" s="78"/>
-      <c r="AN3" s="78"/>
-      <c r="AO3" s="78"/>
-      <c r="AP3" s="78"/>
-      <c r="AQ3" s="78"/>
-      <c r="AR3" s="78"/>
-      <c r="AS3" s="78"/>
-      <c r="AT3" s="78"/>
-      <c r="AU3" s="78"/>
-      <c r="AV3" s="77" t="s">
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="62"/>
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="AW3" s="78"/>
-      <c r="AX3" s="78"/>
-      <c r="AY3" s="78"/>
-      <c r="AZ3" s="78"/>
-      <c r="BA3" s="78"/>
-      <c r="BB3" s="78"/>
-      <c r="BC3" s="78"/>
-      <c r="BD3" s="78"/>
-      <c r="BE3" s="78"/>
-      <c r="BF3" s="78"/>
-      <c r="BG3" s="78"/>
-      <c r="BH3" s="78"/>
-      <c r="BI3" s="78"/>
-      <c r="BJ3" s="78"/>
-      <c r="BK3" s="78"/>
-      <c r="BL3" s="78"/>
-      <c r="BM3" s="78"/>
-      <c r="BN3" s="78"/>
-      <c r="BO3" s="78"/>
-      <c r="BP3" s="78"/>
-      <c r="BQ3" s="78"/>
-      <c r="BR3" s="78"/>
+      <c r="AW3" s="62"/>
+      <c r="AX3" s="62"/>
+      <c r="AY3" s="62"/>
+      <c r="AZ3" s="62"/>
+      <c r="BA3" s="62"/>
+      <c r="BB3" s="62"/>
+      <c r="BC3" s="62"/>
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="62"/>
+      <c r="BF3" s="62"/>
+      <c r="BG3" s="62"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="62"/>
+      <c r="BJ3" s="62"/>
+      <c r="BK3" s="62"/>
+      <c r="BL3" s="62"/>
+      <c r="BM3" s="62"/>
+      <c r="BN3" s="62"/>
+      <c r="BO3" s="62"/>
+      <c r="BP3" s="62"/>
+      <c r="BQ3" s="62"/>
+      <c r="BR3" s="62"/>
       <c r="BS3" s="27"/>
     </row>
     <row r="4" spans="1:71" ht="15.75" customHeight="1">
       <c r="A4" s="9"/>
       <c r="B4" s="28"/>
       <c r="C4" s="37"/>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="79"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="67" t="s">
+      <c r="E4" s="63"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="69" t="s">
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="67" t="s">
+      <c r="M4" s="58"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="69" t="s">
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="67" t="s">
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="69" t="s">
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="68"/>
-      <c r="AK4" s="67" t="s">
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="AL4" s="68"/>
-      <c r="AM4" s="68"/>
-      <c r="AN4" s="68"/>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="69" t="s">
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="AQ4" s="68"/>
-      <c r="AR4" s="68"/>
-      <c r="AS4" s="68"/>
-      <c r="AT4" s="68"/>
-      <c r="AU4" s="67" t="s">
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="58"/>
+      <c r="AU4" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="AV4" s="68"/>
-      <c r="AW4" s="68"/>
-      <c r="AX4" s="68"/>
-      <c r="AY4" s="68"/>
-      <c r="AZ4" s="69" t="s">
+      <c r="AV4" s="58"/>
+      <c r="AW4" s="58"/>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="58"/>
+      <c r="AZ4" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="BA4" s="68"/>
-      <c r="BB4" s="68"/>
-      <c r="BC4" s="68"/>
-      <c r="BD4" s="68"/>
-      <c r="BE4" s="67" t="s">
+      <c r="BA4" s="58"/>
+      <c r="BB4" s="58"/>
+      <c r="BC4" s="58"/>
+      <c r="BD4" s="58"/>
+      <c r="BE4" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="BF4" s="68"/>
-      <c r="BG4" s="68"/>
-      <c r="BH4" s="68"/>
-      <c r="BI4" s="68"/>
-      <c r="BJ4" s="69" t="s">
+      <c r="BF4" s="58"/>
+      <c r="BG4" s="58"/>
+      <c r="BH4" s="58"/>
+      <c r="BI4" s="58"/>
+      <c r="BJ4" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="BK4" s="68"/>
-      <c r="BL4" s="68"/>
-      <c r="BM4" s="68"/>
-      <c r="BN4" s="68"/>
-      <c r="BO4" s="67" t="s">
+      <c r="BK4" s="58"/>
+      <c r="BL4" s="58"/>
+      <c r="BM4" s="58"/>
+      <c r="BN4" s="58"/>
+      <c r="BO4" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="BP4" s="68"/>
-      <c r="BQ4" s="68"/>
-      <c r="BR4" s="68"/>
-      <c r="BS4" s="76"/>
+      <c r="BP4" s="58"/>
+      <c r="BQ4" s="58"/>
+      <c r="BR4" s="58"/>
+      <c r="BS4" s="60"/>
     </row>
     <row r="5" spans="1:71" ht="15.75" customHeight="1">
       <c r="A5" s="9"/>
@@ -3384,19 +3535,19 @@
     </row>
     <row r="6" spans="1:71" ht="43.5" customHeight="1">
       <c r="A6" s="10"/>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="51">
+      <c r="C6" s="50">
         <v>1</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="52">
         <v>100</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="52" t="s">
         <v>28</v>
       </c>
       <c r="G6" s="17"/>
@@ -3467,17 +3618,17 @@
     </row>
     <row r="7" spans="1:71" ht="43.5" customHeight="1">
       <c r="A7" s="10"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="51">
+      <c r="B7" s="80"/>
+      <c r="C7" s="50">
         <v>2</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="52">
         <v>100</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="52" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="22"/>
@@ -3548,173 +3699,173 @@
     </row>
     <row r="8" spans="1:71" ht="21" customHeight="1">
       <c r="A8" s="10"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="70">
+      <c r="B8" s="80"/>
+      <c r="C8" s="67">
         <v>3</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="72">
+      <c r="E8" s="69">
         <v>100</v>
       </c>
-      <c r="F8" s="72" t="s">
+      <c r="F8" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="63"/>
-      <c r="W8" s="63"/>
-      <c r="X8" s="63"/>
-      <c r="Y8" s="63"/>
-      <c r="Z8" s="63"/>
-      <c r="AA8" s="63"/>
-      <c r="AB8" s="63"/>
-      <c r="AC8" s="63"/>
-      <c r="AD8" s="63"/>
-      <c r="AE8" s="63"/>
-      <c r="AF8" s="63"/>
-      <c r="AG8" s="63"/>
-      <c r="AH8" s="63"/>
-      <c r="AI8" s="63"/>
-      <c r="AJ8" s="63"/>
-      <c r="AK8" s="63"/>
-      <c r="AL8" s="63"/>
-      <c r="AM8" s="63"/>
-      <c r="AN8" s="63"/>
-      <c r="AO8" s="63"/>
-      <c r="AP8" s="63"/>
-      <c r="AQ8" s="63"/>
-      <c r="AR8" s="63"/>
-      <c r="AS8" s="63"/>
-      <c r="AT8" s="63"/>
-      <c r="AU8" s="63"/>
-      <c r="AV8" s="63"/>
-      <c r="AW8" s="63"/>
-      <c r="AX8" s="63"/>
-      <c r="AY8" s="63"/>
-      <c r="AZ8" s="63"/>
-      <c r="BA8" s="63"/>
-      <c r="BB8" s="63"/>
-      <c r="BC8" s="63"/>
-      <c r="BD8" s="63"/>
-      <c r="BE8" s="63"/>
-      <c r="BF8" s="63"/>
-      <c r="BG8" s="63"/>
-      <c r="BH8" s="63"/>
-      <c r="BI8" s="63"/>
-      <c r="BJ8" s="63"/>
-      <c r="BK8" s="63"/>
-      <c r="BL8" s="63"/>
-      <c r="BM8" s="63"/>
-      <c r="BN8" s="63"/>
-      <c r="BO8" s="63"/>
-      <c r="BP8" s="63"/>
-      <c r="BQ8" s="63"/>
-      <c r="BR8" s="63"/>
-      <c r="BS8" s="65"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="75"/>
+      <c r="R8" s="75"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="75"/>
+      <c r="U8" s="75"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="71"/>
+      <c r="AG8" s="71"/>
+      <c r="AH8" s="71"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="71"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="71"/>
+      <c r="AP8" s="71"/>
+      <c r="AQ8" s="71"/>
+      <c r="AR8" s="71"/>
+      <c r="AS8" s="71"/>
+      <c r="AT8" s="71"/>
+      <c r="AU8" s="71"/>
+      <c r="AV8" s="71"/>
+      <c r="AW8" s="71"/>
+      <c r="AX8" s="71"/>
+      <c r="AY8" s="71"/>
+      <c r="AZ8" s="71"/>
+      <c r="BA8" s="71"/>
+      <c r="BB8" s="71"/>
+      <c r="BC8" s="71"/>
+      <c r="BD8" s="71"/>
+      <c r="BE8" s="71"/>
+      <c r="BF8" s="71"/>
+      <c r="BG8" s="71"/>
+      <c r="BH8" s="71"/>
+      <c r="BI8" s="71"/>
+      <c r="BJ8" s="71"/>
+      <c r="BK8" s="71"/>
+      <c r="BL8" s="71"/>
+      <c r="BM8" s="71"/>
+      <c r="BN8" s="71"/>
+      <c r="BO8" s="71"/>
+      <c r="BP8" s="71"/>
+      <c r="BQ8" s="71"/>
+      <c r="BR8" s="71"/>
+      <c r="BS8" s="73"/>
     </row>
     <row r="9" spans="1:71" ht="21" customHeight="1">
       <c r="A9" s="10"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="52" t="s">
+      <c r="B9" s="80"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="62"/>
-      <c r="T9" s="62"/>
-      <c r="U9" s="62"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="64"/>
-      <c r="AB9" s="64"/>
-      <c r="AC9" s="64"/>
-      <c r="AD9" s="64"/>
-      <c r="AE9" s="64"/>
-      <c r="AF9" s="64"/>
-      <c r="AG9" s="64"/>
-      <c r="AH9" s="64"/>
-      <c r="AI9" s="64"/>
-      <c r="AJ9" s="64"/>
-      <c r="AK9" s="64"/>
-      <c r="AL9" s="64"/>
-      <c r="AM9" s="64"/>
-      <c r="AN9" s="64"/>
-      <c r="AO9" s="64"/>
-      <c r="AP9" s="64"/>
-      <c r="AQ9" s="64"/>
-      <c r="AR9" s="64"/>
-      <c r="AS9" s="64"/>
-      <c r="AT9" s="64"/>
-      <c r="AU9" s="64"/>
-      <c r="AV9" s="64"/>
-      <c r="AW9" s="64"/>
-      <c r="AX9" s="64"/>
-      <c r="AY9" s="64"/>
-      <c r="AZ9" s="64"/>
-      <c r="BA9" s="64"/>
-      <c r="BB9" s="64"/>
-      <c r="BC9" s="64"/>
-      <c r="BD9" s="64"/>
-      <c r="BE9" s="64"/>
-      <c r="BF9" s="64"/>
-      <c r="BG9" s="64"/>
-      <c r="BH9" s="64"/>
-      <c r="BI9" s="64"/>
-      <c r="BJ9" s="64"/>
-      <c r="BK9" s="64"/>
-      <c r="BL9" s="64"/>
-      <c r="BM9" s="64"/>
-      <c r="BN9" s="64"/>
-      <c r="BO9" s="64"/>
-      <c r="BP9" s="64"/>
-      <c r="BQ9" s="64"/>
-      <c r="BR9" s="64"/>
-      <c r="BS9" s="66"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="72"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="72"/>
+      <c r="AL9" s="72"/>
+      <c r="AM9" s="72"/>
+      <c r="AN9" s="72"/>
+      <c r="AO9" s="72"/>
+      <c r="AP9" s="72"/>
+      <c r="AQ9" s="72"/>
+      <c r="AR9" s="72"/>
+      <c r="AS9" s="72"/>
+      <c r="AT9" s="72"/>
+      <c r="AU9" s="72"/>
+      <c r="AV9" s="72"/>
+      <c r="AW9" s="72"/>
+      <c r="AX9" s="72"/>
+      <c r="AY9" s="72"/>
+      <c r="AZ9" s="72"/>
+      <c r="BA9" s="72"/>
+      <c r="BB9" s="72"/>
+      <c r="BC9" s="72"/>
+      <c r="BD9" s="72"/>
+      <c r="BE9" s="72"/>
+      <c r="BF9" s="72"/>
+      <c r="BG9" s="72"/>
+      <c r="BH9" s="72"/>
+      <c r="BI9" s="72"/>
+      <c r="BJ9" s="72"/>
+      <c r="BK9" s="72"/>
+      <c r="BL9" s="72"/>
+      <c r="BM9" s="72"/>
+      <c r="BN9" s="72"/>
+      <c r="BO9" s="72"/>
+      <c r="BP9" s="72"/>
+      <c r="BQ9" s="72"/>
+      <c r="BR9" s="72"/>
+      <c r="BS9" s="74"/>
     </row>
     <row r="10" spans="1:71" ht="43.5" customHeight="1">
       <c r="A10" s="10"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="51">
+      <c r="B10" s="80"/>
+      <c r="C10" s="50">
         <v>4</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="52">
         <v>100</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="54" t="s">
         <v>34</v>
       </c>
       <c r="G10" s="22"/>
@@ -3785,17 +3936,19 @@
     </row>
     <row r="11" spans="1:71" ht="43.5" customHeight="1">
       <c r="A11" s="10"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="38">
+      <c r="B11" s="80"/>
+      <c r="C11" s="50">
         <v>5</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="44">
-        <v>30</v>
-      </c>
-      <c r="F11" s="44"/>
+      <c r="E11" s="52">
+        <v>100</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>37</v>
+      </c>
       <c r="G11" s="22"/>
       <c r="H11" s="24"/>
       <c r="I11" s="20"/>
@@ -3864,19 +4017,21 @@
     </row>
     <row r="12" spans="1:71" ht="100.5" customHeight="1">
       <c r="A12" s="10"/>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="50">
         <v>6</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="44">
-        <v>0</v>
-      </c>
-      <c r="F12" s="50"/>
+      <c r="E12" s="52">
+        <v>100</v>
+      </c>
+      <c r="F12" s="82" t="s">
+        <v>39</v>
+      </c>
       <c r="G12" s="22"/>
       <c r="H12" s="24"/>
       <c r="I12" s="20"/>
@@ -3918,10 +4073,10 @@
       <c r="AS12" s="33"/>
       <c r="AT12" s="33"/>
       <c r="AU12" s="33"/>
-      <c r="AV12" s="33"/>
-      <c r="AW12" s="33"/>
-      <c r="AX12" s="33"/>
-      <c r="AY12" s="33"/>
+      <c r="AV12" s="83"/>
+      <c r="AW12" s="83"/>
+      <c r="AX12" s="83"/>
+      <c r="AY12" s="83"/>
       <c r="AZ12" s="20"/>
       <c r="BA12" s="20"/>
       <c r="BB12" s="20"/>
@@ -3945,15 +4100,15 @@
     </row>
     <row r="13" spans="1:71" ht="100.5" customHeight="1">
       <c r="A13" s="10"/>
-      <c r="B13" s="60"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="38">
         <v>7</v>
       </c>
-      <c r="D13" s="58" t="s">
-        <v>37</v>
+      <c r="D13" s="49" t="s">
+        <v>38</v>
       </c>
       <c r="E13" s="44">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F13" s="44"/>
       <c r="G13" s="22"/>
@@ -3997,10 +4152,10 @@
       <c r="AS13" s="20"/>
       <c r="AT13" s="20"/>
       <c r="AU13" s="20"/>
-      <c r="AV13" s="20"/>
-      <c r="AW13" s="20"/>
-      <c r="AX13" s="20"/>
-      <c r="AY13" s="20"/>
+      <c r="AV13" s="33"/>
+      <c r="AW13" s="33"/>
+      <c r="AX13" s="33"/>
+      <c r="AY13" s="33"/>
       <c r="AZ13" s="33"/>
       <c r="BA13" s="33"/>
       <c r="BB13" s="33"/>
@@ -4048,23 +4203,23 @@
     </row>
     <row r="20" spans="1:4" ht="12.75">
       <c r="A20" s="11"/>
-      <c r="D20" s="57"/>
+      <c r="D20" s="56"/>
     </row>
     <row r="21" spans="1:4" ht="12.75">
       <c r="A21" s="11"/>
-      <c r="D21" s="57"/>
+      <c r="D21" s="56"/>
     </row>
     <row r="22" spans="1:4" ht="12.75">
       <c r="A22" s="11"/>
-      <c r="D22" s="56"/>
+      <c r="D22" s="55"/>
     </row>
     <row r="23" spans="1:4" ht="12.75">
       <c r="A23" s="11"/>
-      <c r="D23" s="56"/>
+      <c r="D23" s="55"/>
     </row>
     <row r="24" spans="1:4" ht="12.75">
       <c r="A24" s="11"/>
-      <c r="D24" s="56"/>
+      <c r="D24" s="55"/>
     </row>
     <row r="25" spans="1:4" ht="12.75">
       <c r="A25" s="11"/>
@@ -6936,6 +7091,77 @@
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="AZ8:AZ9"/>
+    <mergeCell ref="BA8:BA9"/>
+    <mergeCell ref="BB8:BB9"/>
+    <mergeCell ref="BC8:BC9"/>
+    <mergeCell ref="BD8:BD9"/>
+    <mergeCell ref="BE8:BE9"/>
+    <mergeCell ref="BF8:BF9"/>
+    <mergeCell ref="BG8:BG9"/>
+    <mergeCell ref="BH8:BH9"/>
+    <mergeCell ref="BI8:BI9"/>
+    <mergeCell ref="BS8:BS9"/>
+    <mergeCell ref="BJ8:BJ9"/>
+    <mergeCell ref="BK8:BK9"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BM8:BM9"/>
+    <mergeCell ref="BN8:BN9"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BQ8:BQ9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="AV8:AV9"/>
+    <mergeCell ref="AW8:AW9"/>
+    <mergeCell ref="AX8:AX9"/>
+    <mergeCell ref="AY8:AY9"/>
+    <mergeCell ref="AP8:AP9"/>
+    <mergeCell ref="AQ8:AQ9"/>
+    <mergeCell ref="AR8:AR9"/>
+    <mergeCell ref="AS8:AS9"/>
+    <mergeCell ref="AT8:AT9"/>
+    <mergeCell ref="AU8:AU9"/>
+    <mergeCell ref="AK8:AK9"/>
+    <mergeCell ref="AL8:AL9"/>
+    <mergeCell ref="AM8:AM9"/>
+    <mergeCell ref="AN8:AN9"/>
+    <mergeCell ref="AO8:AO9"/>
+    <mergeCell ref="AF8:AF9"/>
+    <mergeCell ref="AG8:AG9"/>
+    <mergeCell ref="AH8:AH9"/>
+    <mergeCell ref="AI8:AI9"/>
+    <mergeCell ref="AJ8:AJ9"/>
+    <mergeCell ref="AA8:AA9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="AE8:AE9"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="U8:U9"/>
     <mergeCell ref="BJ4:BN4"/>
     <mergeCell ref="BO4:BS4"/>
     <mergeCell ref="AV3:BR3"/>
@@ -6952,77 +7178,6 @@
     <mergeCell ref="G3:Z3"/>
     <mergeCell ref="G4:K4"/>
     <mergeCell ref="L4:P4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="Z8:Z9"/>
-    <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="AE8:AE9"/>
-    <mergeCell ref="AF8:AF9"/>
-    <mergeCell ref="AG8:AG9"/>
-    <mergeCell ref="AH8:AH9"/>
-    <mergeCell ref="AI8:AI9"/>
-    <mergeCell ref="AJ8:AJ9"/>
-    <mergeCell ref="AK8:AK9"/>
-    <mergeCell ref="AL8:AL9"/>
-    <mergeCell ref="AM8:AM9"/>
-    <mergeCell ref="AN8:AN9"/>
-    <mergeCell ref="AO8:AO9"/>
-    <mergeCell ref="AV8:AV9"/>
-    <mergeCell ref="AW8:AW9"/>
-    <mergeCell ref="AX8:AX9"/>
-    <mergeCell ref="AY8:AY9"/>
-    <mergeCell ref="AP8:AP9"/>
-    <mergeCell ref="AQ8:AQ9"/>
-    <mergeCell ref="AR8:AR9"/>
-    <mergeCell ref="AS8:AS9"/>
-    <mergeCell ref="AT8:AT9"/>
-    <mergeCell ref="BS8:BS9"/>
-    <mergeCell ref="BJ8:BJ9"/>
-    <mergeCell ref="BK8:BK9"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BM8:BM9"/>
-    <mergeCell ref="BN8:BN9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BQ8:BQ9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BE8:BE9"/>
-    <mergeCell ref="BF8:BF9"/>
-    <mergeCell ref="BG8:BG9"/>
-    <mergeCell ref="BH8:BH9"/>
-    <mergeCell ref="BI8:BI9"/>
-    <mergeCell ref="AZ8:AZ9"/>
-    <mergeCell ref="BA8:BA9"/>
-    <mergeCell ref="BB8:BB9"/>
-    <mergeCell ref="BC8:BC9"/>
-    <mergeCell ref="BD8:BD9"/>
-    <mergeCell ref="AU8:AU9"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="B6:B11"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
@@ -7032,11 +7187,12 @@
     <hyperlink ref="D8" r:id="rId4" xr:uid="{E9C8EF66-3069-4468-9995-19CD38EEB4BB}"/>
     <hyperlink ref="D10" r:id="rId5" xr:uid="{15A4D1D0-2F2B-4C8F-B307-F1AD4AE73C44}"/>
     <hyperlink ref="D11" r:id="rId6" xr:uid="{7BBB70F9-821D-4E64-965E-99E44F64CEAE}"/>
+    <hyperlink ref="D13" r:id="rId7" display="7주차_DevExtreme_DataGrid_Popup.pptx" xr:uid="{E2C8AE4D-F043-404A-9307-75489B0DF5B8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="7.874015748031496E-2" right="7.874015748031496E-2" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
 </worksheet>
 </file>
 
